--- a/plate-reader-screens/plate_layouts.xlsx
+++ b/plate-reader-screens/plate_layouts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aqib/Desktop/BCCL/adp1-adaptation/plate_reader_screens/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aqib/Desktop/BCCL/circuit-state/plate-reader-screens/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C495F6-B2C6-304D-B67E-E93C279FD589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10747675-C4D8-7249-8033-E3B45C22359B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{86E41D9F-BC50-BD4C-BFC8-A140258F459E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38060" windowHeight="21860" activeTab="2" xr2:uid="{86E41D9F-BC50-BD4C-BFC8-A140258F459E}"/>
   </bookViews>
   <sheets>
     <sheet name="adp1_antibiotic_10.16" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="80">
   <si>
     <t>well</t>
   </si>
@@ -191,7 +191,91 @@
     <t>IPTG</t>
   </si>
   <si>
-    <t xml:space="preserve">NOT COMPLETE </t>
+    <t>compound _1</t>
+  </si>
+  <si>
+    <t>concentration_unit_1</t>
+  </si>
+  <si>
+    <t>concentration_1</t>
+  </si>
+  <si>
+    <t>compound_volume_1</t>
+  </si>
+  <si>
+    <t>compound_2</t>
+  </si>
+  <si>
+    <t>concentration_unit_2</t>
+  </si>
+  <si>
+    <t>concentration_2</t>
+  </si>
+  <si>
+    <t>compound_volume_2</t>
+  </si>
+  <si>
+    <t>pBWB163</t>
+  </si>
+  <si>
+    <t>pBWB164</t>
+  </si>
+  <si>
+    <t>Ampicilin</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>G9</t>
   </si>
 </sst>
 </file>
@@ -2589,10 +2673,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EA0AB2-4F32-6046-BCF2-3174397BF17B}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2609,682 +2693,1744 @@
     <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="3">
+        <v>250</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="3">
+        <v>250</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="3">
+        <v>250</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="3">
+        <v>2</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="3">
+        <v>250</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="3">
+        <v>250</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="3">
+        <v>250</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="3">
+        <v>2</v>
+      </c>
+      <c r="O7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="3">
+        <v>8</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="3">
+        <v>248</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="3">
+        <v>8</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="3">
+        <v>248</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="3">
+        <v>8</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="3">
+        <v>248</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" s="3">
+        <v>2</v>
+      </c>
+      <c r="O10" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="3">
+        <v>8</v>
+      </c>
+      <c r="J11" s="3">
+        <v>2</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="3">
+        <v>248</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="3">
+        <v>8</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" s="3">
+        <v>248</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1</v>
+      </c>
+      <c r="O12" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="3">
+        <v>8</v>
+      </c>
+      <c r="J13" s="3">
+        <v>2</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" s="3">
+        <v>248</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13" s="3">
+        <v>2</v>
+      </c>
+      <c r="O13" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="3">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="3">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
+        <v>2</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="3">
+        <v>245.5</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="3">
+        <v>10</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="3">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3">
+        <v>2</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" s="3">
+        <v>245.5</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15" s="3">
+        <v>1</v>
+      </c>
+      <c r="O15" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="3">
+        <v>10</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="3">
+        <v>8</v>
+      </c>
+      <c r="J16" s="3">
+        <v>2</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16" s="3">
+        <v>245.5</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N16" s="3">
+        <v>2</v>
+      </c>
+      <c r="O16" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="3">
+        <v>10</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="3">
+        <v>8</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="3">
+        <v>245.5</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="3">
+        <v>10</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="3">
+        <v>8</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" s="3">
+        <v>245.5</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1</v>
+      </c>
+      <c r="O18" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="3">
+        <v>10</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="3">
+        <v>8</v>
+      </c>
+      <c r="J19" s="3">
+        <v>2</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" s="3">
+        <v>245.5</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19" s="3">
+        <v>2</v>
+      </c>
+      <c r="O19" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="3">
+        <v>20</v>
+      </c>
+      <c r="F20" s="3">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="3">
+        <v>8</v>
+      </c>
+      <c r="J20" s="3">
+        <v>2</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20" s="3">
+        <v>243</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="3">
+        <v>20</v>
+      </c>
+      <c r="F21" s="3">
+        <v>5</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="3">
+        <v>8</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" s="3">
+        <v>243</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21" s="3">
+        <v>1</v>
+      </c>
+      <c r="O21" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="3">
+        <v>20</v>
+      </c>
+      <c r="F22" s="3">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="3">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3">
+        <v>2</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L22" s="3">
+        <v>243</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N22" s="3">
+        <v>2</v>
+      </c>
+      <c r="O22" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="3">
+        <v>20</v>
+      </c>
+      <c r="F23" s="3">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="3">
+        <v>8</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23" s="3">
+        <v>243</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="3">
+        <v>20</v>
+      </c>
+      <c r="F24" s="3">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="G24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" s="3">
+        <v>8</v>
+      </c>
+      <c r="J24" s="3">
+        <v>2</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L24" s="3">
+        <v>243</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N24" s="3">
+        <v>1</v>
+      </c>
+      <c r="O24" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="3">
+        <v>20</v>
+      </c>
+      <c r="F25" s="3">
+        <v>5</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25" s="3">
+        <v>8</v>
+      </c>
+      <c r="J25" s="3">
+        <v>2</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L25" s="3">
+        <v>243</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N25" s="3">
+        <v>2</v>
+      </c>
+      <c r="O25" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2">
+      <c r="C26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="3">
+        <v>40</v>
+      </c>
+      <c r="F26" s="3">
+        <v>10</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" s="3">
+        <v>8</v>
+      </c>
+      <c r="J26" s="3">
+        <v>2</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L26" s="3">
+        <v>238</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="3">
+        <v>40</v>
+      </c>
+      <c r="F27" s="3">
+        <v>10</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" s="3">
+        <v>8</v>
+      </c>
+      <c r="J27" s="3">
+        <v>2</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L27" s="3">
+        <v>238</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N27" s="3">
+        <v>1</v>
+      </c>
+      <c r="O27" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="3">
+        <v>40</v>
+      </c>
+      <c r="F28" s="3">
+        <v>10</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28" s="3">
+        <v>8</v>
+      </c>
+      <c r="J28" s="3">
+        <v>2</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L28" s="3">
+        <v>238</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N28" s="3">
+        <v>2</v>
+      </c>
+      <c r="O28" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="3">
+        <v>40</v>
+      </c>
+      <c r="F29" s="3">
+        <v>10</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" s="3">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
+        <v>2</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L29" s="3">
+        <v>238</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="3">
+        <v>40</v>
+      </c>
+      <c r="F30" s="3">
+        <v>10</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30" s="3">
+        <v>8</v>
+      </c>
+      <c r="J30" s="3">
+        <v>2</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L30" s="3">
+        <v>238</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N30" s="3">
+        <v>1</v>
+      </c>
+      <c r="O30" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="3">
+        <v>40</v>
+      </c>
+      <c r="F31" s="3">
+        <v>10</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>2</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L31" s="3">
+        <v>238</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N31" s="3">
+        <v>2</v>
+      </c>
+      <c r="O31" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="3">
         <v>250</v>
       </c>
-      <c r="I2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2">
+      <c r="F32" s="3">
+        <v>6.25</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32" s="3">
+        <v>8</v>
+      </c>
+      <c r="J32" s="3">
+        <v>2</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L32" s="3">
+        <v>241.5</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="K2" s="3">
+      <c r="O32" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="3">
+        <v>250</v>
+      </c>
+      <c r="F33" s="3">
+        <v>6.25</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I33" s="3">
+        <v>8</v>
+      </c>
+      <c r="J33" s="3">
+        <v>2</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L33" s="3">
+        <v>241.5</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N33" s="3">
+        <v>1</v>
+      </c>
+      <c r="O33" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="3">
+        <v>250</v>
+      </c>
+      <c r="F34" s="3">
+        <v>6.25</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I34" s="3">
+        <v>8</v>
+      </c>
+      <c r="J34" s="3">
+        <v>2</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L34" s="3">
+        <v>241.5</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N34" s="3">
+        <v>2</v>
+      </c>
+      <c r="O34" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="3">
+        <v>250</v>
+      </c>
+      <c r="F35" s="3">
+        <v>6.25</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I35" s="3">
+        <v>8</v>
+      </c>
+      <c r="J35" s="3">
+        <v>2</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L35" s="3">
+        <v>241.5</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3">
+      <c r="O35" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="3">
         <v>250</v>
       </c>
-      <c r="I3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3">
+      <c r="F36" s="3">
+        <v>6.25</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I36" s="3">
+        <v>8</v>
+      </c>
+      <c r="J36" s="3">
+        <v>2</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L36" s="3">
+        <v>241.5</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N36" s="3">
         <v>1</v>
       </c>
-      <c r="K3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4">
+      <c r="O36" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="3">
         <v>250</v>
       </c>
-      <c r="I4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="F37" s="3">
+        <v>6.25</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I37" s="3">
+        <v>8</v>
+      </c>
+      <c r="J37" s="3">
+        <v>2</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L37" s="3">
+        <v>241.5</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N37" s="3">
+        <v>2</v>
+      </c>
+      <c r="O37" s="3">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5">
-        <v>250</v>
-      </c>
-      <c r="I5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6">
-        <v>250</v>
-      </c>
-      <c r="I6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7">
-        <v>250</v>
-      </c>
-      <c r="I7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8">
-        <v>8</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8">
-        <v>248</v>
-      </c>
-      <c r="I8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9">
-        <v>248</v>
-      </c>
-      <c r="I9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10">
-        <v>8</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10">
-        <v>248</v>
-      </c>
-      <c r="I10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10">
-        <v>2</v>
-      </c>
-      <c r="K10" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11">
-        <v>8</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11">
-        <v>248</v>
-      </c>
-      <c r="I11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12">
-        <v>8</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12">
-        <v>248</v>
-      </c>
-      <c r="I12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13">
-        <v>8</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13">
-        <v>248</v>
-      </c>
-      <c r="I13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13">
-        <v>2</v>
-      </c>
-      <c r="K13" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14">
-        <v>8</v>
-      </c>
-      <c r="F14">
-        <v>25</v>
-      </c>
-      <c r="G14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14">
-        <v>225</v>
-      </c>
-      <c r="I14" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15">
-        <v>8</v>
-      </c>
-      <c r="F15">
-        <v>25</v>
-      </c>
-      <c r="G15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15">
-        <v>225</v>
-      </c>
-      <c r="I15" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16">
-        <v>8</v>
-      </c>
-      <c r="F16">
-        <v>25</v>
-      </c>
-      <c r="G16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16">
-        <v>225</v>
-      </c>
-      <c r="I16" t="s">
-        <v>40</v>
-      </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
-      <c r="K16" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17">
-        <v>8</v>
-      </c>
-      <c r="F17">
-        <v>25</v>
-      </c>
-      <c r="G17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17">
-        <v>225</v>
-      </c>
-      <c r="I17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18">
-        <v>8</v>
-      </c>
-      <c r="F18">
-        <v>25</v>
-      </c>
-      <c r="G18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18">
-        <v>225</v>
-      </c>
-      <c r="I18" t="s">
-        <v>40</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19">
-        <v>8</v>
-      </c>
-      <c r="F19">
-        <v>25</v>
-      </c>
-      <c r="G19" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19">
-        <v>225</v>
-      </c>
-      <c r="I19" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19">
-        <v>2</v>
-      </c>
-      <c r="K19" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E21" t="s">
-        <v>51</v>
-      </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plate-reader-screens/plate_layouts.xlsx
+++ b/plate-reader-screens/plate_layouts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aqib/Desktop/BCCL/circuit-state/plate-reader-screens/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linus\Desktop\BCCL\circuit-state\plate-reader-screens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10747675-C4D8-7249-8033-E3B45C22359B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B1E180-5B35-4204-8F01-309C5377F8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38060" windowHeight="21860" activeTab="2" xr2:uid="{86E41D9F-BC50-BD4C-BFC8-A140258F459E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{86E41D9F-BC50-BD4C-BFC8-A140258F459E}"/>
   </bookViews>
   <sheets>
     <sheet name="adp1_antibiotic_10.16" sheetId="6" r:id="rId1"/>
@@ -25,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="78">
   <si>
     <t>well</t>
   </si>
@@ -213,12 +211,6 @@
   </si>
   <si>
     <t>compound_volume_2</t>
-  </si>
-  <si>
-    <t>pBWB163</t>
-  </si>
-  <si>
-    <t>pBWB164</t>
   </si>
   <si>
     <t>Ampicilin</t>
@@ -669,7 +661,7 @@
       <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
@@ -678,7 +670,7 @@
     <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,7 +705,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -748,7 +740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -783,7 +775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -818,7 +810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -853,7 +845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -888,7 +880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -923,7 +915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -958,7 +950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -993,7 +985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1028,7 +1020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1063,7 +1055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1098,7 +1090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1133,7 +1125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1168,7 +1160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1203,7 +1195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1238,7 +1230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1273,7 +1265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1308,7 +1300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1343,7 +1335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1378,7 +1370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1413,7 +1405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1448,7 +1440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1483,7 +1475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1518,7 +1510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1553,7 +1545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1588,7 +1580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1623,7 +1615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1671,7 +1663,7 @@
       <selection activeCell="K2" sqref="K2:K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.83203125" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
@@ -1685,7 +1677,7 @@
     <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1720,7 +1712,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1755,7 +1747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1790,7 +1782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1825,7 +1817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1860,7 +1852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1895,7 +1887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1930,7 +1922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1965,7 +1957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2000,7 +1992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2035,7 +2027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2070,7 +2062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2105,7 +2097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2140,7 +2132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2175,7 +2167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2210,7 +2202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -2245,7 +2237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -2280,7 +2272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -2315,7 +2307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -2350,7 +2342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -2385,7 +2377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -2420,7 +2412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -2455,7 +2447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -2490,7 +2482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -2525,7 +2517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2560,7 +2552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -2595,7 +2587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -2630,7 +2622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -2676,10 +2668,10 @@
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.83203125" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
@@ -2693,7 +2685,7 @@
     <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2740,7 +2732,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -2787,7 +2779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -2834,7 +2826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -2881,7 +2873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -2928,12 +2920,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>46</v>
@@ -2975,12 +2967,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>46</v>
@@ -3022,7 +3014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -3042,7 +3034,7 @@
         <v>46</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>42</v>
@@ -3069,7 +3061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -3089,7 +3081,7 @@
         <v>46</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>42</v>
@@ -3116,7 +3108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -3136,7 +3128,7 @@
         <v>46</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>42</v>
@@ -3163,7 +3155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -3183,7 +3175,7 @@
         <v>46</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>42</v>
@@ -3210,7 +3202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
@@ -3230,7 +3222,7 @@
         <v>46</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>42</v>
@@ -3257,12 +3249,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>50</v>
@@ -3277,7 +3269,7 @@
         <v>46</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>42</v>
@@ -3304,7 +3296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
@@ -3324,7 +3316,7 @@
         <v>2.5</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>42</v>
@@ -3351,7 +3343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
@@ -3371,7 +3363,7 @@
         <v>2.5</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>42</v>
@@ -3398,7 +3390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
@@ -3418,7 +3410,7 @@
         <v>2.5</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>42</v>
@@ -3445,7 +3437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>30</v>
       </c>
@@ -3465,7 +3457,7 @@
         <v>2.5</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>42</v>
@@ -3492,7 +3484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>31</v>
       </c>
@@ -3512,7 +3504,7 @@
         <v>2.5</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>42</v>
@@ -3539,12 +3531,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>50</v>
@@ -3559,7 +3551,7 @@
         <v>2.5</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>42</v>
@@ -3586,9 +3578,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>35</v>
@@ -3606,7 +3598,7 @@
         <v>5</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>42</v>
@@ -3633,9 +3625,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>35</v>
@@ -3653,7 +3645,7 @@
         <v>5</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>42</v>
@@ -3680,9 +3672,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>35</v>
@@ -3700,7 +3692,7 @@
         <v>5</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>42</v>
@@ -3727,9 +3719,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>49</v>
@@ -3747,7 +3739,7 @@
         <v>5</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>42</v>
@@ -3774,9 +3766,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>49</v>
@@ -3794,7 +3786,7 @@
         <v>5</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>42</v>
@@ -3821,12 +3813,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>50</v>
@@ -3841,7 +3833,7 @@
         <v>5</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>42</v>
@@ -3868,9 +3860,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>35</v>
@@ -3888,7 +3880,7 @@
         <v>10</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>42</v>
@@ -3915,9 +3907,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>35</v>
@@ -3935,7 +3927,7 @@
         <v>10</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>42</v>
@@ -3962,9 +3954,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>35</v>
@@ -3982,7 +3974,7 @@
         <v>10</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>42</v>
@@ -4009,9 +4001,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>49</v>
@@ -4029,7 +4021,7 @@
         <v>10</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>42</v>
@@ -4056,9 +4048,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>49</v>
@@ -4076,7 +4068,7 @@
         <v>10</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>42</v>
@@ -4103,12 +4095,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>50</v>
@@ -4123,7 +4115,7 @@
         <v>10</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>42</v>
@@ -4150,9 +4142,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>35</v>
@@ -4170,7 +4162,7 @@
         <v>6.25</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>42</v>
@@ -4197,9 +4189,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>35</v>
@@ -4217,7 +4209,7 @@
         <v>6.25</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>42</v>
@@ -4244,9 +4236,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>35</v>
@@ -4264,7 +4256,7 @@
         <v>6.25</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>42</v>
@@ -4291,9 +4283,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>49</v>
@@ -4311,7 +4303,7 @@
         <v>6.25</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>42</v>
@@ -4338,9 +4330,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -4358,7 +4350,7 @@
         <v>6.25</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>42</v>
@@ -4385,12 +4377,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>50</v>
@@ -4405,7 +4397,7 @@
         <v>6.25</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>42</v>

--- a/plate-reader-screens/plate_layouts.xlsx
+++ b/plate-reader-screens/plate_layouts.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linus\Desktop\BCCL\circuit-state\plate-reader-screens\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aqib/Desktop/BCCL/circuit-state/plate-reader-screens/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B1E180-5B35-4204-8F01-309C5377F8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC6D8FC-8A1D-DA4D-8D99-5A7A775B1E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{86E41D9F-BC50-BD4C-BFC8-A140258F459E}"/>
+    <workbookView xWindow="140" yWindow="500" windowWidth="40040" windowHeight="27440" activeTab="3" xr2:uid="{86E41D9F-BC50-BD4C-BFC8-A140258F459E}"/>
   </bookViews>
   <sheets>
-    <sheet name="adp1_antibiotic_10.16" sheetId="6" r:id="rId1"/>
-    <sheet name="adp1_antibiotic_10.12" sheetId="4" r:id="rId2"/>
+    <sheet name="adp1_antibiotic_10.12" sheetId="4" r:id="rId1"/>
+    <sheet name="adp1_antibiotic_10.16" sheetId="6" r:id="rId2"/>
     <sheet name="adp1_antibiotic_10.18" sheetId="7" r:id="rId3"/>
+    <sheet name="mgz1_antibiotic_11.9" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="81">
   <si>
     <t>well</t>
   </si>
@@ -189,9 +190,6 @@
     <t>IPTG</t>
   </si>
   <si>
-    <t>compound _1</t>
-  </si>
-  <si>
     <t>concentration_unit_1</t>
   </si>
   <si>
@@ -213,9 +211,6 @@
     <t>compound_volume_2</t>
   </si>
   <si>
-    <t>Ampicilin</t>
-  </si>
-  <si>
     <t>E4</t>
   </si>
   <si>
@@ -268,6 +263,21 @@
   </si>
   <si>
     <t>G9</t>
+  </si>
+  <si>
+    <t>MGZ1</t>
+  </si>
+  <si>
+    <t>dCASRx</t>
+  </si>
+  <si>
+    <t>mM</t>
+  </si>
+  <si>
+    <t>compound_1</t>
+  </si>
+  <si>
+    <t>wmedia</t>
   </si>
 </sst>
 </file>
@@ -332,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -341,6 +351,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,1016 +665,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67F337F-D56F-DE4B-B44D-97EF61F12050}">
-  <dimension ref="A1:K28"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2">
-        <v>250</v>
-      </c>
-      <c r="I2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3">
-        <v>250</v>
-      </c>
-      <c r="I3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4">
-        <v>250</v>
-      </c>
-      <c r="I4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5">
-        <v>250</v>
-      </c>
-      <c r="I5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6">
-        <v>250</v>
-      </c>
-      <c r="I6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7">
-        <v>250</v>
-      </c>
-      <c r="I7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8">
-        <v>250</v>
-      </c>
-      <c r="I8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9">
-        <v>250</v>
-      </c>
-      <c r="I9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10">
-        <v>250</v>
-      </c>
-      <c r="I10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10">
-        <v>2</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11">
-        <v>8</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11">
-        <v>248</v>
-      </c>
-      <c r="I11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12">
-        <v>8</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12">
-        <v>248</v>
-      </c>
-      <c r="I12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13">
-        <v>8</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13">
-        <v>248</v>
-      </c>
-      <c r="I13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13">
-        <v>2</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14">
-        <v>8</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14">
-        <v>248</v>
-      </c>
-      <c r="I14" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15">
-        <v>8</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15">
-        <v>248</v>
-      </c>
-      <c r="I15" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16">
-        <v>8</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16">
-        <v>248</v>
-      </c>
-      <c r="I16" t="s">
-        <v>40</v>
-      </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
-      <c r="K16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17">
-        <v>8</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17">
-        <v>248</v>
-      </c>
-      <c r="I17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18">
-        <v>8</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18">
-        <v>248</v>
-      </c>
-      <c r="I18" t="s">
-        <v>40</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19">
-        <v>8</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19">
-        <v>248</v>
-      </c>
-      <c r="I19" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19">
-        <v>2</v>
-      </c>
-      <c r="K19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20">
-        <v>16</v>
-      </c>
-      <c r="F20">
-        <v>4</v>
-      </c>
-      <c r="G20" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20">
-        <v>246</v>
-      </c>
-      <c r="I20" t="s">
-        <v>40</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21">
-        <v>16</v>
-      </c>
-      <c r="F21">
-        <v>4</v>
-      </c>
-      <c r="G21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21">
-        <v>246</v>
-      </c>
-      <c r="I21" t="s">
-        <v>40</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22">
-        <v>16</v>
-      </c>
-      <c r="F22">
-        <v>4</v>
-      </c>
-      <c r="G22" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22">
-        <v>246</v>
-      </c>
-      <c r="I22" t="s">
-        <v>40</v>
-      </c>
-      <c r="J22">
-        <v>2</v>
-      </c>
-      <c r="K22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23">
-        <v>16</v>
-      </c>
-      <c r="F23">
-        <v>4</v>
-      </c>
-      <c r="G23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23">
-        <v>246</v>
-      </c>
-      <c r="I23" t="s">
-        <v>40</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24">
-        <v>16</v>
-      </c>
-      <c r="F24">
-        <v>4</v>
-      </c>
-      <c r="G24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24">
-        <v>246</v>
-      </c>
-      <c r="I24" t="s">
-        <v>40</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25">
-        <v>16</v>
-      </c>
-      <c r="F25">
-        <v>4</v>
-      </c>
-      <c r="G25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H25">
-        <v>246</v>
-      </c>
-      <c r="I25" t="s">
-        <v>40</v>
-      </c>
-      <c r="J25">
-        <v>2</v>
-      </c>
-      <c r="K25">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26">
-        <v>16</v>
-      </c>
-      <c r="F26">
-        <v>4</v>
-      </c>
-      <c r="G26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26">
-        <v>246</v>
-      </c>
-      <c r="I26" t="s">
-        <v>40</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27">
-        <v>16</v>
-      </c>
-      <c r="F27">
-        <v>4</v>
-      </c>
-      <c r="G27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H27">
-        <v>246</v>
-      </c>
-      <c r="I27" t="s">
-        <v>40</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28">
-        <v>16</v>
-      </c>
-      <c r="F28">
-        <v>4</v>
-      </c>
-      <c r="G28" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28">
-        <v>246</v>
-      </c>
-      <c r="I28" t="s">
-        <v>40</v>
-      </c>
-      <c r="J28">
-        <v>2</v>
-      </c>
-      <c r="K28">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5067E9B4-9539-074C-B754-EBBC23113DE7}">
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K4"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.83203125" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
@@ -1677,7 +686,7 @@
     <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1712,7 +721,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1747,7 +756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1782,7 +791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1817,7 +826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1852,7 +861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1887,7 +896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1922,7 +931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1957,7 +966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1992,7 +1001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2027,7 +1036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2062,7 +1071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2097,7 +1106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2132,7 +1141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2167,7 +1176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2202,7 +1211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -2237,7 +1246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -2272,7 +1281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -2307,7 +1316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -2342,7 +1351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -2377,7 +1386,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -2412,7 +1421,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -2447,7 +1456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -2482,7 +1491,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -2517,7 +1526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2552,7 +1561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -2587,7 +1596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -2622,7 +1631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -2659,6 +1668,1008 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67F337F-D56F-DE4B-B44D-97EF61F12050}">
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2">
+        <v>250</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3">
+        <v>250</v>
+      </c>
+      <c r="I3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4">
+        <v>250</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5">
+        <v>250</v>
+      </c>
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6">
+        <v>250</v>
+      </c>
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7">
+        <v>250</v>
+      </c>
+      <c r="I7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8">
+        <v>250</v>
+      </c>
+      <c r="I8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9">
+        <v>250</v>
+      </c>
+      <c r="I9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10">
+        <v>250</v>
+      </c>
+      <c r="I10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11">
+        <v>248</v>
+      </c>
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12">
+        <v>248</v>
+      </c>
+      <c r="I12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13">
+        <v>248</v>
+      </c>
+      <c r="I13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14">
+        <v>248</v>
+      </c>
+      <c r="I14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15">
+        <v>248</v>
+      </c>
+      <c r="I15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16">
+        <v>248</v>
+      </c>
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17">
+        <v>248</v>
+      </c>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18">
+        <v>248</v>
+      </c>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19">
+        <v>248</v>
+      </c>
+      <c r="I19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20">
+        <v>16</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20">
+        <v>246</v>
+      </c>
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21">
+        <v>16</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21">
+        <v>246</v>
+      </c>
+      <c r="I21" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22">
+        <v>16</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22">
+        <v>246</v>
+      </c>
+      <c r="I22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23">
+        <v>16</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23">
+        <v>246</v>
+      </c>
+      <c r="I23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24">
+        <v>16</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24">
+        <v>246</v>
+      </c>
+      <c r="I24" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25">
+        <v>16</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25">
+        <v>246</v>
+      </c>
+      <c r="I25" t="s">
+        <v>40</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26">
+        <v>16</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26">
+        <v>246</v>
+      </c>
+      <c r="I26" t="s">
+        <v>40</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27">
+        <v>16</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27">
+        <v>246</v>
+      </c>
+      <c r="I27" t="s">
+        <v>40</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28">
+        <v>16</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28">
+        <v>246</v>
+      </c>
+      <c r="I28" t="s">
+        <v>40</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2667,11 +2678,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EA0AB2-4F32-6046-BCF2-3174397BF17B}">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.83203125" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
@@ -2685,7 +2696,7 @@
     <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2693,28 +2704,28 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>4</v>
@@ -2732,7 +2743,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -2779,7 +2790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -2826,7 +2837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -2873,7 +2884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -2920,7 +2931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -2967,7 +2978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -3014,7 +3025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -3034,7 +3045,7 @@
         <v>46</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>42</v>
@@ -3061,7 +3072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -3081,7 +3092,7 @@
         <v>46</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>42</v>
@@ -3108,7 +3119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -3128,7 +3139,7 @@
         <v>46</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>42</v>
@@ -3155,7 +3166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -3163,7 +3174,7 @@
         <v>49</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>46</v>
@@ -3175,7 +3186,7 @@
         <v>46</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>42</v>
@@ -3202,7 +3213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
@@ -3210,7 +3221,7 @@
         <v>49</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>46</v>
@@ -3222,7 +3233,7 @@
         <v>46</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>42</v>
@@ -3249,7 +3260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
@@ -3257,7 +3268,7 @@
         <v>49</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>46</v>
@@ -3269,7 +3280,7 @@
         <v>46</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>42</v>
@@ -3296,7 +3307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
@@ -3316,7 +3327,7 @@
         <v>2.5</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>42</v>
@@ -3343,7 +3354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
@@ -3363,7 +3374,7 @@
         <v>2.5</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>42</v>
@@ -3390,7 +3401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
@@ -3410,7 +3421,7 @@
         <v>2.5</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>42</v>
@@ -3437,7 +3448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>30</v>
       </c>
@@ -3457,7 +3468,7 @@
         <v>2.5</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>42</v>
@@ -3484,7 +3495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>31</v>
       </c>
@@ -3504,7 +3515,7 @@
         <v>2.5</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>42</v>
@@ -3531,7 +3542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
@@ -3551,7 +3562,7 @@
         <v>2.5</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>42</v>
@@ -3578,9 +3589,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>35</v>
@@ -3598,7 +3609,7 @@
         <v>5</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>42</v>
@@ -3625,9 +3636,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>35</v>
@@ -3645,7 +3656,7 @@
         <v>5</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>42</v>
@@ -3672,9 +3683,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>35</v>
@@ -3692,7 +3703,7 @@
         <v>5</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>42</v>
@@ -3719,9 +3730,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>49</v>
@@ -3739,7 +3750,7 @@
         <v>5</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>42</v>
@@ -3766,9 +3777,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>49</v>
@@ -3786,7 +3797,7 @@
         <v>5</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>42</v>
@@ -3813,9 +3824,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>49</v>
@@ -3833,7 +3844,7 @@
         <v>5</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>42</v>
@@ -3860,9 +3871,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>35</v>
@@ -3880,7 +3891,7 @@
         <v>10</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>42</v>
@@ -3907,9 +3918,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>35</v>
@@ -3927,7 +3938,7 @@
         <v>10</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>42</v>
@@ -3954,9 +3965,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>35</v>
@@ -3974,7 +3985,7 @@
         <v>10</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>42</v>
@@ -4001,9 +4012,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>49</v>
@@ -4021,7 +4032,7 @@
         <v>10</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>42</v>
@@ -4048,9 +4059,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>49</v>
@@ -4068,7 +4079,7 @@
         <v>10</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>42</v>
@@ -4095,9 +4106,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>49</v>
@@ -4115,7 +4126,7 @@
         <v>10</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>42</v>
@@ -4142,9 +4153,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>35</v>
@@ -4162,7 +4173,7 @@
         <v>6.25</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>42</v>
@@ -4189,9 +4200,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>35</v>
@@ -4209,7 +4220,7 @@
         <v>6.25</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>42</v>
@@ -4236,9 +4247,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>35</v>
@@ -4256,7 +4267,7 @@
         <v>6.25</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>42</v>
@@ -4283,9 +4294,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>49</v>
@@ -4303,7 +4314,7 @@
         <v>6.25</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>42</v>
@@ -4330,9 +4341,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -4350,7 +4361,7 @@
         <v>6.25</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>42</v>
@@ -4377,9 +4388,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>49</v>
@@ -4397,7 +4408,7 @@
         <v>6.25</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>42</v>
@@ -4427,4 +4438,913 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8075C6A6-247E-244C-9A0A-1989FC6E189D}">
+  <dimension ref="A1:O19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2">
+        <v>250</v>
+      </c>
+      <c r="M2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3">
+        <v>250</v>
+      </c>
+      <c r="M3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4">
+        <v>250</v>
+      </c>
+      <c r="M4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5">
+        <v>250</v>
+      </c>
+      <c r="M5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6">
+        <v>250</v>
+      </c>
+      <c r="M6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7">
+        <v>250</v>
+      </c>
+      <c r="M7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8">
+        <v>250</v>
+      </c>
+      <c r="M8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9">
+        <v>250</v>
+      </c>
+      <c r="M9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10">
+        <v>250</v>
+      </c>
+      <c r="M10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11">
+        <v>250</v>
+      </c>
+      <c r="M11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12">
+        <v>250</v>
+      </c>
+      <c r="M12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13">
+        <v>250</v>
+      </c>
+      <c r="M13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14">
+        <v>20</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14">
+        <v>250</v>
+      </c>
+      <c r="M14" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15">
+        <v>20</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15">
+        <v>250</v>
+      </c>
+      <c r="M15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16">
+        <v>20</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16">
+        <v>250</v>
+      </c>
+      <c r="M16" t="s">
+        <v>40</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17">
+        <v>20</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17">
+        <v>250</v>
+      </c>
+      <c r="M17" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18">
+        <v>20</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18">
+        <v>250</v>
+      </c>
+      <c r="M18" t="s">
+        <v>40</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19">
+        <v>20</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19">
+        <v>250</v>
+      </c>
+      <c r="M19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+      <c r="O19">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/plate-reader-screens/plate_layouts.xlsx
+++ b/plate-reader-screens/plate_layouts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aqib/Desktop/BCCL/circuit-state/plate-reader-screens/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aqib/Desktop/BCCL/char-syn-gene-nets/circuit-state/plate-reader-screens/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC6D8FC-8A1D-DA4D-8D99-5A7A775B1E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72474C98-FC6D-8140-97B7-62C9D6221DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="500" windowWidth="40040" windowHeight="27440" activeTab="3" xr2:uid="{86E41D9F-BC50-BD4C-BFC8-A140258F459E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{86E41D9F-BC50-BD4C-BFC8-A140258F459E}"/>
   </bookViews>
   <sheets>
     <sheet name="adp1_antibiotic_10.12" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="80">
   <si>
     <t>well</t>
   </si>
@@ -268,16 +268,13 @@
     <t>MGZ1</t>
   </si>
   <si>
-    <t>dCASRx</t>
-  </si>
-  <si>
-    <t>mM</t>
-  </si>
-  <si>
     <t>compound_1</t>
   </si>
   <si>
     <t>wmedia</t>
+  </si>
+  <si>
+    <t>dCasRx</t>
   </si>
 </sst>
 </file>
@@ -2704,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>51</v>
@@ -4445,7 +4442,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4458,7 +4455,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>51</v>
@@ -4643,7 +4640,7 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
         <v>46</v>
@@ -4690,7 +4687,7 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
         <v>46</v>
@@ -4737,7 +4734,7 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
         <v>46</v>
@@ -4796,7 +4793,7 @@
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -4843,7 +4840,7 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -4890,7 +4887,7 @@
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -4925,7 +4922,7 @@
         <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
         <v>41</v>
@@ -4937,7 +4934,7 @@
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -4972,7 +4969,7 @@
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
         <v>41</v>
@@ -4984,7 +4981,7 @@
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -5019,7 +5016,7 @@
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
@@ -5031,7 +5028,7 @@
         <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -5078,13 +5075,13 @@
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s">
         <v>50</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="I14">
         <v>20</v>
@@ -5125,13 +5122,13 @@
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s">
         <v>50</v>
       </c>
       <c r="H15" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="I15">
         <v>20</v>
@@ -5172,13 +5169,13 @@
         <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s">
         <v>50</v>
       </c>
       <c r="H16" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="I16">
         <v>20</v>
@@ -5207,7 +5204,7 @@
         <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
         <v>41</v>
@@ -5219,13 +5216,13 @@
         <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s">
         <v>50</v>
       </c>
       <c r="H17" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="I17">
         <v>20</v>
@@ -5254,7 +5251,7 @@
         <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
         <v>41</v>
@@ -5266,13 +5263,13 @@
         <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s">
         <v>50</v>
       </c>
       <c r="H18" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="I18">
         <v>20</v>
@@ -5301,7 +5298,7 @@
         <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
         <v>41</v>
@@ -5313,13 +5310,13 @@
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s">
         <v>50</v>
       </c>
       <c r="H19" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="I19">
         <v>20</v>

--- a/plate-reader-screens/plate_layouts.xlsx
+++ b/plate-reader-screens/plate_layouts.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aqib/Desktop/BCCL/char-syn-gene-nets/circuit-state/plate-reader-screens/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72474C98-FC6D-8140-97B7-62C9D6221DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34912915-AD1F-8A46-AC23-63FF57E6BBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{86E41D9F-BC50-BD4C-BFC8-A140258F459E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{86E41D9F-BC50-BD4C-BFC8-A140258F459E}"/>
   </bookViews>
   <sheets>
     <sheet name="adp1_antibiotic_10.12" sheetId="4" r:id="rId1"/>
     <sheet name="adp1_antibiotic_10.16" sheetId="6" r:id="rId2"/>
     <sheet name="adp1_antibiotic_10.18" sheetId="7" r:id="rId3"/>
     <sheet name="mgz1_antibiotic_11.9" sheetId="8" r:id="rId4"/>
+    <sheet name="168_antibiotic_11.19" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="87">
   <si>
     <t>well</t>
   </si>
@@ -275,6 +276,27 @@
   </si>
   <si>
     <t>dCasRx</t>
+  </si>
+  <si>
+    <t>1x</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>4x</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E10</t>
   </si>
 </sst>
 </file>
@@ -4441,7 +4463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8075C6A6-247E-244C-9A0A-1989FC6E189D}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -5344,4 +5366,1001 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA40FCF-0912-E640-B95F-C99C753C7E17}">
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2">
+        <v>168</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2">
+        <v>250</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>168</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3">
+        <v>250</v>
+      </c>
+      <c r="I3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>168</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4">
+        <v>250</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5">
+        <v>250</v>
+      </c>
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6">
+        <v>250</v>
+      </c>
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7">
+        <v>250</v>
+      </c>
+      <c r="I7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8">
+        <v>250</v>
+      </c>
+      <c r="I8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9">
+        <v>250</v>
+      </c>
+      <c r="I9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10">
+        <v>250</v>
+      </c>
+      <c r="I10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11">
+        <v>168</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11">
+        <v>2.5</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11">
+        <v>250</v>
+      </c>
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>168</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12">
+        <v>2.5</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12">
+        <v>250</v>
+      </c>
+      <c r="I12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>168</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13">
+        <v>2.5</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13">
+        <v>250</v>
+      </c>
+      <c r="I13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14">
+        <v>2.5</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14">
+        <v>250</v>
+      </c>
+      <c r="I14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15">
+        <v>2.5</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15">
+        <v>250</v>
+      </c>
+      <c r="I15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16">
+        <v>2.5</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16">
+        <v>250</v>
+      </c>
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17">
+        <v>2.5</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17">
+        <v>250</v>
+      </c>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18">
+        <v>2.5</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18">
+        <v>250</v>
+      </c>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19">
+        <v>2.5</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19">
+        <v>250</v>
+      </c>
+      <c r="I19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20">
+        <v>168</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20">
+        <v>250</v>
+      </c>
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21">
+        <v>168</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21">
+        <v>250</v>
+      </c>
+      <c r="I21" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22">
+        <v>168</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22">
+        <v>250</v>
+      </c>
+      <c r="I22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23">
+        <v>250</v>
+      </c>
+      <c r="I23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24">
+        <v>250</v>
+      </c>
+      <c r="I24" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25">
+        <v>250</v>
+      </c>
+      <c r="I25" t="s">
+        <v>40</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26">
+        <v>250</v>
+      </c>
+      <c r="I26" t="s">
+        <v>40</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27">
+        <v>250</v>
+      </c>
+      <c r="I27" t="s">
+        <v>40</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28">
+        <v>250</v>
+      </c>
+      <c r="I28" t="s">
+        <v>40</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/plate-reader-screens/plate_layouts.xlsx
+++ b/plate-reader-screens/plate_layouts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aqib/Desktop/BCCL/char-syn-gene-nets/circuit-state/plate-reader-screens/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34912915-AD1F-8A46-AC23-63FF57E6BBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA0875B-018A-544F-B8D7-1FAF292A614B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{86E41D9F-BC50-BD4C-BFC8-A140258F459E}"/>
+    <workbookView xWindow="2680" yWindow="1080" windowWidth="44120" windowHeight="25500" activeTab="8" xr2:uid="{86E41D9F-BC50-BD4C-BFC8-A140258F459E}"/>
   </bookViews>
   <sheets>
     <sheet name="adp1_antibiotic_10.12" sheetId="4" r:id="rId1"/>
@@ -18,8 +18,12 @@
     <sheet name="adp1_antibiotic_10.18" sheetId="7" r:id="rId3"/>
     <sheet name="mgz1_antibiotic_11.9" sheetId="8" r:id="rId4"/>
     <sheet name="168_antibiotic_11.19" sheetId="9" r:id="rId5"/>
+    <sheet name="adp1_cysteine_11.29" sheetId="10" r:id="rId6"/>
+    <sheet name="mgDeltaLacI_mepMover_12.9.22" sheetId="11" r:id="rId7"/>
+    <sheet name="mgDeltaLacI_mepMover_12.13.22" sheetId="13" r:id="rId8"/>
+    <sheet name="mgDeltaLacI_mepMover_12.15.22" sheetId="14" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +31,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2907" uniqueCount="130">
   <si>
     <t>well</t>
   </si>
@@ -297,6 +303,135 @@
   </si>
   <si>
     <t>E10</t>
+  </si>
+  <si>
+    <t>L-cysteine</t>
+  </si>
+  <si>
+    <t>mM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>H9</t>
+  </si>
+  <si>
+    <t>MG1655_DeltaLacI_C1</t>
+  </si>
+  <si>
+    <t>MG1655_DeltaLacI_C2</t>
+  </si>
+  <si>
+    <t>MG1655_DeltaLacI_C3</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>MG1655_DeltaLacI</t>
+  </si>
+  <si>
+    <t>MG1655_DeltaLacI_pMepM</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
 </sst>
 </file>
@@ -2698,7 +2833,7 @@
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4464,7 +4599,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection sqref="A1:O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5372,7 +5507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA40FCF-0912-E640-B95F-C99C753C7E17}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6363,4 +6498,8620 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A3BDDF-303D-8C4C-9F52-88B1E8E15C6E}">
+  <dimension ref="A1:M25"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="3">
+        <v>250</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="3">
+        <v>250</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="3">
+        <v>250</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="3">
+        <v>2</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="3">
+        <v>250</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="3">
+        <v>250</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="3">
+        <v>250</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="3">
+        <v>2</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="3">
+        <v>249</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="3">
+        <v>249</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="3">
+        <v>249</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2</v>
+      </c>
+      <c r="K10" s="3">
+        <v>2</v>
+      </c>
+      <c r="M10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="3">
+        <v>249</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="3">
+        <v>249</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="3">
+        <v>249</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="3">
+        <v>2</v>
+      </c>
+      <c r="K13" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="3">
+        <v>248</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="3">
+        <v>248</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1</v>
+      </c>
+      <c r="K15" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="3">
+        <v>248</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="3">
+        <v>2</v>
+      </c>
+      <c r="K16" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="3">
+        <v>248</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="3">
+        <v>248</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1</v>
+      </c>
+      <c r="K18" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="3">
+        <v>248</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="3">
+        <v>2</v>
+      </c>
+      <c r="K19" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2</v>
+      </c>
+      <c r="F20" s="3">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="3">
+        <v>245</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2</v>
+      </c>
+      <c r="F21" s="3">
+        <v>5</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="3">
+        <v>245</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1</v>
+      </c>
+      <c r="K21" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2</v>
+      </c>
+      <c r="F22" s="3">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="3">
+        <v>245</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" s="3">
+        <v>2</v>
+      </c>
+      <c r="K22" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2</v>
+      </c>
+      <c r="F23" s="3">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="3">
+        <v>245</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2</v>
+      </c>
+      <c r="F24" s="3">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="3">
+        <v>245</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1</v>
+      </c>
+      <c r="K24" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2</v>
+      </c>
+      <c r="F25" s="3">
+        <v>5</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" s="3">
+        <v>245</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J25" s="3">
+        <v>2</v>
+      </c>
+      <c r="K25" s="3">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91949FFA-5E6A-5C49-AD6E-C5C0E4B4C1C1}">
+  <dimension ref="A1:O73"/>
+  <sheetViews>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2">
+        <v>250</v>
+      </c>
+      <c r="M2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3">
+        <v>250</v>
+      </c>
+      <c r="M3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4">
+        <v>250</v>
+      </c>
+      <c r="M4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5">
+        <v>250</v>
+      </c>
+      <c r="M5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f>$O2 + 1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6">
+        <v>250</v>
+      </c>
+      <c r="M6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <f>$O5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7">
+        <v>250</v>
+      </c>
+      <c r="M7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <f>$O6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8">
+        <v>250</v>
+      </c>
+      <c r="M8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f>$O5 + 1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9">
+        <v>250</v>
+      </c>
+      <c r="M9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <f>$O8</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10">
+        <v>250</v>
+      </c>
+      <c r="M10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <f>$O9</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>2.5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11">
+        <v>250</v>
+      </c>
+      <c r="M11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f>$O8 + 1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>2.5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12">
+        <v>250</v>
+      </c>
+      <c r="M12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <f>$O11</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>2.5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13">
+        <v>250</v>
+      </c>
+      <c r="M13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <f>$O12</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>2.5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14">
+        <v>250</v>
+      </c>
+      <c r="M14" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f>$O11 + 1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>2.5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15">
+        <v>250</v>
+      </c>
+      <c r="M15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <f>$O14</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>2.5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16">
+        <v>250</v>
+      </c>
+      <c r="M16" t="s">
+        <v>40</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16">
+        <f>$O15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>2.5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17">
+        <v>250</v>
+      </c>
+      <c r="M17" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f>$O14 + 1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>2.5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18">
+        <v>250</v>
+      </c>
+      <c r="M18" t="s">
+        <v>40</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <f>$O17</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>2.5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19">
+        <v>250</v>
+      </c>
+      <c r="M19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+      <c r="O19">
+        <f>$O18</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20">
+        <v>50</v>
+      </c>
+      <c r="F20">
+        <v>2.5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20">
+        <v>248</v>
+      </c>
+      <c r="M20" t="s">
+        <v>40</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <f>$O17 + 1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21">
+        <v>50</v>
+      </c>
+      <c r="F21">
+        <v>2.5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>46</v>
+      </c>
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21">
+        <v>248</v>
+      </c>
+      <c r="M21" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <f>$O20</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22">
+        <v>50</v>
+      </c>
+      <c r="F22">
+        <v>2.5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" t="s">
+        <v>38</v>
+      </c>
+      <c r="L22">
+        <v>248</v>
+      </c>
+      <c r="M22" t="s">
+        <v>40</v>
+      </c>
+      <c r="N22">
+        <v>2</v>
+      </c>
+      <c r="O22">
+        <f>$O21</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23">
+        <v>50</v>
+      </c>
+      <c r="F23">
+        <v>2.5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23">
+        <v>248</v>
+      </c>
+      <c r="M23" t="s">
+        <v>40</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f t="shared" ref="O23" si="0">$O20 + 1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24">
+        <v>50</v>
+      </c>
+      <c r="F24">
+        <v>2.5</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" t="s">
+        <v>38</v>
+      </c>
+      <c r="L24">
+        <v>248</v>
+      </c>
+      <c r="M24" t="s">
+        <v>40</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <f t="shared" ref="O24:O25" si="1">$O23</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25">
+        <v>50</v>
+      </c>
+      <c r="F25">
+        <v>2.5</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" t="s">
+        <v>38</v>
+      </c>
+      <c r="L25">
+        <v>248</v>
+      </c>
+      <c r="M25" t="s">
+        <v>40</v>
+      </c>
+      <c r="N25">
+        <v>2</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26">
+        <v>50</v>
+      </c>
+      <c r="F26">
+        <v>2.5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" t="s">
+        <v>38</v>
+      </c>
+      <c r="L26">
+        <v>248</v>
+      </c>
+      <c r="M26" t="s">
+        <v>40</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <f t="shared" ref="O26" si="2">$O23 + 1</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27">
+        <v>50</v>
+      </c>
+      <c r="F27">
+        <v>2.5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27" t="s">
+        <v>38</v>
+      </c>
+      <c r="L27">
+        <v>248</v>
+      </c>
+      <c r="M27" t="s">
+        <v>40</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <f t="shared" ref="O27:O28" si="3">$O26</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28">
+        <v>50</v>
+      </c>
+      <c r="F28">
+        <v>2.5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>46</v>
+      </c>
+      <c r="J28" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28" t="s">
+        <v>38</v>
+      </c>
+      <c r="L28">
+        <v>248</v>
+      </c>
+      <c r="M28" t="s">
+        <v>40</v>
+      </c>
+      <c r="N28">
+        <v>2</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29">
+        <v>250</v>
+      </c>
+      <c r="F29">
+        <v>2.5</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>46</v>
+      </c>
+      <c r="J29" t="s">
+        <v>46</v>
+      </c>
+      <c r="K29" t="s">
+        <v>38</v>
+      </c>
+      <c r="L29">
+        <v>248</v>
+      </c>
+      <c r="M29" t="s">
+        <v>40</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f>$O26 + 1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30">
+        <v>250</v>
+      </c>
+      <c r="F30">
+        <v>2.5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>46</v>
+      </c>
+      <c r="J30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30" t="s">
+        <v>38</v>
+      </c>
+      <c r="L30">
+        <v>248</v>
+      </c>
+      <c r="M30" t="s">
+        <v>40</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <f>$O29</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31">
+        <v>250</v>
+      </c>
+      <c r="F31">
+        <v>2.5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>46</v>
+      </c>
+      <c r="J31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" t="s">
+        <v>38</v>
+      </c>
+      <c r="L31">
+        <v>248</v>
+      </c>
+      <c r="M31" t="s">
+        <v>40</v>
+      </c>
+      <c r="N31">
+        <v>2</v>
+      </c>
+      <c r="O31">
+        <f>$O30</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32">
+        <v>250</v>
+      </c>
+      <c r="F32">
+        <v>2.5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>46</v>
+      </c>
+      <c r="J32" t="s">
+        <v>46</v>
+      </c>
+      <c r="K32" t="s">
+        <v>38</v>
+      </c>
+      <c r="L32">
+        <v>248</v>
+      </c>
+      <c r="M32" t="s">
+        <v>40</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f t="shared" ref="O32" si="4">$O29 + 1</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33">
+        <v>250</v>
+      </c>
+      <c r="F33">
+        <v>2.5</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>46</v>
+      </c>
+      <c r="J33" t="s">
+        <v>46</v>
+      </c>
+      <c r="K33" t="s">
+        <v>38</v>
+      </c>
+      <c r="L33">
+        <v>248</v>
+      </c>
+      <c r="M33" t="s">
+        <v>40</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <f t="shared" ref="O33:O34" si="5">$O32</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34">
+        <v>250</v>
+      </c>
+      <c r="F34">
+        <v>2.5</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>46</v>
+      </c>
+      <c r="J34" t="s">
+        <v>46</v>
+      </c>
+      <c r="K34" t="s">
+        <v>38</v>
+      </c>
+      <c r="L34">
+        <v>248</v>
+      </c>
+      <c r="M34" t="s">
+        <v>40</v>
+      </c>
+      <c r="N34">
+        <v>2</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35">
+        <v>250</v>
+      </c>
+      <c r="F35">
+        <v>2.5</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>46</v>
+      </c>
+      <c r="J35" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" t="s">
+        <v>38</v>
+      </c>
+      <c r="L35">
+        <v>248</v>
+      </c>
+      <c r="M35" t="s">
+        <v>40</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f t="shared" ref="O35" si="6">$O32 + 1</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36">
+        <v>250</v>
+      </c>
+      <c r="F36">
+        <v>2.5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>46</v>
+      </c>
+      <c r="J36" t="s">
+        <v>46</v>
+      </c>
+      <c r="K36" t="s">
+        <v>38</v>
+      </c>
+      <c r="L36">
+        <v>248</v>
+      </c>
+      <c r="M36" t="s">
+        <v>40</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <f t="shared" ref="O36:O37" si="7">$O35</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37">
+        <v>250</v>
+      </c>
+      <c r="F37">
+        <v>2.5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>46</v>
+      </c>
+      <c r="J37" t="s">
+        <v>46</v>
+      </c>
+      <c r="K37" t="s">
+        <v>38</v>
+      </c>
+      <c r="L37">
+        <v>248</v>
+      </c>
+      <c r="M37" t="s">
+        <v>40</v>
+      </c>
+      <c r="N37">
+        <v>2</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
+      </c>
+      <c r="F38">
+        <v>2.5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>41</v>
+      </c>
+      <c r="H38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I38">
+        <v>5</v>
+      </c>
+      <c r="J38">
+        <v>2.5</v>
+      </c>
+      <c r="K38" t="s">
+        <v>38</v>
+      </c>
+      <c r="L38">
+        <v>245</v>
+      </c>
+      <c r="M38" t="s">
+        <v>40</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f t="shared" ref="O38" si="8">$O35 + 1</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39">
+        <v>10</v>
+      </c>
+      <c r="F39">
+        <v>2.5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" t="s">
+        <v>42</v>
+      </c>
+      <c r="I39">
+        <v>5</v>
+      </c>
+      <c r="J39">
+        <v>2.5</v>
+      </c>
+      <c r="K39" t="s">
+        <v>38</v>
+      </c>
+      <c r="L39">
+        <v>245</v>
+      </c>
+      <c r="M39" t="s">
+        <v>40</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <f t="shared" ref="O39:O40" si="9">$O38</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40">
+        <v>10</v>
+      </c>
+      <c r="F40">
+        <v>2.5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40" t="s">
+        <v>42</v>
+      </c>
+      <c r="I40">
+        <v>5</v>
+      </c>
+      <c r="J40">
+        <v>2.5</v>
+      </c>
+      <c r="K40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L40">
+        <v>245</v>
+      </c>
+      <c r="M40" t="s">
+        <v>40</v>
+      </c>
+      <c r="N40">
+        <v>2</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41">
+        <v>10</v>
+      </c>
+      <c r="F41">
+        <v>2.5</v>
+      </c>
+      <c r="G41" t="s">
+        <v>41</v>
+      </c>
+      <c r="H41" t="s">
+        <v>42</v>
+      </c>
+      <c r="I41">
+        <v>5</v>
+      </c>
+      <c r="J41">
+        <v>2.5</v>
+      </c>
+      <c r="K41" t="s">
+        <v>38</v>
+      </c>
+      <c r="L41">
+        <v>245</v>
+      </c>
+      <c r="M41" t="s">
+        <v>40</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <f t="shared" ref="O41" si="10">$O38 + 1</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42">
+        <v>10</v>
+      </c>
+      <c r="F42">
+        <v>2.5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H42" t="s">
+        <v>42</v>
+      </c>
+      <c r="I42">
+        <v>5</v>
+      </c>
+      <c r="J42">
+        <v>2.5</v>
+      </c>
+      <c r="K42" t="s">
+        <v>38</v>
+      </c>
+      <c r="L42">
+        <v>245</v>
+      </c>
+      <c r="M42" t="s">
+        <v>40</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <f t="shared" ref="O42:O43" si="11">$O41</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43">
+        <v>10</v>
+      </c>
+      <c r="F43">
+        <v>2.5</v>
+      </c>
+      <c r="G43" t="s">
+        <v>41</v>
+      </c>
+      <c r="H43" t="s">
+        <v>42</v>
+      </c>
+      <c r="I43">
+        <v>5</v>
+      </c>
+      <c r="J43">
+        <v>2.5</v>
+      </c>
+      <c r="K43" t="s">
+        <v>38</v>
+      </c>
+      <c r="L43">
+        <v>245</v>
+      </c>
+      <c r="M43" t="s">
+        <v>40</v>
+      </c>
+      <c r="N43">
+        <v>2</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44">
+        <v>10</v>
+      </c>
+      <c r="F44">
+        <v>2.5</v>
+      </c>
+      <c r="G44" t="s">
+        <v>41</v>
+      </c>
+      <c r="H44" t="s">
+        <v>42</v>
+      </c>
+      <c r="I44">
+        <v>5</v>
+      </c>
+      <c r="J44">
+        <v>2.5</v>
+      </c>
+      <c r="K44" t="s">
+        <v>38</v>
+      </c>
+      <c r="L44">
+        <v>245</v>
+      </c>
+      <c r="M44" t="s">
+        <v>40</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <f t="shared" ref="O44" si="12">$O41 + 1</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45">
+        <v>10</v>
+      </c>
+      <c r="F45">
+        <v>2.5</v>
+      </c>
+      <c r="G45" t="s">
+        <v>41</v>
+      </c>
+      <c r="H45" t="s">
+        <v>42</v>
+      </c>
+      <c r="I45">
+        <v>5</v>
+      </c>
+      <c r="J45">
+        <v>2.5</v>
+      </c>
+      <c r="K45" t="s">
+        <v>38</v>
+      </c>
+      <c r="L45">
+        <v>245</v>
+      </c>
+      <c r="M45" t="s">
+        <v>40</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <f t="shared" ref="O45:O46" si="13">$O44</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46">
+        <v>10</v>
+      </c>
+      <c r="F46">
+        <v>2.5</v>
+      </c>
+      <c r="G46" t="s">
+        <v>41</v>
+      </c>
+      <c r="H46" t="s">
+        <v>42</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
+      <c r="J46">
+        <v>2.5</v>
+      </c>
+      <c r="K46" t="s">
+        <v>38</v>
+      </c>
+      <c r="L46">
+        <v>245</v>
+      </c>
+      <c r="M46" t="s">
+        <v>40</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="13"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47">
+        <v>50</v>
+      </c>
+      <c r="F47">
+        <v>2.5</v>
+      </c>
+      <c r="G47" t="s">
+        <v>41</v>
+      </c>
+      <c r="H47" t="s">
+        <v>42</v>
+      </c>
+      <c r="I47">
+        <v>5</v>
+      </c>
+      <c r="J47">
+        <v>2.5</v>
+      </c>
+      <c r="K47" t="s">
+        <v>38</v>
+      </c>
+      <c r="L47">
+        <v>245</v>
+      </c>
+      <c r="M47" t="s">
+        <v>40</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <f t="shared" ref="O47" si="14">$O44 + 1</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>117</v>
+      </c>
+      <c r="B48" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48">
+        <v>50</v>
+      </c>
+      <c r="F48">
+        <v>2.5</v>
+      </c>
+      <c r="G48" t="s">
+        <v>41</v>
+      </c>
+      <c r="H48" t="s">
+        <v>42</v>
+      </c>
+      <c r="I48">
+        <v>5</v>
+      </c>
+      <c r="J48">
+        <v>2.5</v>
+      </c>
+      <c r="K48" t="s">
+        <v>38</v>
+      </c>
+      <c r="L48">
+        <v>245</v>
+      </c>
+      <c r="M48" t="s">
+        <v>40</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <f t="shared" ref="O48:O49" si="15">$O47</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49">
+        <v>50</v>
+      </c>
+      <c r="F49">
+        <v>2.5</v>
+      </c>
+      <c r="G49" t="s">
+        <v>41</v>
+      </c>
+      <c r="H49" t="s">
+        <v>42</v>
+      </c>
+      <c r="I49">
+        <v>5</v>
+      </c>
+      <c r="J49">
+        <v>2.5</v>
+      </c>
+      <c r="K49" t="s">
+        <v>38</v>
+      </c>
+      <c r="L49">
+        <v>245</v>
+      </c>
+      <c r="M49" t="s">
+        <v>40</v>
+      </c>
+      <c r="N49">
+        <v>2</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50">
+        <v>50</v>
+      </c>
+      <c r="F50">
+        <v>2.5</v>
+      </c>
+      <c r="G50" t="s">
+        <v>41</v>
+      </c>
+      <c r="H50" t="s">
+        <v>42</v>
+      </c>
+      <c r="I50">
+        <v>5</v>
+      </c>
+      <c r="J50">
+        <v>2.5</v>
+      </c>
+      <c r="K50" t="s">
+        <v>38</v>
+      </c>
+      <c r="L50">
+        <v>245</v>
+      </c>
+      <c r="M50" t="s">
+        <v>40</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <f t="shared" ref="O50" si="16">$O47 + 1</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51">
+        <v>50</v>
+      </c>
+      <c r="F51">
+        <v>2.5</v>
+      </c>
+      <c r="G51" t="s">
+        <v>41</v>
+      </c>
+      <c r="H51" t="s">
+        <v>42</v>
+      </c>
+      <c r="I51">
+        <v>5</v>
+      </c>
+      <c r="J51">
+        <v>2.5</v>
+      </c>
+      <c r="K51" t="s">
+        <v>38</v>
+      </c>
+      <c r="L51">
+        <v>245</v>
+      </c>
+      <c r="M51" t="s">
+        <v>40</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <f t="shared" ref="O51:O52" si="17">$O50</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" t="s">
+        <v>44</v>
+      </c>
+      <c r="E52">
+        <v>50</v>
+      </c>
+      <c r="F52">
+        <v>2.5</v>
+      </c>
+      <c r="G52" t="s">
+        <v>41</v>
+      </c>
+      <c r="H52" t="s">
+        <v>42</v>
+      </c>
+      <c r="I52">
+        <v>5</v>
+      </c>
+      <c r="J52">
+        <v>2.5</v>
+      </c>
+      <c r="K52" t="s">
+        <v>38</v>
+      </c>
+      <c r="L52">
+        <v>245</v>
+      </c>
+      <c r="M52" t="s">
+        <v>40</v>
+      </c>
+      <c r="N52">
+        <v>2</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="17"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" t="s">
+        <v>44</v>
+      </c>
+      <c r="E53">
+        <v>50</v>
+      </c>
+      <c r="F53">
+        <v>2.5</v>
+      </c>
+      <c r="G53" t="s">
+        <v>41</v>
+      </c>
+      <c r="H53" t="s">
+        <v>42</v>
+      </c>
+      <c r="I53">
+        <v>5</v>
+      </c>
+      <c r="J53">
+        <v>2.5</v>
+      </c>
+      <c r="K53" t="s">
+        <v>38</v>
+      </c>
+      <c r="L53">
+        <v>245</v>
+      </c>
+      <c r="M53" t="s">
+        <v>40</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <f t="shared" ref="O53" si="18">$O50 + 1</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" t="s">
+        <v>44</v>
+      </c>
+      <c r="E54">
+        <v>50</v>
+      </c>
+      <c r="F54">
+        <v>2.5</v>
+      </c>
+      <c r="G54" t="s">
+        <v>41</v>
+      </c>
+      <c r="H54" t="s">
+        <v>42</v>
+      </c>
+      <c r="I54">
+        <v>5</v>
+      </c>
+      <c r="J54">
+        <v>2.5</v>
+      </c>
+      <c r="K54" t="s">
+        <v>38</v>
+      </c>
+      <c r="L54">
+        <v>245</v>
+      </c>
+      <c r="M54" t="s">
+        <v>40</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <f t="shared" ref="O54:O55" si="19">$O53</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" t="s">
+        <v>50</v>
+      </c>
+      <c r="D55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E55">
+        <v>50</v>
+      </c>
+      <c r="F55">
+        <v>2.5</v>
+      </c>
+      <c r="G55" t="s">
+        <v>41</v>
+      </c>
+      <c r="H55" t="s">
+        <v>42</v>
+      </c>
+      <c r="I55">
+        <v>5</v>
+      </c>
+      <c r="J55">
+        <v>2.5</v>
+      </c>
+      <c r="K55" t="s">
+        <v>38</v>
+      </c>
+      <c r="L55">
+        <v>245</v>
+      </c>
+      <c r="M55" t="s">
+        <v>40</v>
+      </c>
+      <c r="N55">
+        <v>2</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="19"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56" t="s">
+        <v>44</v>
+      </c>
+      <c r="E56">
+        <v>250</v>
+      </c>
+      <c r="F56">
+        <v>2.5</v>
+      </c>
+      <c r="G56" t="s">
+        <v>41</v>
+      </c>
+      <c r="H56" t="s">
+        <v>42</v>
+      </c>
+      <c r="I56">
+        <v>5</v>
+      </c>
+      <c r="J56">
+        <v>2.5</v>
+      </c>
+      <c r="K56" t="s">
+        <v>38</v>
+      </c>
+      <c r="L56">
+        <v>245</v>
+      </c>
+      <c r="M56" t="s">
+        <v>40</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <f t="shared" ref="O56" si="20">$O53 + 1</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57" t="s">
+        <v>44</v>
+      </c>
+      <c r="E57">
+        <v>250</v>
+      </c>
+      <c r="F57">
+        <v>2.5</v>
+      </c>
+      <c r="G57" t="s">
+        <v>41</v>
+      </c>
+      <c r="H57" t="s">
+        <v>42</v>
+      </c>
+      <c r="I57">
+        <v>5</v>
+      </c>
+      <c r="J57">
+        <v>2.5</v>
+      </c>
+      <c r="K57" t="s">
+        <v>38</v>
+      </c>
+      <c r="L57">
+        <v>245</v>
+      </c>
+      <c r="M57" t="s">
+        <v>40</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <f t="shared" ref="O57:O58" si="21">$O56</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>98</v>
+      </c>
+      <c r="B58" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58" t="s">
+        <v>44</v>
+      </c>
+      <c r="E58">
+        <v>250</v>
+      </c>
+      <c r="F58">
+        <v>2.5</v>
+      </c>
+      <c r="G58" t="s">
+        <v>41</v>
+      </c>
+      <c r="H58" t="s">
+        <v>42</v>
+      </c>
+      <c r="I58">
+        <v>5</v>
+      </c>
+      <c r="J58">
+        <v>2.5</v>
+      </c>
+      <c r="K58" t="s">
+        <v>38</v>
+      </c>
+      <c r="L58">
+        <v>245</v>
+      </c>
+      <c r="M58" t="s">
+        <v>40</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="21"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E59">
+        <v>250</v>
+      </c>
+      <c r="F59">
+        <v>2.5</v>
+      </c>
+      <c r="G59" t="s">
+        <v>41</v>
+      </c>
+      <c r="H59" t="s">
+        <v>42</v>
+      </c>
+      <c r="I59">
+        <v>5</v>
+      </c>
+      <c r="J59">
+        <v>2.5</v>
+      </c>
+      <c r="K59" t="s">
+        <v>38</v>
+      </c>
+      <c r="L59">
+        <v>245</v>
+      </c>
+      <c r="M59" t="s">
+        <v>40</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <f t="shared" ref="O59" si="22">$O56 + 1</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" t="s">
+        <v>50</v>
+      </c>
+      <c r="D60" t="s">
+        <v>44</v>
+      </c>
+      <c r="E60">
+        <v>250</v>
+      </c>
+      <c r="F60">
+        <v>2.5</v>
+      </c>
+      <c r="G60" t="s">
+        <v>41</v>
+      </c>
+      <c r="H60" t="s">
+        <v>42</v>
+      </c>
+      <c r="I60">
+        <v>5</v>
+      </c>
+      <c r="J60">
+        <v>2.5</v>
+      </c>
+      <c r="K60" t="s">
+        <v>38</v>
+      </c>
+      <c r="L60">
+        <v>245</v>
+      </c>
+      <c r="M60" t="s">
+        <v>40</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <f t="shared" ref="O60:O61" si="23">$O59</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" t="s">
+        <v>107</v>
+      </c>
+      <c r="C61" t="s">
+        <v>50</v>
+      </c>
+      <c r="D61" t="s">
+        <v>44</v>
+      </c>
+      <c r="E61">
+        <v>250</v>
+      </c>
+      <c r="F61">
+        <v>2.5</v>
+      </c>
+      <c r="G61" t="s">
+        <v>41</v>
+      </c>
+      <c r="H61" t="s">
+        <v>42</v>
+      </c>
+      <c r="I61">
+        <v>5</v>
+      </c>
+      <c r="J61">
+        <v>2.5</v>
+      </c>
+      <c r="K61" t="s">
+        <v>38</v>
+      </c>
+      <c r="L61">
+        <v>245</v>
+      </c>
+      <c r="M61" t="s">
+        <v>40</v>
+      </c>
+      <c r="N61">
+        <v>2</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="23"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" t="s">
+        <v>50</v>
+      </c>
+      <c r="D62" t="s">
+        <v>44</v>
+      </c>
+      <c r="E62">
+        <v>250</v>
+      </c>
+      <c r="F62">
+        <v>2.5</v>
+      </c>
+      <c r="G62" t="s">
+        <v>41</v>
+      </c>
+      <c r="H62" t="s">
+        <v>42</v>
+      </c>
+      <c r="I62">
+        <v>5</v>
+      </c>
+      <c r="J62">
+        <v>2.5</v>
+      </c>
+      <c r="K62" t="s">
+        <v>38</v>
+      </c>
+      <c r="L62">
+        <v>245</v>
+      </c>
+      <c r="M62" t="s">
+        <v>40</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <f t="shared" ref="O62" si="24">$O59 + 1</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" t="s">
+        <v>108</v>
+      </c>
+      <c r="C63" t="s">
+        <v>50</v>
+      </c>
+      <c r="D63" t="s">
+        <v>44</v>
+      </c>
+      <c r="E63">
+        <v>250</v>
+      </c>
+      <c r="F63">
+        <v>2.5</v>
+      </c>
+      <c r="G63" t="s">
+        <v>41</v>
+      </c>
+      <c r="H63" t="s">
+        <v>42</v>
+      </c>
+      <c r="I63">
+        <v>5</v>
+      </c>
+      <c r="J63">
+        <v>2.5</v>
+      </c>
+      <c r="K63" t="s">
+        <v>38</v>
+      </c>
+      <c r="L63">
+        <v>245</v>
+      </c>
+      <c r="M63" t="s">
+        <v>40</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <f t="shared" ref="O63:O64" si="25">$O62</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" t="s">
+        <v>108</v>
+      </c>
+      <c r="C64" t="s">
+        <v>50</v>
+      </c>
+      <c r="D64" t="s">
+        <v>44</v>
+      </c>
+      <c r="E64">
+        <v>250</v>
+      </c>
+      <c r="F64">
+        <v>2.5</v>
+      </c>
+      <c r="G64" t="s">
+        <v>41</v>
+      </c>
+      <c r="H64" t="s">
+        <v>42</v>
+      </c>
+      <c r="I64">
+        <v>5</v>
+      </c>
+      <c r="J64">
+        <v>2.5</v>
+      </c>
+      <c r="K64" t="s">
+        <v>38</v>
+      </c>
+      <c r="L64">
+        <v>245</v>
+      </c>
+      <c r="M64" t="s">
+        <v>40</v>
+      </c>
+      <c r="N64">
+        <v>2</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="25"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" t="s">
+        <v>106</v>
+      </c>
+      <c r="C65" t="s">
+        <v>46</v>
+      </c>
+      <c r="D65" t="s">
+        <v>44</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65" t="s">
+        <v>46</v>
+      </c>
+      <c r="G65" t="s">
+        <v>41</v>
+      </c>
+      <c r="H65" t="s">
+        <v>42</v>
+      </c>
+      <c r="I65">
+        <v>5</v>
+      </c>
+      <c r="J65">
+        <v>2.5</v>
+      </c>
+      <c r="K65" t="s">
+        <v>38</v>
+      </c>
+      <c r="L65">
+        <v>248</v>
+      </c>
+      <c r="M65" t="s">
+        <v>40</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <f t="shared" ref="O65" si="26">$O62 + 1</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>121</v>
+      </c>
+      <c r="B66" t="s">
+        <v>106</v>
+      </c>
+      <c r="C66" t="s">
+        <v>46</v>
+      </c>
+      <c r="D66" t="s">
+        <v>44</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66" t="s">
+        <v>46</v>
+      </c>
+      <c r="G66" t="s">
+        <v>41</v>
+      </c>
+      <c r="H66" t="s">
+        <v>42</v>
+      </c>
+      <c r="I66">
+        <v>5</v>
+      </c>
+      <c r="J66">
+        <v>2.5</v>
+      </c>
+      <c r="K66" t="s">
+        <v>38</v>
+      </c>
+      <c r="L66">
+        <v>248</v>
+      </c>
+      <c r="M66" t="s">
+        <v>40</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <f t="shared" ref="O66:O67" si="27">$O65</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>99</v>
+      </c>
+      <c r="B67" t="s">
+        <v>106</v>
+      </c>
+      <c r="C67" t="s">
+        <v>46</v>
+      </c>
+      <c r="D67" t="s">
+        <v>44</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67" t="s">
+        <v>46</v>
+      </c>
+      <c r="G67" t="s">
+        <v>41</v>
+      </c>
+      <c r="H67" t="s">
+        <v>42</v>
+      </c>
+      <c r="I67">
+        <v>5</v>
+      </c>
+      <c r="J67">
+        <v>2.5</v>
+      </c>
+      <c r="K67" t="s">
+        <v>38</v>
+      </c>
+      <c r="L67">
+        <v>248</v>
+      </c>
+      <c r="M67" t="s">
+        <v>40</v>
+      </c>
+      <c r="N67">
+        <v>2</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="27"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>100</v>
+      </c>
+      <c r="B68" t="s">
+        <v>107</v>
+      </c>
+      <c r="C68" t="s">
+        <v>46</v>
+      </c>
+      <c r="D68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68" t="s">
+        <v>46</v>
+      </c>
+      <c r="G68" t="s">
+        <v>41</v>
+      </c>
+      <c r="H68" t="s">
+        <v>42</v>
+      </c>
+      <c r="I68">
+        <v>5</v>
+      </c>
+      <c r="J68">
+        <v>2.5</v>
+      </c>
+      <c r="K68" t="s">
+        <v>38</v>
+      </c>
+      <c r="L68">
+        <v>248</v>
+      </c>
+      <c r="M68" t="s">
+        <v>40</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <f t="shared" ref="O68" si="28">$O65 + 1</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>101</v>
+      </c>
+      <c r="B69" t="s">
+        <v>107</v>
+      </c>
+      <c r="C69" t="s">
+        <v>46</v>
+      </c>
+      <c r="D69" t="s">
+        <v>44</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69" t="s">
+        <v>46</v>
+      </c>
+      <c r="G69" t="s">
+        <v>41</v>
+      </c>
+      <c r="H69" t="s">
+        <v>42</v>
+      </c>
+      <c r="I69">
+        <v>5</v>
+      </c>
+      <c r="J69">
+        <v>2.5</v>
+      </c>
+      <c r="K69" t="s">
+        <v>38</v>
+      </c>
+      <c r="L69">
+        <v>248</v>
+      </c>
+      <c r="M69" t="s">
+        <v>40</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <f t="shared" ref="O69:O70" si="29">$O68</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>102</v>
+      </c>
+      <c r="B70" t="s">
+        <v>107</v>
+      </c>
+      <c r="C70" t="s">
+        <v>46</v>
+      </c>
+      <c r="D70" t="s">
+        <v>44</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70" t="s">
+        <v>46</v>
+      </c>
+      <c r="G70" t="s">
+        <v>41</v>
+      </c>
+      <c r="H70" t="s">
+        <v>42</v>
+      </c>
+      <c r="I70">
+        <v>5</v>
+      </c>
+      <c r="J70">
+        <v>2.5</v>
+      </c>
+      <c r="K70" t="s">
+        <v>38</v>
+      </c>
+      <c r="L70">
+        <v>248</v>
+      </c>
+      <c r="M70" t="s">
+        <v>40</v>
+      </c>
+      <c r="N70">
+        <v>2</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="29"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>103</v>
+      </c>
+      <c r="B71" t="s">
+        <v>108</v>
+      </c>
+      <c r="C71" t="s">
+        <v>46</v>
+      </c>
+      <c r="D71" t="s">
+        <v>44</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71" t="s">
+        <v>46</v>
+      </c>
+      <c r="G71" t="s">
+        <v>41</v>
+      </c>
+      <c r="H71" t="s">
+        <v>42</v>
+      </c>
+      <c r="I71">
+        <v>5</v>
+      </c>
+      <c r="J71">
+        <v>2.5</v>
+      </c>
+      <c r="K71" t="s">
+        <v>38</v>
+      </c>
+      <c r="L71">
+        <v>248</v>
+      </c>
+      <c r="M71" t="s">
+        <v>40</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <f t="shared" ref="O71" si="30">$O68 + 1</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>104</v>
+      </c>
+      <c r="B72" t="s">
+        <v>108</v>
+      </c>
+      <c r="C72" t="s">
+        <v>46</v>
+      </c>
+      <c r="D72" t="s">
+        <v>44</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G72" t="s">
+        <v>41</v>
+      </c>
+      <c r="H72" t="s">
+        <v>42</v>
+      </c>
+      <c r="I72">
+        <v>5</v>
+      </c>
+      <c r="J72">
+        <v>2.5</v>
+      </c>
+      <c r="K72" t="s">
+        <v>38</v>
+      </c>
+      <c r="L72">
+        <v>248</v>
+      </c>
+      <c r="M72" t="s">
+        <v>40</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <f t="shared" ref="O72:O73" si="31">$O71</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>105</v>
+      </c>
+      <c r="B73" t="s">
+        <v>108</v>
+      </c>
+      <c r="C73" t="s">
+        <v>46</v>
+      </c>
+      <c r="D73" t="s">
+        <v>44</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73" t="s">
+        <v>46</v>
+      </c>
+      <c r="G73" t="s">
+        <v>41</v>
+      </c>
+      <c r="H73" t="s">
+        <v>42</v>
+      </c>
+      <c r="I73">
+        <v>5</v>
+      </c>
+      <c r="J73">
+        <v>2.5</v>
+      </c>
+      <c r="K73" t="s">
+        <v>38</v>
+      </c>
+      <c r="L73">
+        <v>248</v>
+      </c>
+      <c r="M73" t="s">
+        <v>40</v>
+      </c>
+      <c r="N73">
+        <v>2</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="31"/>
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD72214C-0F7E-D040-98F5-55F748984AED}">
+  <dimension ref="A1:N61"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:N61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2">
+        <v>1000</v>
+      </c>
+      <c r="F2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2">
+        <v>400</v>
+      </c>
+      <c r="M2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3">
+        <v>333.33330000000001</v>
+      </c>
+      <c r="F3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3">
+        <v>400</v>
+      </c>
+      <c r="M3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4">
+        <v>111.11109999999999</v>
+      </c>
+      <c r="F4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4">
+        <v>400</v>
+      </c>
+      <c r="M4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5">
+        <v>37.036999999999999</v>
+      </c>
+      <c r="F5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5">
+        <v>400</v>
+      </c>
+      <c r="M5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6">
+        <v>12.345700000000001</v>
+      </c>
+      <c r="F6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6">
+        <v>400</v>
+      </c>
+      <c r="M6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7">
+        <v>4.1151999999999997</v>
+      </c>
+      <c r="F7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7">
+        <v>400</v>
+      </c>
+      <c r="M7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8">
+        <v>1.3716999999999999</v>
+      </c>
+      <c r="F8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8">
+        <v>400</v>
+      </c>
+      <c r="M8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9">
+        <v>0.4572</v>
+      </c>
+      <c r="F9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9">
+        <v>400</v>
+      </c>
+      <c r="M9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="F10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10">
+        <v>400</v>
+      </c>
+      <c r="M10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11">
+        <v>400</v>
+      </c>
+      <c r="M11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12">
+        <v>1000</v>
+      </c>
+      <c r="F12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12">
+        <v>400</v>
+      </c>
+      <c r="M12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13">
+        <v>333.33330000000001</v>
+      </c>
+      <c r="F13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13">
+        <v>400</v>
+      </c>
+      <c r="M13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14">
+        <v>111.11109999999999</v>
+      </c>
+      <c r="F14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14">
+        <v>400</v>
+      </c>
+      <c r="M14" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15">
+        <v>37.036999999999999</v>
+      </c>
+      <c r="F15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15">
+        <v>400</v>
+      </c>
+      <c r="M15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16">
+        <v>12.345700000000001</v>
+      </c>
+      <c r="F16" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16">
+        <v>400</v>
+      </c>
+      <c r="M16" t="s">
+        <v>40</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17">
+        <v>4.1151999999999997</v>
+      </c>
+      <c r="F17" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17">
+        <v>400</v>
+      </c>
+      <c r="M17" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18">
+        <v>1.3716999999999999</v>
+      </c>
+      <c r="F18" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18">
+        <v>400</v>
+      </c>
+      <c r="M18" t="s">
+        <v>40</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19">
+        <v>0.4572</v>
+      </c>
+      <c r="F19" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19">
+        <v>400</v>
+      </c>
+      <c r="M19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="F20" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20">
+        <v>400</v>
+      </c>
+      <c r="M20" t="s">
+        <v>40</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>129</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>46</v>
+      </c>
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21">
+        <v>400</v>
+      </c>
+      <c r="M21" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22">
+        <v>1000</v>
+      </c>
+      <c r="F22" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" t="s">
+        <v>38</v>
+      </c>
+      <c r="L22">
+        <v>400</v>
+      </c>
+      <c r="M22" t="s">
+        <v>40</v>
+      </c>
+      <c r="N22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23">
+        <v>333.33330000000001</v>
+      </c>
+      <c r="F23" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23">
+        <v>400</v>
+      </c>
+      <c r="M23" t="s">
+        <v>40</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24">
+        <v>111.11109999999999</v>
+      </c>
+      <c r="F24" t="s">
+        <v>129</v>
+      </c>
+      <c r="G24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" t="s">
+        <v>38</v>
+      </c>
+      <c r="L24">
+        <v>400</v>
+      </c>
+      <c r="M24" t="s">
+        <v>40</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25">
+        <v>37.036999999999999</v>
+      </c>
+      <c r="F25" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" t="s">
+        <v>38</v>
+      </c>
+      <c r="L25">
+        <v>400</v>
+      </c>
+      <c r="M25" t="s">
+        <v>40</v>
+      </c>
+      <c r="N25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26">
+        <v>12.345700000000001</v>
+      </c>
+      <c r="F26" t="s">
+        <v>129</v>
+      </c>
+      <c r="G26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" t="s">
+        <v>38</v>
+      </c>
+      <c r="L26">
+        <v>400</v>
+      </c>
+      <c r="M26" t="s">
+        <v>40</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27">
+        <v>4.1151999999999997</v>
+      </c>
+      <c r="F27" t="s">
+        <v>129</v>
+      </c>
+      <c r="G27" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27" t="s">
+        <v>38</v>
+      </c>
+      <c r="L27">
+        <v>400</v>
+      </c>
+      <c r="M27" t="s">
+        <v>40</v>
+      </c>
+      <c r="N27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28">
+        <v>1.3716999999999999</v>
+      </c>
+      <c r="F28" t="s">
+        <v>129</v>
+      </c>
+      <c r="G28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>46</v>
+      </c>
+      <c r="J28" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28" t="s">
+        <v>38</v>
+      </c>
+      <c r="L28">
+        <v>400</v>
+      </c>
+      <c r="M28" t="s">
+        <v>40</v>
+      </c>
+      <c r="N28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29">
+        <v>0.4572</v>
+      </c>
+      <c r="F29" t="s">
+        <v>129</v>
+      </c>
+      <c r="G29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>46</v>
+      </c>
+      <c r="J29" t="s">
+        <v>46</v>
+      </c>
+      <c r="K29" t="s">
+        <v>38</v>
+      </c>
+      <c r="L29">
+        <v>400</v>
+      </c>
+      <c r="M29" t="s">
+        <v>40</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="F30" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>46</v>
+      </c>
+      <c r="J30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30" t="s">
+        <v>38</v>
+      </c>
+      <c r="L30">
+        <v>400</v>
+      </c>
+      <c r="M30" t="s">
+        <v>40</v>
+      </c>
+      <c r="N30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>129</v>
+      </c>
+      <c r="G31" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>46</v>
+      </c>
+      <c r="J31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" t="s">
+        <v>38</v>
+      </c>
+      <c r="L31">
+        <v>400</v>
+      </c>
+      <c r="M31" t="s">
+        <v>40</v>
+      </c>
+      <c r="N31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32">
+        <v>1000</v>
+      </c>
+      <c r="F32" t="s">
+        <v>129</v>
+      </c>
+      <c r="G32" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32">
+        <v>5</v>
+      </c>
+      <c r="J32">
+        <v>4</v>
+      </c>
+      <c r="K32" t="s">
+        <v>38</v>
+      </c>
+      <c r="L32">
+        <v>400</v>
+      </c>
+      <c r="M32" t="s">
+        <v>40</v>
+      </c>
+      <c r="N32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33">
+        <v>333.33330000000001</v>
+      </c>
+      <c r="F33" t="s">
+        <v>129</v>
+      </c>
+      <c r="G33" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I33">
+        <v>5</v>
+      </c>
+      <c r="J33">
+        <v>4</v>
+      </c>
+      <c r="K33" t="s">
+        <v>38</v>
+      </c>
+      <c r="L33">
+        <v>400</v>
+      </c>
+      <c r="M33" t="s">
+        <v>40</v>
+      </c>
+      <c r="N33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34">
+        <v>111.11109999999999</v>
+      </c>
+      <c r="F34" t="s">
+        <v>129</v>
+      </c>
+      <c r="G34" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" t="s">
+        <v>42</v>
+      </c>
+      <c r="I34">
+        <v>5</v>
+      </c>
+      <c r="J34">
+        <v>4</v>
+      </c>
+      <c r="K34" t="s">
+        <v>38</v>
+      </c>
+      <c r="L34">
+        <v>400</v>
+      </c>
+      <c r="M34" t="s">
+        <v>40</v>
+      </c>
+      <c r="N34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35">
+        <v>37.036999999999999</v>
+      </c>
+      <c r="F35" t="s">
+        <v>129</v>
+      </c>
+      <c r="G35" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" t="s">
+        <v>42</v>
+      </c>
+      <c r="I35">
+        <v>5</v>
+      </c>
+      <c r="J35">
+        <v>4</v>
+      </c>
+      <c r="K35" t="s">
+        <v>38</v>
+      </c>
+      <c r="L35">
+        <v>400</v>
+      </c>
+      <c r="M35" t="s">
+        <v>40</v>
+      </c>
+      <c r="N35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36">
+        <v>12.345700000000001</v>
+      </c>
+      <c r="F36" t="s">
+        <v>129</v>
+      </c>
+      <c r="G36" t="s">
+        <v>41</v>
+      </c>
+      <c r="H36" t="s">
+        <v>42</v>
+      </c>
+      <c r="I36">
+        <v>5</v>
+      </c>
+      <c r="J36">
+        <v>4</v>
+      </c>
+      <c r="K36" t="s">
+        <v>38</v>
+      </c>
+      <c r="L36">
+        <v>400</v>
+      </c>
+      <c r="M36" t="s">
+        <v>40</v>
+      </c>
+      <c r="N36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37">
+        <v>4.1151999999999997</v>
+      </c>
+      <c r="F37" t="s">
+        <v>129</v>
+      </c>
+      <c r="G37" t="s">
+        <v>41</v>
+      </c>
+      <c r="H37" t="s">
+        <v>42</v>
+      </c>
+      <c r="I37">
+        <v>5</v>
+      </c>
+      <c r="J37">
+        <v>4</v>
+      </c>
+      <c r="K37" t="s">
+        <v>38</v>
+      </c>
+      <c r="L37">
+        <v>400</v>
+      </c>
+      <c r="M37" t="s">
+        <v>40</v>
+      </c>
+      <c r="N37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38">
+        <v>1.3716999999999999</v>
+      </c>
+      <c r="F38" t="s">
+        <v>129</v>
+      </c>
+      <c r="G38" t="s">
+        <v>41</v>
+      </c>
+      <c r="H38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I38">
+        <v>5</v>
+      </c>
+      <c r="J38">
+        <v>4</v>
+      </c>
+      <c r="K38" t="s">
+        <v>38</v>
+      </c>
+      <c r="L38">
+        <v>400</v>
+      </c>
+      <c r="M38" t="s">
+        <v>40</v>
+      </c>
+      <c r="N38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39">
+        <v>0.4572</v>
+      </c>
+      <c r="F39" t="s">
+        <v>129</v>
+      </c>
+      <c r="G39" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" t="s">
+        <v>42</v>
+      </c>
+      <c r="I39">
+        <v>5</v>
+      </c>
+      <c r="J39">
+        <v>4</v>
+      </c>
+      <c r="K39" t="s">
+        <v>38</v>
+      </c>
+      <c r="L39">
+        <v>400</v>
+      </c>
+      <c r="M39" t="s">
+        <v>40</v>
+      </c>
+      <c r="N39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="F40" t="s">
+        <v>129</v>
+      </c>
+      <c r="G40" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40" t="s">
+        <v>42</v>
+      </c>
+      <c r="I40">
+        <v>5</v>
+      </c>
+      <c r="J40">
+        <v>4</v>
+      </c>
+      <c r="K40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L40">
+        <v>400</v>
+      </c>
+      <c r="M40" t="s">
+        <v>40</v>
+      </c>
+      <c r="N40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>129</v>
+      </c>
+      <c r="G41" t="s">
+        <v>41</v>
+      </c>
+      <c r="H41" t="s">
+        <v>42</v>
+      </c>
+      <c r="I41">
+        <v>5</v>
+      </c>
+      <c r="J41">
+        <v>4</v>
+      </c>
+      <c r="K41" t="s">
+        <v>38</v>
+      </c>
+      <c r="L41">
+        <v>400</v>
+      </c>
+      <c r="M41" t="s">
+        <v>40</v>
+      </c>
+      <c r="N41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42">
+        <v>1000</v>
+      </c>
+      <c r="F42" t="s">
+        <v>129</v>
+      </c>
+      <c r="G42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H42" t="s">
+        <v>42</v>
+      </c>
+      <c r="I42">
+        <v>5</v>
+      </c>
+      <c r="J42">
+        <v>4</v>
+      </c>
+      <c r="K42" t="s">
+        <v>38</v>
+      </c>
+      <c r="L42">
+        <v>400</v>
+      </c>
+      <c r="M42" t="s">
+        <v>40</v>
+      </c>
+      <c r="N42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43">
+        <v>333.33330000000001</v>
+      </c>
+      <c r="F43" t="s">
+        <v>129</v>
+      </c>
+      <c r="G43" t="s">
+        <v>41</v>
+      </c>
+      <c r="H43" t="s">
+        <v>42</v>
+      </c>
+      <c r="I43">
+        <v>5</v>
+      </c>
+      <c r="J43">
+        <v>4</v>
+      </c>
+      <c r="K43" t="s">
+        <v>38</v>
+      </c>
+      <c r="L43">
+        <v>400</v>
+      </c>
+      <c r="M43" t="s">
+        <v>40</v>
+      </c>
+      <c r="N43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44">
+        <v>111.11109999999999</v>
+      </c>
+      <c r="F44" t="s">
+        <v>129</v>
+      </c>
+      <c r="G44" t="s">
+        <v>41</v>
+      </c>
+      <c r="H44" t="s">
+        <v>42</v>
+      </c>
+      <c r="I44">
+        <v>5</v>
+      </c>
+      <c r="J44">
+        <v>4</v>
+      </c>
+      <c r="K44" t="s">
+        <v>38</v>
+      </c>
+      <c r="L44">
+        <v>400</v>
+      </c>
+      <c r="M44" t="s">
+        <v>40</v>
+      </c>
+      <c r="N44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45">
+        <v>37.036999999999999</v>
+      </c>
+      <c r="F45" t="s">
+        <v>129</v>
+      </c>
+      <c r="G45" t="s">
+        <v>41</v>
+      </c>
+      <c r="H45" t="s">
+        <v>42</v>
+      </c>
+      <c r="I45">
+        <v>5</v>
+      </c>
+      <c r="J45">
+        <v>4</v>
+      </c>
+      <c r="K45" t="s">
+        <v>38</v>
+      </c>
+      <c r="L45">
+        <v>400</v>
+      </c>
+      <c r="M45" t="s">
+        <v>40</v>
+      </c>
+      <c r="N45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46">
+        <v>12.345700000000001</v>
+      </c>
+      <c r="F46" t="s">
+        <v>129</v>
+      </c>
+      <c r="G46" t="s">
+        <v>41</v>
+      </c>
+      <c r="H46" t="s">
+        <v>42</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
+      <c r="J46">
+        <v>4</v>
+      </c>
+      <c r="K46" t="s">
+        <v>38</v>
+      </c>
+      <c r="L46">
+        <v>400</v>
+      </c>
+      <c r="M46" t="s">
+        <v>40</v>
+      </c>
+      <c r="N46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47">
+        <v>4.1151999999999997</v>
+      </c>
+      <c r="F47" t="s">
+        <v>129</v>
+      </c>
+      <c r="G47" t="s">
+        <v>41</v>
+      </c>
+      <c r="H47" t="s">
+        <v>42</v>
+      </c>
+      <c r="I47">
+        <v>5</v>
+      </c>
+      <c r="J47">
+        <v>4</v>
+      </c>
+      <c r="K47" t="s">
+        <v>38</v>
+      </c>
+      <c r="L47">
+        <v>400</v>
+      </c>
+      <c r="M47" t="s">
+        <v>40</v>
+      </c>
+      <c r="N47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" t="s">
+        <v>128</v>
+      </c>
+      <c r="C48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48">
+        <v>1.3716999999999999</v>
+      </c>
+      <c r="F48" t="s">
+        <v>129</v>
+      </c>
+      <c r="G48" t="s">
+        <v>41</v>
+      </c>
+      <c r="H48" t="s">
+        <v>42</v>
+      </c>
+      <c r="I48">
+        <v>5</v>
+      </c>
+      <c r="J48">
+        <v>4</v>
+      </c>
+      <c r="K48" t="s">
+        <v>38</v>
+      </c>
+      <c r="L48">
+        <v>400</v>
+      </c>
+      <c r="M48" t="s">
+        <v>40</v>
+      </c>
+      <c r="N48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49">
+        <v>0.4572</v>
+      </c>
+      <c r="F49" t="s">
+        <v>129</v>
+      </c>
+      <c r="G49" t="s">
+        <v>41</v>
+      </c>
+      <c r="H49" t="s">
+        <v>42</v>
+      </c>
+      <c r="I49">
+        <v>5</v>
+      </c>
+      <c r="J49">
+        <v>4</v>
+      </c>
+      <c r="K49" t="s">
+        <v>38</v>
+      </c>
+      <c r="L49">
+        <v>400</v>
+      </c>
+      <c r="M49" t="s">
+        <v>40</v>
+      </c>
+      <c r="N49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="F50" t="s">
+        <v>129</v>
+      </c>
+      <c r="G50" t="s">
+        <v>41</v>
+      </c>
+      <c r="H50" t="s">
+        <v>42</v>
+      </c>
+      <c r="I50">
+        <v>5</v>
+      </c>
+      <c r="J50">
+        <v>4</v>
+      </c>
+      <c r="K50" t="s">
+        <v>38</v>
+      </c>
+      <c r="L50">
+        <v>400</v>
+      </c>
+      <c r="M50" t="s">
+        <v>40</v>
+      </c>
+      <c r="N50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>124</v>
+      </c>
+      <c r="B51" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>129</v>
+      </c>
+      <c r="G51" t="s">
+        <v>41</v>
+      </c>
+      <c r="H51" t="s">
+        <v>42</v>
+      </c>
+      <c r="I51">
+        <v>5</v>
+      </c>
+      <c r="J51">
+        <v>4</v>
+      </c>
+      <c r="K51" t="s">
+        <v>38</v>
+      </c>
+      <c r="L51">
+        <v>400</v>
+      </c>
+      <c r="M51" t="s">
+        <v>40</v>
+      </c>
+      <c r="N51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>119</v>
+      </c>
+      <c r="B52" t="s">
+        <v>128</v>
+      </c>
+      <c r="C52" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" t="s">
+        <v>44</v>
+      </c>
+      <c r="E52">
+        <v>1000</v>
+      </c>
+      <c r="F52" t="s">
+        <v>129</v>
+      </c>
+      <c r="G52" t="s">
+        <v>41</v>
+      </c>
+      <c r="H52" t="s">
+        <v>42</v>
+      </c>
+      <c r="I52">
+        <v>5</v>
+      </c>
+      <c r="J52">
+        <v>4</v>
+      </c>
+      <c r="K52" t="s">
+        <v>38</v>
+      </c>
+      <c r="L52">
+        <v>400</v>
+      </c>
+      <c r="M52" t="s">
+        <v>40</v>
+      </c>
+      <c r="N52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" t="s">
+        <v>44</v>
+      </c>
+      <c r="E53">
+        <v>333.33330000000001</v>
+      </c>
+      <c r="F53" t="s">
+        <v>129</v>
+      </c>
+      <c r="G53" t="s">
+        <v>41</v>
+      </c>
+      <c r="H53" t="s">
+        <v>42</v>
+      </c>
+      <c r="I53">
+        <v>5</v>
+      </c>
+      <c r="J53">
+        <v>4</v>
+      </c>
+      <c r="K53" t="s">
+        <v>38</v>
+      </c>
+      <c r="L53">
+        <v>400</v>
+      </c>
+      <c r="M53" t="s">
+        <v>40</v>
+      </c>
+      <c r="N53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" t="s">
+        <v>128</v>
+      </c>
+      <c r="C54" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" t="s">
+        <v>44</v>
+      </c>
+      <c r="E54">
+        <v>111.11109999999999</v>
+      </c>
+      <c r="F54" t="s">
+        <v>129</v>
+      </c>
+      <c r="G54" t="s">
+        <v>41</v>
+      </c>
+      <c r="H54" t="s">
+        <v>42</v>
+      </c>
+      <c r="I54">
+        <v>5</v>
+      </c>
+      <c r="J54">
+        <v>4</v>
+      </c>
+      <c r="K54" t="s">
+        <v>38</v>
+      </c>
+      <c r="L54">
+        <v>400</v>
+      </c>
+      <c r="M54" t="s">
+        <v>40</v>
+      </c>
+      <c r="N54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" t="s">
+        <v>128</v>
+      </c>
+      <c r="C55" t="s">
+        <v>50</v>
+      </c>
+      <c r="D55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E55">
+        <v>37.036999999999999</v>
+      </c>
+      <c r="F55" t="s">
+        <v>129</v>
+      </c>
+      <c r="G55" t="s">
+        <v>41</v>
+      </c>
+      <c r="H55" t="s">
+        <v>42</v>
+      </c>
+      <c r="I55">
+        <v>5</v>
+      </c>
+      <c r="J55">
+        <v>4</v>
+      </c>
+      <c r="K55" t="s">
+        <v>38</v>
+      </c>
+      <c r="L55">
+        <v>400</v>
+      </c>
+      <c r="M55" t="s">
+        <v>40</v>
+      </c>
+      <c r="N55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56" t="s">
+        <v>44</v>
+      </c>
+      <c r="E56">
+        <v>12.345700000000001</v>
+      </c>
+      <c r="F56" t="s">
+        <v>129</v>
+      </c>
+      <c r="G56" t="s">
+        <v>41</v>
+      </c>
+      <c r="H56" t="s">
+        <v>42</v>
+      </c>
+      <c r="I56">
+        <v>5</v>
+      </c>
+      <c r="J56">
+        <v>4</v>
+      </c>
+      <c r="K56" t="s">
+        <v>38</v>
+      </c>
+      <c r="L56">
+        <v>400</v>
+      </c>
+      <c r="M56" t="s">
+        <v>40</v>
+      </c>
+      <c r="N56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" t="s">
+        <v>128</v>
+      </c>
+      <c r="C57" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57" t="s">
+        <v>44</v>
+      </c>
+      <c r="E57">
+        <v>4.1151999999999997</v>
+      </c>
+      <c r="F57" t="s">
+        <v>129</v>
+      </c>
+      <c r="G57" t="s">
+        <v>41</v>
+      </c>
+      <c r="H57" t="s">
+        <v>42</v>
+      </c>
+      <c r="I57">
+        <v>5</v>
+      </c>
+      <c r="J57">
+        <v>4</v>
+      </c>
+      <c r="K57" t="s">
+        <v>38</v>
+      </c>
+      <c r="L57">
+        <v>400</v>
+      </c>
+      <c r="M57" t="s">
+        <v>40</v>
+      </c>
+      <c r="N57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58" t="s">
+        <v>44</v>
+      </c>
+      <c r="E58">
+        <v>1.3716999999999999</v>
+      </c>
+      <c r="F58" t="s">
+        <v>129</v>
+      </c>
+      <c r="G58" t="s">
+        <v>41</v>
+      </c>
+      <c r="H58" t="s">
+        <v>42</v>
+      </c>
+      <c r="I58">
+        <v>5</v>
+      </c>
+      <c r="J58">
+        <v>4</v>
+      </c>
+      <c r="K58" t="s">
+        <v>38</v>
+      </c>
+      <c r="L58">
+        <v>400</v>
+      </c>
+      <c r="M58" t="s">
+        <v>40</v>
+      </c>
+      <c r="N58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E59">
+        <v>0.4572</v>
+      </c>
+      <c r="F59" t="s">
+        <v>129</v>
+      </c>
+      <c r="G59" t="s">
+        <v>41</v>
+      </c>
+      <c r="H59" t="s">
+        <v>42</v>
+      </c>
+      <c r="I59">
+        <v>5</v>
+      </c>
+      <c r="J59">
+        <v>4</v>
+      </c>
+      <c r="K59" t="s">
+        <v>38</v>
+      </c>
+      <c r="L59">
+        <v>400</v>
+      </c>
+      <c r="M59" t="s">
+        <v>40</v>
+      </c>
+      <c r="N59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" t="s">
+        <v>50</v>
+      </c>
+      <c r="D60" t="s">
+        <v>44</v>
+      </c>
+      <c r="E60">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="F60" t="s">
+        <v>129</v>
+      </c>
+      <c r="G60" t="s">
+        <v>41</v>
+      </c>
+      <c r="H60" t="s">
+        <v>42</v>
+      </c>
+      <c r="I60">
+        <v>5</v>
+      </c>
+      <c r="J60">
+        <v>4</v>
+      </c>
+      <c r="K60" t="s">
+        <v>38</v>
+      </c>
+      <c r="L60">
+        <v>400</v>
+      </c>
+      <c r="M60" t="s">
+        <v>40</v>
+      </c>
+      <c r="N60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>126</v>
+      </c>
+      <c r="B61" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" t="s">
+        <v>50</v>
+      </c>
+      <c r="D61" t="s">
+        <v>44</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>129</v>
+      </c>
+      <c r="G61" t="s">
+        <v>41</v>
+      </c>
+      <c r="H61" t="s">
+        <v>42</v>
+      </c>
+      <c r="I61">
+        <v>5</v>
+      </c>
+      <c r="J61">
+        <v>4</v>
+      </c>
+      <c r="K61" t="s">
+        <v>38</v>
+      </c>
+      <c r="L61">
+        <v>400</v>
+      </c>
+      <c r="M61" t="s">
+        <v>40</v>
+      </c>
+      <c r="N61">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C776CA-D97E-A445-87E2-DE505312FDC8}">
+  <dimension ref="A1:N33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2">
+        <v>416</v>
+      </c>
+      <c r="F2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2">
+        <v>250</v>
+      </c>
+      <c r="M2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3">
+        <f>E2*50/(300)</f>
+        <v>69.333333333333329</v>
+      </c>
+      <c r="F3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3">
+        <v>250</v>
+      </c>
+      <c r="M3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E8" si="0">E3*50/(300)</f>
+        <v>11.555555555555555</v>
+      </c>
+      <c r="F4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4">
+        <v>250</v>
+      </c>
+      <c r="M4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1.9259259259259258</v>
+      </c>
+      <c r="F5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5">
+        <v>250</v>
+      </c>
+      <c r="M5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.32098765432098764</v>
+      </c>
+      <c r="F6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6">
+        <v>250</v>
+      </c>
+      <c r="M6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>5.3497942386831275E-2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7">
+        <v>250</v>
+      </c>
+      <c r="M7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>8.9163237311385458E-3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8">
+        <v>250</v>
+      </c>
+      <c r="M8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9">
+        <f>E8*50/(300)</f>
+        <v>1.4860539551897576E-3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9">
+        <v>250</v>
+      </c>
+      <c r="M9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10">
+        <v>416</v>
+      </c>
+      <c r="F10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10">
+        <v>250</v>
+      </c>
+      <c r="M10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11">
+        <f>E10*50/(300)</f>
+        <v>69.333333333333329</v>
+      </c>
+      <c r="F11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11">
+        <v>250</v>
+      </c>
+      <c r="M11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:E16" si="1">E11*50/(300)</f>
+        <v>11.555555555555555</v>
+      </c>
+      <c r="F12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12">
+        <v>250</v>
+      </c>
+      <c r="M12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>1.9259259259259258</v>
+      </c>
+      <c r="F13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13">
+        <v>250</v>
+      </c>
+      <c r="M13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>0.32098765432098764</v>
+      </c>
+      <c r="F14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14">
+        <v>250</v>
+      </c>
+      <c r="M14" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>5.3497942386831275E-2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15">
+        <v>250</v>
+      </c>
+      <c r="M15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>8.9163237311385458E-3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16">
+        <v>250</v>
+      </c>
+      <c r="M16" t="s">
+        <v>40</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17">
+        <f>E16*50/(300)</f>
+        <v>1.4860539551897576E-3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17">
+        <v>250</v>
+      </c>
+      <c r="M17" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18">
+        <v>416</v>
+      </c>
+      <c r="F18" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>2.5</v>
+      </c>
+      <c r="K18" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18">
+        <v>250</v>
+      </c>
+      <c r="M18" t="s">
+        <v>40</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19">
+        <f>E18*50/(300)</f>
+        <v>69.333333333333329</v>
+      </c>
+      <c r="F19" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>2.5</v>
+      </c>
+      <c r="K19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19">
+        <v>250</v>
+      </c>
+      <c r="M19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20:E24" si="2">E19*50/(300)</f>
+        <v>11.555555555555555</v>
+      </c>
+      <c r="F20" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>2.5</v>
+      </c>
+      <c r="K20" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20">
+        <v>250</v>
+      </c>
+      <c r="M20" t="s">
+        <v>40</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>1.9259259259259258</v>
+      </c>
+      <c r="F21" t="s">
+        <v>129</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21">
+        <v>2.5</v>
+      </c>
+      <c r="K21" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21">
+        <v>250</v>
+      </c>
+      <c r="M21" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>0.32098765432098764</v>
+      </c>
+      <c r="F22" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>2.5</v>
+      </c>
+      <c r="K22" t="s">
+        <v>38</v>
+      </c>
+      <c r="L22">
+        <v>250</v>
+      </c>
+      <c r="M22" t="s">
+        <v>40</v>
+      </c>
+      <c r="N22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>5.3497942386831275E-2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>2.5</v>
+      </c>
+      <c r="K23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23">
+        <v>250</v>
+      </c>
+      <c r="M23" t="s">
+        <v>40</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>8.9163237311385458E-3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>129</v>
+      </c>
+      <c r="G24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>2.5</v>
+      </c>
+      <c r="K24" t="s">
+        <v>38</v>
+      </c>
+      <c r="L24">
+        <v>250</v>
+      </c>
+      <c r="M24" t="s">
+        <v>40</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25">
+        <f>E24*50/(300)</f>
+        <v>1.4860539551897576E-3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="J25">
+        <v>2.5</v>
+      </c>
+      <c r="K25" t="s">
+        <v>38</v>
+      </c>
+      <c r="L25">
+        <v>250</v>
+      </c>
+      <c r="M25" t="s">
+        <v>40</v>
+      </c>
+      <c r="N25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26">
+        <v>416</v>
+      </c>
+      <c r="F26" t="s">
+        <v>129</v>
+      </c>
+      <c r="G26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+      <c r="J26">
+        <v>2.5</v>
+      </c>
+      <c r="K26" t="s">
+        <v>38</v>
+      </c>
+      <c r="L26">
+        <v>250</v>
+      </c>
+      <c r="M26" t="s">
+        <v>40</v>
+      </c>
+      <c r="N26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27">
+        <f>E26*50/(300)</f>
+        <v>69.333333333333329</v>
+      </c>
+      <c r="F27" t="s">
+        <v>129</v>
+      </c>
+      <c r="G27" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27">
+        <v>5</v>
+      </c>
+      <c r="J27">
+        <v>2.5</v>
+      </c>
+      <c r="K27" t="s">
+        <v>38</v>
+      </c>
+      <c r="L27">
+        <v>250</v>
+      </c>
+      <c r="M27" t="s">
+        <v>40</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ref="E28:E32" si="3">E27*50/(300)</f>
+        <v>11.555555555555555</v>
+      </c>
+      <c r="F28" t="s">
+        <v>129</v>
+      </c>
+      <c r="G28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
+      <c r="J28">
+        <v>2.5</v>
+      </c>
+      <c r="K28" t="s">
+        <v>38</v>
+      </c>
+      <c r="L28">
+        <v>250</v>
+      </c>
+      <c r="M28" t="s">
+        <v>40</v>
+      </c>
+      <c r="N28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="3"/>
+        <v>1.9259259259259258</v>
+      </c>
+      <c r="F29" t="s">
+        <v>129</v>
+      </c>
+      <c r="G29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29">
+        <v>5</v>
+      </c>
+      <c r="J29">
+        <v>2.5</v>
+      </c>
+      <c r="K29" t="s">
+        <v>38</v>
+      </c>
+      <c r="L29">
+        <v>250</v>
+      </c>
+      <c r="M29" t="s">
+        <v>40</v>
+      </c>
+      <c r="N29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="3"/>
+        <v>0.32098765432098764</v>
+      </c>
+      <c r="F30" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30">
+        <v>5</v>
+      </c>
+      <c r="J30">
+        <v>2.5</v>
+      </c>
+      <c r="K30" t="s">
+        <v>38</v>
+      </c>
+      <c r="L30">
+        <v>250</v>
+      </c>
+      <c r="M30" t="s">
+        <v>40</v>
+      </c>
+      <c r="N30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="3"/>
+        <v>5.3497942386831275E-2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>129</v>
+      </c>
+      <c r="G31" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+      <c r="J31">
+        <v>2.5</v>
+      </c>
+      <c r="K31" t="s">
+        <v>38</v>
+      </c>
+      <c r="L31">
+        <v>250</v>
+      </c>
+      <c r="M31" t="s">
+        <v>40</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="3"/>
+        <v>8.9163237311385458E-3</v>
+      </c>
+      <c r="F32" t="s">
+        <v>129</v>
+      </c>
+      <c r="G32" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32">
+        <v>5</v>
+      </c>
+      <c r="J32">
+        <v>2.5</v>
+      </c>
+      <c r="K32" t="s">
+        <v>38</v>
+      </c>
+      <c r="L32">
+        <v>250</v>
+      </c>
+      <c r="M32" t="s">
+        <v>40</v>
+      </c>
+      <c r="N32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33">
+        <f>E32*50/(300)</f>
+        <v>1.4860539551897576E-3</v>
+      </c>
+      <c r="F33" t="s">
+        <v>129</v>
+      </c>
+      <c r="G33" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I33">
+        <v>5</v>
+      </c>
+      <c r="J33">
+        <v>2.5</v>
+      </c>
+      <c r="K33" t="s">
+        <v>38</v>
+      </c>
+      <c r="L33">
+        <v>250</v>
+      </c>
+      <c r="M33" t="s">
+        <v>40</v>
+      </c>
+      <c r="N33">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/plate-reader-screens/plate_layouts.xlsx
+++ b/plate-reader-screens/plate_layouts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aqib/Desktop/BCCL/char-syn-gene-nets/circuit-state/plate-reader-screens/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA0875B-018A-544F-B8D7-1FAF292A614B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBDD9BA-978F-924E-B439-5D0D674BB319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="1080" windowWidth="44120" windowHeight="25500" activeTab="8" xr2:uid="{86E41D9F-BC50-BD4C-BFC8-A140258F459E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35980" windowHeight="27220" firstSheet="3" activeTab="9" xr2:uid="{86E41D9F-BC50-BD4C-BFC8-A140258F459E}"/>
   </bookViews>
   <sheets>
     <sheet name="adp1_antibiotic_10.12" sheetId="4" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="mgDeltaLacI_mepMover_12.9.22" sheetId="11" r:id="rId7"/>
     <sheet name="mgDeltaLacI_mepMover_12.13.22" sheetId="13" r:id="rId8"/>
     <sheet name="mgDeltaLacI_mepMover_12.15.22" sheetId="14" r:id="rId9"/>
+    <sheet name="mgDeltaLacI_mepMover_12.22.22" sheetId="15" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2907" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3521" uniqueCount="130">
   <si>
     <t>well</t>
   </si>
@@ -512,6 +513,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFEA5F47"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1826,6 +1832,2845 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECD7123-BC65-B74D-9D41-4185F460C1BE}">
+  <dimension ref="A1:N61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2">
+        <v>350</v>
+      </c>
+      <c r="F2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2">
+        <v>500</v>
+      </c>
+      <c r="M2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3">
+        <f>E2/2</f>
+        <v>175</v>
+      </c>
+      <c r="F3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3">
+        <v>500</v>
+      </c>
+      <c r="M3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E11" si="0">E3/2</f>
+        <v>87.5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>129</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4">
+        <v>500</v>
+      </c>
+      <c r="M4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>43.75</v>
+      </c>
+      <c r="F5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>129</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5">
+        <v>500</v>
+      </c>
+      <c r="M5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>21.875</v>
+      </c>
+      <c r="F6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6" t="s">
+        <v>129</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6">
+        <v>500</v>
+      </c>
+      <c r="M6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>10.9375</v>
+      </c>
+      <c r="F7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7">
+        <v>500</v>
+      </c>
+      <c r="M7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>5.46875</v>
+      </c>
+      <c r="F8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8" t="s">
+        <v>129</v>
+      </c>
+      <c r="K8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8">
+        <v>500</v>
+      </c>
+      <c r="M8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>2.734375</v>
+      </c>
+      <c r="F9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9" t="s">
+        <v>129</v>
+      </c>
+      <c r="K9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9">
+        <v>500</v>
+      </c>
+      <c r="M9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1.3671875</v>
+      </c>
+      <c r="F10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
+        <v>129</v>
+      </c>
+      <c r="K10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10">
+        <v>500</v>
+      </c>
+      <c r="M10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11">
+        <v>500</v>
+      </c>
+      <c r="M11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12">
+        <v>350</v>
+      </c>
+      <c r="F12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12">
+        <f>I2/2</f>
+        <v>5</v>
+      </c>
+      <c r="J12" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12">
+        <v>500</v>
+      </c>
+      <c r="M12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13">
+        <f>E12/2</f>
+        <v>175</v>
+      </c>
+      <c r="F13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ref="I13:I21" si="1">I3/2</f>
+        <v>5</v>
+      </c>
+      <c r="J13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13">
+        <v>500</v>
+      </c>
+      <c r="M13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ref="E14:E21" si="2">E13/2</f>
+        <v>87.5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14">
+        <v>500</v>
+      </c>
+      <c r="M14" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>43.75</v>
+      </c>
+      <c r="F15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J15" t="s">
+        <v>129</v>
+      </c>
+      <c r="K15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15">
+        <v>500</v>
+      </c>
+      <c r="M15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>21.875</v>
+      </c>
+      <c r="F16" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J16" t="s">
+        <v>129</v>
+      </c>
+      <c r="K16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16">
+        <v>500</v>
+      </c>
+      <c r="M16" t="s">
+        <v>40</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>10.9375</v>
+      </c>
+      <c r="F17" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J17" t="s">
+        <v>129</v>
+      </c>
+      <c r="K17" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17">
+        <v>500</v>
+      </c>
+      <c r="M17" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>5.46875</v>
+      </c>
+      <c r="F18" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J18" t="s">
+        <v>129</v>
+      </c>
+      <c r="K18" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18">
+        <v>500</v>
+      </c>
+      <c r="M18" t="s">
+        <v>40</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>2.734375</v>
+      </c>
+      <c r="F19" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J19" t="s">
+        <v>129</v>
+      </c>
+      <c r="K19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19">
+        <v>500</v>
+      </c>
+      <c r="M19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>1.3671875</v>
+      </c>
+      <c r="F20" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J20" t="s">
+        <v>129</v>
+      </c>
+      <c r="K20" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20">
+        <v>500</v>
+      </c>
+      <c r="M20" t="s">
+        <v>40</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>129</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J21" t="s">
+        <v>129</v>
+      </c>
+      <c r="K21" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21">
+        <v>500</v>
+      </c>
+      <c r="M21" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22">
+        <v>350</v>
+      </c>
+      <c r="F22" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22">
+        <f>I12/2</f>
+        <v>2.5</v>
+      </c>
+      <c r="J22" t="s">
+        <v>129</v>
+      </c>
+      <c r="K22" t="s">
+        <v>38</v>
+      </c>
+      <c r="L22">
+        <v>500</v>
+      </c>
+      <c r="M22" t="s">
+        <v>40</v>
+      </c>
+      <c r="N22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23">
+        <f>E22/2</f>
+        <v>175</v>
+      </c>
+      <c r="F23" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23">
+        <f t="shared" ref="I23:I31" si="3">I13/2</f>
+        <v>2.5</v>
+      </c>
+      <c r="J23" t="s">
+        <v>129</v>
+      </c>
+      <c r="K23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23">
+        <v>500</v>
+      </c>
+      <c r="M23" t="s">
+        <v>40</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ref="E24:E31" si="4">E23/2</f>
+        <v>87.5</v>
+      </c>
+      <c r="F24" t="s">
+        <v>129</v>
+      </c>
+      <c r="G24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="J24" t="s">
+        <v>129</v>
+      </c>
+      <c r="K24" t="s">
+        <v>38</v>
+      </c>
+      <c r="L24">
+        <v>500</v>
+      </c>
+      <c r="M24" t="s">
+        <v>40</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="4"/>
+        <v>43.75</v>
+      </c>
+      <c r="F25" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="J25" t="s">
+        <v>129</v>
+      </c>
+      <c r="K25" t="s">
+        <v>38</v>
+      </c>
+      <c r="L25">
+        <v>500</v>
+      </c>
+      <c r="M25" t="s">
+        <v>40</v>
+      </c>
+      <c r="N25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="4"/>
+        <v>21.875</v>
+      </c>
+      <c r="F26" t="s">
+        <v>129</v>
+      </c>
+      <c r="G26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="J26" t="s">
+        <v>129</v>
+      </c>
+      <c r="K26" t="s">
+        <v>38</v>
+      </c>
+      <c r="L26">
+        <v>500</v>
+      </c>
+      <c r="M26" t="s">
+        <v>40</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="4"/>
+        <v>10.9375</v>
+      </c>
+      <c r="F27" t="s">
+        <v>129</v>
+      </c>
+      <c r="G27" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="J27" t="s">
+        <v>129</v>
+      </c>
+      <c r="K27" t="s">
+        <v>38</v>
+      </c>
+      <c r="L27">
+        <v>500</v>
+      </c>
+      <c r="M27" t="s">
+        <v>40</v>
+      </c>
+      <c r="N27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="4"/>
+        <v>5.46875</v>
+      </c>
+      <c r="F28" t="s">
+        <v>129</v>
+      </c>
+      <c r="G28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="J28" t="s">
+        <v>129</v>
+      </c>
+      <c r="K28" t="s">
+        <v>38</v>
+      </c>
+      <c r="L28">
+        <v>500</v>
+      </c>
+      <c r="M28" t="s">
+        <v>40</v>
+      </c>
+      <c r="N28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="4"/>
+        <v>2.734375</v>
+      </c>
+      <c r="F29" t="s">
+        <v>129</v>
+      </c>
+      <c r="G29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="J29" t="s">
+        <v>129</v>
+      </c>
+      <c r="K29" t="s">
+        <v>38</v>
+      </c>
+      <c r="L29">
+        <v>500</v>
+      </c>
+      <c r="M29" t="s">
+        <v>40</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="4"/>
+        <v>1.3671875</v>
+      </c>
+      <c r="F30" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="J30" t="s">
+        <v>129</v>
+      </c>
+      <c r="K30" t="s">
+        <v>38</v>
+      </c>
+      <c r="L30">
+        <v>500</v>
+      </c>
+      <c r="M30" t="s">
+        <v>40</v>
+      </c>
+      <c r="N30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>129</v>
+      </c>
+      <c r="G31" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="J31" t="s">
+        <v>129</v>
+      </c>
+      <c r="K31" t="s">
+        <v>38</v>
+      </c>
+      <c r="L31">
+        <v>500</v>
+      </c>
+      <c r="M31" t="s">
+        <v>40</v>
+      </c>
+      <c r="N31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32">
+        <v>350</v>
+      </c>
+      <c r="F32" t="s">
+        <v>129</v>
+      </c>
+      <c r="G32" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32">
+        <f>I22/2</f>
+        <v>1.25</v>
+      </c>
+      <c r="J32" t="s">
+        <v>129</v>
+      </c>
+      <c r="K32" t="s">
+        <v>38</v>
+      </c>
+      <c r="L32">
+        <v>500</v>
+      </c>
+      <c r="M32" t="s">
+        <v>40</v>
+      </c>
+      <c r="N32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33">
+        <f>E32/2</f>
+        <v>175</v>
+      </c>
+      <c r="F33" t="s">
+        <v>129</v>
+      </c>
+      <c r="G33" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I33">
+        <f t="shared" ref="I33:I41" si="5">I23/2</f>
+        <v>1.25</v>
+      </c>
+      <c r="J33" t="s">
+        <v>129</v>
+      </c>
+      <c r="K33" t="s">
+        <v>38</v>
+      </c>
+      <c r="L33">
+        <v>500</v>
+      </c>
+      <c r="M33" t="s">
+        <v>40</v>
+      </c>
+      <c r="N33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ref="E34:E41" si="6">E33/2</f>
+        <v>87.5</v>
+      </c>
+      <c r="F34" t="s">
+        <v>129</v>
+      </c>
+      <c r="G34" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" t="s">
+        <v>42</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="5"/>
+        <v>1.25</v>
+      </c>
+      <c r="J34" t="s">
+        <v>129</v>
+      </c>
+      <c r="K34" t="s">
+        <v>38</v>
+      </c>
+      <c r="L34">
+        <v>500</v>
+      </c>
+      <c r="M34" t="s">
+        <v>40</v>
+      </c>
+      <c r="N34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="6"/>
+        <v>43.75</v>
+      </c>
+      <c r="F35" t="s">
+        <v>129</v>
+      </c>
+      <c r="G35" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" t="s">
+        <v>42</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="5"/>
+        <v>1.25</v>
+      </c>
+      <c r="J35" t="s">
+        <v>129</v>
+      </c>
+      <c r="K35" t="s">
+        <v>38</v>
+      </c>
+      <c r="L35">
+        <v>500</v>
+      </c>
+      <c r="M35" t="s">
+        <v>40</v>
+      </c>
+      <c r="N35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="6"/>
+        <v>21.875</v>
+      </c>
+      <c r="F36" t="s">
+        <v>129</v>
+      </c>
+      <c r="G36" t="s">
+        <v>41</v>
+      </c>
+      <c r="H36" t="s">
+        <v>42</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="5"/>
+        <v>1.25</v>
+      </c>
+      <c r="J36" t="s">
+        <v>129</v>
+      </c>
+      <c r="K36" t="s">
+        <v>38</v>
+      </c>
+      <c r="L36">
+        <v>500</v>
+      </c>
+      <c r="M36" t="s">
+        <v>40</v>
+      </c>
+      <c r="N36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="6"/>
+        <v>10.9375</v>
+      </c>
+      <c r="F37" t="s">
+        <v>129</v>
+      </c>
+      <c r="G37" t="s">
+        <v>41</v>
+      </c>
+      <c r="H37" t="s">
+        <v>42</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="5"/>
+        <v>1.25</v>
+      </c>
+      <c r="J37" t="s">
+        <v>129</v>
+      </c>
+      <c r="K37" t="s">
+        <v>38</v>
+      </c>
+      <c r="L37">
+        <v>500</v>
+      </c>
+      <c r="M37" t="s">
+        <v>40</v>
+      </c>
+      <c r="N37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="6"/>
+        <v>5.46875</v>
+      </c>
+      <c r="F38" t="s">
+        <v>129</v>
+      </c>
+      <c r="G38" t="s">
+        <v>41</v>
+      </c>
+      <c r="H38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="5"/>
+        <v>1.25</v>
+      </c>
+      <c r="J38" t="s">
+        <v>129</v>
+      </c>
+      <c r="K38" t="s">
+        <v>38</v>
+      </c>
+      <c r="L38">
+        <v>500</v>
+      </c>
+      <c r="M38" t="s">
+        <v>40</v>
+      </c>
+      <c r="N38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="6"/>
+        <v>2.734375</v>
+      </c>
+      <c r="F39" t="s">
+        <v>129</v>
+      </c>
+      <c r="G39" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" t="s">
+        <v>42</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="5"/>
+        <v>1.25</v>
+      </c>
+      <c r="J39" t="s">
+        <v>129</v>
+      </c>
+      <c r="K39" t="s">
+        <v>38</v>
+      </c>
+      <c r="L39">
+        <v>500</v>
+      </c>
+      <c r="M39" t="s">
+        <v>40</v>
+      </c>
+      <c r="N39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="6"/>
+        <v>1.3671875</v>
+      </c>
+      <c r="F40" t="s">
+        <v>129</v>
+      </c>
+      <c r="G40" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40" t="s">
+        <v>42</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="5"/>
+        <v>1.25</v>
+      </c>
+      <c r="J40" t="s">
+        <v>129</v>
+      </c>
+      <c r="K40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L40">
+        <v>500</v>
+      </c>
+      <c r="M40" t="s">
+        <v>40</v>
+      </c>
+      <c r="N40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>129</v>
+      </c>
+      <c r="G41" t="s">
+        <v>41</v>
+      </c>
+      <c r="H41" t="s">
+        <v>42</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="5"/>
+        <v>1.25</v>
+      </c>
+      <c r="J41" t="s">
+        <v>129</v>
+      </c>
+      <c r="K41" t="s">
+        <v>38</v>
+      </c>
+      <c r="L41">
+        <v>500</v>
+      </c>
+      <c r="M41" t="s">
+        <v>40</v>
+      </c>
+      <c r="N41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42">
+        <v>350</v>
+      </c>
+      <c r="F42" t="s">
+        <v>129</v>
+      </c>
+      <c r="G42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H42" t="s">
+        <v>42</v>
+      </c>
+      <c r="I42">
+        <f>I32/2</f>
+        <v>0.625</v>
+      </c>
+      <c r="J42" t="s">
+        <v>129</v>
+      </c>
+      <c r="K42" t="s">
+        <v>38</v>
+      </c>
+      <c r="L42">
+        <v>500</v>
+      </c>
+      <c r="M42" t="s">
+        <v>40</v>
+      </c>
+      <c r="N42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43">
+        <f>E42/2</f>
+        <v>175</v>
+      </c>
+      <c r="F43" t="s">
+        <v>129</v>
+      </c>
+      <c r="G43" t="s">
+        <v>41</v>
+      </c>
+      <c r="H43" t="s">
+        <v>42</v>
+      </c>
+      <c r="I43">
+        <f t="shared" ref="I43:I51" si="7">I33/2</f>
+        <v>0.625</v>
+      </c>
+      <c r="J43" t="s">
+        <v>129</v>
+      </c>
+      <c r="K43" t="s">
+        <v>38</v>
+      </c>
+      <c r="L43">
+        <v>500</v>
+      </c>
+      <c r="M43" t="s">
+        <v>40</v>
+      </c>
+      <c r="N43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ref="E44:E51" si="8">E43/2</f>
+        <v>87.5</v>
+      </c>
+      <c r="F44" t="s">
+        <v>129</v>
+      </c>
+      <c r="G44" t="s">
+        <v>41</v>
+      </c>
+      <c r="H44" t="s">
+        <v>42</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="7"/>
+        <v>0.625</v>
+      </c>
+      <c r="J44" t="s">
+        <v>129</v>
+      </c>
+      <c r="K44" t="s">
+        <v>38</v>
+      </c>
+      <c r="L44">
+        <v>500</v>
+      </c>
+      <c r="M44" t="s">
+        <v>40</v>
+      </c>
+      <c r="N44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="8"/>
+        <v>43.75</v>
+      </c>
+      <c r="F45" t="s">
+        <v>129</v>
+      </c>
+      <c r="G45" t="s">
+        <v>41</v>
+      </c>
+      <c r="H45" t="s">
+        <v>42</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="7"/>
+        <v>0.625</v>
+      </c>
+      <c r="J45" t="s">
+        <v>129</v>
+      </c>
+      <c r="K45" t="s">
+        <v>38</v>
+      </c>
+      <c r="L45">
+        <v>500</v>
+      </c>
+      <c r="M45" t="s">
+        <v>40</v>
+      </c>
+      <c r="N45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="8"/>
+        <v>21.875</v>
+      </c>
+      <c r="F46" t="s">
+        <v>129</v>
+      </c>
+      <c r="G46" t="s">
+        <v>41</v>
+      </c>
+      <c r="H46" t="s">
+        <v>42</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="7"/>
+        <v>0.625</v>
+      </c>
+      <c r="J46" t="s">
+        <v>129</v>
+      </c>
+      <c r="K46" t="s">
+        <v>38</v>
+      </c>
+      <c r="L46">
+        <v>500</v>
+      </c>
+      <c r="M46" t="s">
+        <v>40</v>
+      </c>
+      <c r="N46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="8"/>
+        <v>10.9375</v>
+      </c>
+      <c r="F47" t="s">
+        <v>129</v>
+      </c>
+      <c r="G47" t="s">
+        <v>41</v>
+      </c>
+      <c r="H47" t="s">
+        <v>42</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="7"/>
+        <v>0.625</v>
+      </c>
+      <c r="J47" t="s">
+        <v>129</v>
+      </c>
+      <c r="K47" t="s">
+        <v>38</v>
+      </c>
+      <c r="L47">
+        <v>500</v>
+      </c>
+      <c r="M47" t="s">
+        <v>40</v>
+      </c>
+      <c r="N47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" t="s">
+        <v>128</v>
+      </c>
+      <c r="C48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="8"/>
+        <v>5.46875</v>
+      </c>
+      <c r="F48" t="s">
+        <v>129</v>
+      </c>
+      <c r="G48" t="s">
+        <v>41</v>
+      </c>
+      <c r="H48" t="s">
+        <v>42</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="7"/>
+        <v>0.625</v>
+      </c>
+      <c r="J48" t="s">
+        <v>129</v>
+      </c>
+      <c r="K48" t="s">
+        <v>38</v>
+      </c>
+      <c r="L48">
+        <v>500</v>
+      </c>
+      <c r="M48" t="s">
+        <v>40</v>
+      </c>
+      <c r="N48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="8"/>
+        <v>2.734375</v>
+      </c>
+      <c r="F49" t="s">
+        <v>129</v>
+      </c>
+      <c r="G49" t="s">
+        <v>41</v>
+      </c>
+      <c r="H49" t="s">
+        <v>42</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="7"/>
+        <v>0.625</v>
+      </c>
+      <c r="J49" t="s">
+        <v>129</v>
+      </c>
+      <c r="K49" t="s">
+        <v>38</v>
+      </c>
+      <c r="L49">
+        <v>500</v>
+      </c>
+      <c r="M49" t="s">
+        <v>40</v>
+      </c>
+      <c r="N49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="8"/>
+        <v>1.3671875</v>
+      </c>
+      <c r="F50" t="s">
+        <v>129</v>
+      </c>
+      <c r="G50" t="s">
+        <v>41</v>
+      </c>
+      <c r="H50" t="s">
+        <v>42</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="7"/>
+        <v>0.625</v>
+      </c>
+      <c r="J50" t="s">
+        <v>129</v>
+      </c>
+      <c r="K50" t="s">
+        <v>38</v>
+      </c>
+      <c r="L50">
+        <v>500</v>
+      </c>
+      <c r="M50" t="s">
+        <v>40</v>
+      </c>
+      <c r="N50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>124</v>
+      </c>
+      <c r="B51" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>129</v>
+      </c>
+      <c r="G51" t="s">
+        <v>41</v>
+      </c>
+      <c r="H51" t="s">
+        <v>42</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="7"/>
+        <v>0.625</v>
+      </c>
+      <c r="J51" t="s">
+        <v>129</v>
+      </c>
+      <c r="K51" t="s">
+        <v>38</v>
+      </c>
+      <c r="L51">
+        <v>500</v>
+      </c>
+      <c r="M51" t="s">
+        <v>40</v>
+      </c>
+      <c r="N51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>119</v>
+      </c>
+      <c r="B52" t="s">
+        <v>128</v>
+      </c>
+      <c r="C52" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" t="s">
+        <v>44</v>
+      </c>
+      <c r="E52">
+        <v>350</v>
+      </c>
+      <c r="F52" t="s">
+        <v>129</v>
+      </c>
+      <c r="G52" t="s">
+        <v>41</v>
+      </c>
+      <c r="H52" t="s">
+        <v>42</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52" t="s">
+        <v>129</v>
+      </c>
+      <c r="K52" t="s">
+        <v>38</v>
+      </c>
+      <c r="L52">
+        <v>500</v>
+      </c>
+      <c r="M52" t="s">
+        <v>40</v>
+      </c>
+      <c r="N52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" t="s">
+        <v>44</v>
+      </c>
+      <c r="E53">
+        <f>E52/2</f>
+        <v>175</v>
+      </c>
+      <c r="F53" t="s">
+        <v>129</v>
+      </c>
+      <c r="G53" t="s">
+        <v>41</v>
+      </c>
+      <c r="H53" t="s">
+        <v>42</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53" t="s">
+        <v>129</v>
+      </c>
+      <c r="K53" t="s">
+        <v>38</v>
+      </c>
+      <c r="L53">
+        <v>500</v>
+      </c>
+      <c r="M53" t="s">
+        <v>40</v>
+      </c>
+      <c r="N53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" t="s">
+        <v>128</v>
+      </c>
+      <c r="C54" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" t="s">
+        <v>44</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ref="E54:E61" si="9">E53/2</f>
+        <v>87.5</v>
+      </c>
+      <c r="F54" t="s">
+        <v>129</v>
+      </c>
+      <c r="G54" t="s">
+        <v>41</v>
+      </c>
+      <c r="H54" t="s">
+        <v>42</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54" t="s">
+        <v>129</v>
+      </c>
+      <c r="K54" t="s">
+        <v>38</v>
+      </c>
+      <c r="L54">
+        <v>500</v>
+      </c>
+      <c r="M54" t="s">
+        <v>40</v>
+      </c>
+      <c r="N54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" t="s">
+        <v>128</v>
+      </c>
+      <c r="C55" t="s">
+        <v>50</v>
+      </c>
+      <c r="D55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="9"/>
+        <v>43.75</v>
+      </c>
+      <c r="F55" t="s">
+        <v>129</v>
+      </c>
+      <c r="G55" t="s">
+        <v>41</v>
+      </c>
+      <c r="H55" t="s">
+        <v>42</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55" t="s">
+        <v>129</v>
+      </c>
+      <c r="K55" t="s">
+        <v>38</v>
+      </c>
+      <c r="L55">
+        <v>500</v>
+      </c>
+      <c r="M55" t="s">
+        <v>40</v>
+      </c>
+      <c r="N55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56" t="s">
+        <v>44</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="9"/>
+        <v>21.875</v>
+      </c>
+      <c r="F56" t="s">
+        <v>129</v>
+      </c>
+      <c r="G56" t="s">
+        <v>41</v>
+      </c>
+      <c r="H56" t="s">
+        <v>42</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56" t="s">
+        <v>129</v>
+      </c>
+      <c r="K56" t="s">
+        <v>38</v>
+      </c>
+      <c r="L56">
+        <v>500</v>
+      </c>
+      <c r="M56" t="s">
+        <v>40</v>
+      </c>
+      <c r="N56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" t="s">
+        <v>128</v>
+      </c>
+      <c r="C57" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57" t="s">
+        <v>44</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="9"/>
+        <v>10.9375</v>
+      </c>
+      <c r="F57" t="s">
+        <v>129</v>
+      </c>
+      <c r="G57" t="s">
+        <v>41</v>
+      </c>
+      <c r="H57" t="s">
+        <v>42</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57" t="s">
+        <v>129</v>
+      </c>
+      <c r="K57" t="s">
+        <v>38</v>
+      </c>
+      <c r="L57">
+        <v>500</v>
+      </c>
+      <c r="M57" t="s">
+        <v>40</v>
+      </c>
+      <c r="N57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58" t="s">
+        <v>44</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="9"/>
+        <v>5.46875</v>
+      </c>
+      <c r="F58" t="s">
+        <v>129</v>
+      </c>
+      <c r="G58" t="s">
+        <v>41</v>
+      </c>
+      <c r="H58" t="s">
+        <v>42</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58" t="s">
+        <v>129</v>
+      </c>
+      <c r="K58" t="s">
+        <v>38</v>
+      </c>
+      <c r="L58">
+        <v>500</v>
+      </c>
+      <c r="M58" t="s">
+        <v>40</v>
+      </c>
+      <c r="N58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="9"/>
+        <v>2.734375</v>
+      </c>
+      <c r="F59" t="s">
+        <v>129</v>
+      </c>
+      <c r="G59" t="s">
+        <v>41</v>
+      </c>
+      <c r="H59" t="s">
+        <v>42</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59" t="s">
+        <v>129</v>
+      </c>
+      <c r="K59" t="s">
+        <v>38</v>
+      </c>
+      <c r="L59">
+        <v>500</v>
+      </c>
+      <c r="M59" t="s">
+        <v>40</v>
+      </c>
+      <c r="N59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" t="s">
+        <v>50</v>
+      </c>
+      <c r="D60" t="s">
+        <v>44</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="9"/>
+        <v>1.3671875</v>
+      </c>
+      <c r="F60" t="s">
+        <v>129</v>
+      </c>
+      <c r="G60" t="s">
+        <v>41</v>
+      </c>
+      <c r="H60" t="s">
+        <v>42</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60" t="s">
+        <v>129</v>
+      </c>
+      <c r="K60" t="s">
+        <v>38</v>
+      </c>
+      <c r="L60">
+        <v>500</v>
+      </c>
+      <c r="M60" t="s">
+        <v>40</v>
+      </c>
+      <c r="N60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>126</v>
+      </c>
+      <c r="B61" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" t="s">
+        <v>50</v>
+      </c>
+      <c r="D61" t="s">
+        <v>44</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>129</v>
+      </c>
+      <c r="G61" t="s">
+        <v>41</v>
+      </c>
+      <c r="H61" t="s">
+        <v>42</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61" t="s">
+        <v>129</v>
+      </c>
+      <c r="K61" t="s">
+        <v>38</v>
+      </c>
+      <c r="L61">
+        <v>500</v>
+      </c>
+      <c r="M61" t="s">
+        <v>40</v>
+      </c>
+      <c r="N61">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="2"/>
+        <color theme="5"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="2"/>
+        <color rgb="FFFFC000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="2"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="2"/>
+        <color rgb="FFEA5F47"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67F337F-D56F-DE4B-B44D-97EF61F12050}">
   <dimension ref="A1:K28"/>
@@ -10926,7 +13771,7 @@
   <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:N61"/>
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11033,7 +13878,8 @@
         <v>44</v>
       </c>
       <c r="E3">
-        <v>333.33330000000001</v>
+        <f>E2/3</f>
+        <v>333.33333333333331</v>
       </c>
       <c r="F3" t="s">
         <v>129</v>
@@ -11077,7 +13923,8 @@
         <v>44</v>
       </c>
       <c r="E4">
-        <v>111.11109999999999</v>
+        <f t="shared" ref="E4:E11" si="0">E3/3</f>
+        <v>111.1111111111111</v>
       </c>
       <c r="F4" t="s">
         <v>129</v>
@@ -11121,7 +13968,8 @@
         <v>44</v>
       </c>
       <c r="E5">
-        <v>37.036999999999999</v>
+        <f t="shared" si="0"/>
+        <v>37.037037037037031</v>
       </c>
       <c r="F5" t="s">
         <v>129</v>
@@ -11165,7 +14013,8 @@
         <v>44</v>
       </c>
       <c r="E6">
-        <v>12.345700000000001</v>
+        <f t="shared" si="0"/>
+        <v>12.345679012345677</v>
       </c>
       <c r="F6" t="s">
         <v>129</v>
@@ -11209,7 +14058,8 @@
         <v>44</v>
       </c>
       <c r="E7">
-        <v>4.1151999999999997</v>
+        <f t="shared" si="0"/>
+        <v>4.1152263374485587</v>
       </c>
       <c r="F7" t="s">
         <v>129</v>
@@ -11253,7 +14103,8 @@
         <v>44</v>
       </c>
       <c r="E8">
-        <v>1.3716999999999999</v>
+        <f t="shared" si="0"/>
+        <v>1.3717421124828528</v>
       </c>
       <c r="F8" t="s">
         <v>129</v>
@@ -11297,7 +14148,8 @@
         <v>44</v>
       </c>
       <c r="E9">
-        <v>0.4572</v>
+        <f t="shared" si="0"/>
+        <v>0.45724737082761763</v>
       </c>
       <c r="F9" t="s">
         <v>129</v>
@@ -11341,7 +14193,8 @@
         <v>44</v>
       </c>
       <c r="E10">
-        <v>0.15240000000000001</v>
+        <f t="shared" si="0"/>
+        <v>0.15241579027587254</v>
       </c>
       <c r="F10" t="s">
         <v>129</v>
@@ -11385,7 +14238,8 @@
         <v>44</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>5.0805263425290847E-2</v>
       </c>
       <c r="F11" t="s">
         <v>129</v>
@@ -11473,7 +14327,8 @@
         <v>44</v>
       </c>
       <c r="E13">
-        <v>333.33330000000001</v>
+        <f>E12/3</f>
+        <v>333.33333333333331</v>
       </c>
       <c r="F13" t="s">
         <v>129</v>
@@ -11517,7 +14372,8 @@
         <v>44</v>
       </c>
       <c r="E14">
-        <v>111.11109999999999</v>
+        <f t="shared" ref="E14:E21" si="1">E13/3</f>
+        <v>111.1111111111111</v>
       </c>
       <c r="F14" t="s">
         <v>129</v>
@@ -11561,7 +14417,8 @@
         <v>44</v>
       </c>
       <c r="E15">
-        <v>37.036999999999999</v>
+        <f t="shared" si="1"/>
+        <v>37.037037037037031</v>
       </c>
       <c r="F15" t="s">
         <v>129</v>
@@ -11605,7 +14462,8 @@
         <v>44</v>
       </c>
       <c r="E16">
-        <v>12.345700000000001</v>
+        <f t="shared" si="1"/>
+        <v>12.345679012345677</v>
       </c>
       <c r="F16" t="s">
         <v>129</v>
@@ -11649,7 +14507,8 @@
         <v>44</v>
       </c>
       <c r="E17">
-        <v>4.1151999999999997</v>
+        <f t="shared" si="1"/>
+        <v>4.1152263374485587</v>
       </c>
       <c r="F17" t="s">
         <v>129</v>
@@ -11693,7 +14552,8 @@
         <v>44</v>
       </c>
       <c r="E18">
-        <v>1.3716999999999999</v>
+        <f t="shared" si="1"/>
+        <v>1.3717421124828528</v>
       </c>
       <c r="F18" t="s">
         <v>129</v>
@@ -11737,7 +14597,8 @@
         <v>44</v>
       </c>
       <c r="E19">
-        <v>0.4572</v>
+        <f t="shared" si="1"/>
+        <v>0.45724737082761763</v>
       </c>
       <c r="F19" t="s">
         <v>129</v>
@@ -11781,7 +14642,8 @@
         <v>44</v>
       </c>
       <c r="E20">
-        <v>0.15240000000000001</v>
+        <f t="shared" si="1"/>
+        <v>0.15241579027587254</v>
       </c>
       <c r="F20" t="s">
         <v>129</v>
@@ -11825,7 +14687,8 @@
         <v>44</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>5.0805263425290847E-2</v>
       </c>
       <c r="F21" t="s">
         <v>129</v>
@@ -11913,7 +14776,8 @@
         <v>44</v>
       </c>
       <c r="E23">
-        <v>333.33330000000001</v>
+        <f>E22/3</f>
+        <v>333.33333333333331</v>
       </c>
       <c r="F23" t="s">
         <v>129</v>
@@ -11957,7 +14821,8 @@
         <v>44</v>
       </c>
       <c r="E24">
-        <v>111.11109999999999</v>
+        <f t="shared" ref="E24:E31" si="2">E23/3</f>
+        <v>111.1111111111111</v>
       </c>
       <c r="F24" t="s">
         <v>129</v>
@@ -12001,7 +14866,8 @@
         <v>44</v>
       </c>
       <c r="E25">
-        <v>37.036999999999999</v>
+        <f t="shared" si="2"/>
+        <v>37.037037037037031</v>
       </c>
       <c r="F25" t="s">
         <v>129</v>
@@ -12045,7 +14911,8 @@
         <v>44</v>
       </c>
       <c r="E26">
-        <v>12.345700000000001</v>
+        <f t="shared" si="2"/>
+        <v>12.345679012345677</v>
       </c>
       <c r="F26" t="s">
         <v>129</v>
@@ -12089,7 +14956,8 @@
         <v>44</v>
       </c>
       <c r="E27">
-        <v>4.1151999999999997</v>
+        <f t="shared" si="2"/>
+        <v>4.1152263374485587</v>
       </c>
       <c r="F27" t="s">
         <v>129</v>
@@ -12133,7 +15001,8 @@
         <v>44</v>
       </c>
       <c r="E28">
-        <v>1.3716999999999999</v>
+        <f t="shared" si="2"/>
+        <v>1.3717421124828528</v>
       </c>
       <c r="F28" t="s">
         <v>129</v>
@@ -12177,7 +15046,8 @@
         <v>44</v>
       </c>
       <c r="E29">
-        <v>0.4572</v>
+        <f t="shared" si="2"/>
+        <v>0.45724737082761763</v>
       </c>
       <c r="F29" t="s">
         <v>129</v>
@@ -12221,7 +15091,8 @@
         <v>44</v>
       </c>
       <c r="E30">
-        <v>0.15240000000000001</v>
+        <f t="shared" si="2"/>
+        <v>0.15241579027587254</v>
       </c>
       <c r="F30" t="s">
         <v>129</v>
@@ -12265,7 +15136,8 @@
         <v>44</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5.0805263425290847E-2</v>
       </c>
       <c r="F31" t="s">
         <v>129</v>
@@ -12353,7 +15225,8 @@
         <v>44</v>
       </c>
       <c r="E33">
-        <v>333.33330000000001</v>
+        <f>E32/3</f>
+        <v>333.33333333333331</v>
       </c>
       <c r="F33" t="s">
         <v>129</v>
@@ -12397,7 +15270,8 @@
         <v>44</v>
       </c>
       <c r="E34">
-        <v>111.11109999999999</v>
+        <f t="shared" ref="E34:E41" si="3">E33/3</f>
+        <v>111.1111111111111</v>
       </c>
       <c r="F34" t="s">
         <v>129</v>
@@ -12441,7 +15315,8 @@
         <v>44</v>
       </c>
       <c r="E35">
-        <v>37.036999999999999</v>
+        <f t="shared" si="3"/>
+        <v>37.037037037037031</v>
       </c>
       <c r="F35" t="s">
         <v>129</v>
@@ -12485,7 +15360,8 @@
         <v>44</v>
       </c>
       <c r="E36">
-        <v>12.345700000000001</v>
+        <f t="shared" si="3"/>
+        <v>12.345679012345677</v>
       </c>
       <c r="F36" t="s">
         <v>129</v>
@@ -12529,7 +15405,8 @@
         <v>44</v>
       </c>
       <c r="E37">
-        <v>4.1151999999999997</v>
+        <f t="shared" si="3"/>
+        <v>4.1152263374485587</v>
       </c>
       <c r="F37" t="s">
         <v>129</v>
@@ -12573,7 +15450,8 @@
         <v>44</v>
       </c>
       <c r="E38">
-        <v>1.3716999999999999</v>
+        <f t="shared" si="3"/>
+        <v>1.3717421124828528</v>
       </c>
       <c r="F38" t="s">
         <v>129</v>
@@ -12617,7 +15495,8 @@
         <v>44</v>
       </c>
       <c r="E39">
-        <v>0.4572</v>
+        <f t="shared" si="3"/>
+        <v>0.45724737082761763</v>
       </c>
       <c r="F39" t="s">
         <v>129</v>
@@ -12661,7 +15540,8 @@
         <v>44</v>
       </c>
       <c r="E40">
-        <v>0.15240000000000001</v>
+        <f t="shared" si="3"/>
+        <v>0.15241579027587254</v>
       </c>
       <c r="F40" t="s">
         <v>129</v>
@@ -12705,7 +15585,8 @@
         <v>44</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5.0805263425290847E-2</v>
       </c>
       <c r="F41" t="s">
         <v>129</v>
@@ -12793,7 +15674,8 @@
         <v>44</v>
       </c>
       <c r="E43">
-        <v>333.33330000000001</v>
+        <f>E42/3</f>
+        <v>333.33333333333331</v>
       </c>
       <c r="F43" t="s">
         <v>129</v>
@@ -12837,7 +15719,8 @@
         <v>44</v>
       </c>
       <c r="E44">
-        <v>111.11109999999999</v>
+        <f t="shared" ref="E44:E51" si="4">E43/3</f>
+        <v>111.1111111111111</v>
       </c>
       <c r="F44" t="s">
         <v>129</v>
@@ -12881,7 +15764,8 @@
         <v>44</v>
       </c>
       <c r="E45">
-        <v>37.036999999999999</v>
+        <f t="shared" si="4"/>
+        <v>37.037037037037031</v>
       </c>
       <c r="F45" t="s">
         <v>129</v>
@@ -12925,7 +15809,8 @@
         <v>44</v>
       </c>
       <c r="E46">
-        <v>12.345700000000001</v>
+        <f t="shared" si="4"/>
+        <v>12.345679012345677</v>
       </c>
       <c r="F46" t="s">
         <v>129</v>
@@ -12969,7 +15854,8 @@
         <v>44</v>
       </c>
       <c r="E47">
-        <v>4.1151999999999997</v>
+        <f t="shared" si="4"/>
+        <v>4.1152263374485587</v>
       </c>
       <c r="F47" t="s">
         <v>129</v>
@@ -13013,7 +15899,8 @@
         <v>44</v>
       </c>
       <c r="E48">
-        <v>1.3716999999999999</v>
+        <f t="shared" si="4"/>
+        <v>1.3717421124828528</v>
       </c>
       <c r="F48" t="s">
         <v>129</v>
@@ -13057,7 +15944,8 @@
         <v>44</v>
       </c>
       <c r="E49">
-        <v>0.4572</v>
+        <f t="shared" si="4"/>
+        <v>0.45724737082761763</v>
       </c>
       <c r="F49" t="s">
         <v>129</v>
@@ -13101,7 +15989,8 @@
         <v>44</v>
       </c>
       <c r="E50">
-        <v>0.15240000000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.15241579027587254</v>
       </c>
       <c r="F50" t="s">
         <v>129</v>
@@ -13145,7 +16034,8 @@
         <v>44</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>5.0805263425290847E-2</v>
       </c>
       <c r="F51" t="s">
         <v>129</v>
@@ -13233,7 +16123,8 @@
         <v>44</v>
       </c>
       <c r="E53">
-        <v>333.33330000000001</v>
+        <f>E52/3</f>
+        <v>333.33333333333331</v>
       </c>
       <c r="F53" t="s">
         <v>129</v>
@@ -13277,7 +16168,8 @@
         <v>44</v>
       </c>
       <c r="E54">
-        <v>111.11109999999999</v>
+        <f t="shared" ref="E54:E61" si="5">E53/3</f>
+        <v>111.1111111111111</v>
       </c>
       <c r="F54" t="s">
         <v>129</v>
@@ -13321,7 +16213,8 @@
         <v>44</v>
       </c>
       <c r="E55">
-        <v>37.036999999999999</v>
+        <f t="shared" si="5"/>
+        <v>37.037037037037031</v>
       </c>
       <c r="F55" t="s">
         <v>129</v>
@@ -13365,7 +16258,8 @@
         <v>44</v>
       </c>
       <c r="E56">
-        <v>12.345700000000001</v>
+        <f t="shared" si="5"/>
+        <v>12.345679012345677</v>
       </c>
       <c r="F56" t="s">
         <v>129</v>
@@ -13409,7 +16303,8 @@
         <v>44</v>
       </c>
       <c r="E57">
-        <v>4.1151999999999997</v>
+        <f t="shared" si="5"/>
+        <v>4.1152263374485587</v>
       </c>
       <c r="F57" t="s">
         <v>129</v>
@@ -13453,7 +16348,8 @@
         <v>44</v>
       </c>
       <c r="E58">
-        <v>1.3716999999999999</v>
+        <f t="shared" si="5"/>
+        <v>1.3717421124828528</v>
       </c>
       <c r="F58" t="s">
         <v>129</v>
@@ -13497,7 +16393,8 @@
         <v>44</v>
       </c>
       <c r="E59">
-        <v>0.4572</v>
+        <f t="shared" si="5"/>
+        <v>0.45724737082761763</v>
       </c>
       <c r="F59" t="s">
         <v>129</v>
@@ -13541,7 +16438,8 @@
         <v>44</v>
       </c>
       <c r="E60">
-        <v>0.15240000000000001</v>
+        <f t="shared" si="5"/>
+        <v>0.15241579027587254</v>
       </c>
       <c r="F60" t="s">
         <v>129</v>
@@ -13585,7 +16483,8 @@
         <v>44</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>5.0805263425290847E-2</v>
       </c>
       <c r="F61" t="s">
         <v>129</v>
@@ -13625,8 +16524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C776CA-D97E-A445-87E2-DE505312FDC8}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/plate-reader-screens/plate_layouts.xlsx
+++ b/plate-reader-screens/plate_layouts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aqib/Desktop/BCCL/char-syn-gene-nets/circuit-state/plate-reader-screens/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBDD9BA-978F-924E-B439-5D0D674BB319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78105C5B-DAC7-EF41-B623-78D024D25F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35980" windowHeight="27220" firstSheet="3" activeTab="9" xr2:uid="{86E41D9F-BC50-BD4C-BFC8-A140258F459E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" firstSheet="4" activeTab="9" xr2:uid="{86E41D9F-BC50-BD4C-BFC8-A140258F459E}"/>
   </bookViews>
   <sheets>
     <sheet name="adp1_antibiotic_10.12" sheetId="4" r:id="rId1"/>
@@ -1836,8 +1836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECD7123-BC65-B74D-9D41-4185F460C1BE}">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="O61" sqref="O61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1989,7 +1989,7 @@
         <v>44</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E11" si="0">E3/2</f>
+        <f t="shared" ref="E4:E10" si="0">E3/2</f>
         <v>87.5</v>
       </c>
       <c r="F4" t="s">
@@ -2331,7 +2331,7 @@
         <v>40</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -2439,7 +2439,7 @@
         <v>44</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14:E21" si="2">E13/2</f>
+        <f t="shared" ref="E14:E20" si="2">E13/2</f>
         <v>87.5</v>
       </c>
       <c r="F14" t="s">
@@ -2789,7 +2789,7 @@
         <v>40</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -2897,7 +2897,7 @@
         <v>44</v>
       </c>
       <c r="E24">
-        <f t="shared" ref="E24:E31" si="4">E23/2</f>
+        <f t="shared" ref="E24:E30" si="4">E23/2</f>
         <v>87.5</v>
       </c>
       <c r="F24" t="s">
@@ -3247,7 +3247,7 @@
         <v>40</v>
       </c>
       <c r="N31">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -3355,7 +3355,7 @@
         <v>44</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:E41" si="6">E33/2</f>
+        <f t="shared" ref="E34:E40" si="6">E33/2</f>
         <v>87.5</v>
       </c>
       <c r="F34" t="s">
@@ -3705,7 +3705,7 @@
         <v>40</v>
       </c>
       <c r="N41">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -3813,7 +3813,7 @@
         <v>44</v>
       </c>
       <c r="E44">
-        <f t="shared" ref="E44:E51" si="8">E43/2</f>
+        <f t="shared" ref="E44:E50" si="8">E43/2</f>
         <v>87.5</v>
       </c>
       <c r="F44" t="s">
@@ -4163,7 +4163,7 @@
         <v>40</v>
       </c>
       <c r="N51">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
@@ -4269,7 +4269,7 @@
         <v>44</v>
       </c>
       <c r="E54">
-        <f t="shared" ref="E54:E61" si="9">E53/2</f>
+        <f t="shared" ref="E54:E60" si="9">E53/2</f>
         <v>87.5</v>
       </c>
       <c r="F54" t="s">
@@ -4611,7 +4611,7 @@
         <v>40</v>
       </c>
       <c r="N61">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -10251,7 +10251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91949FFA-5E6A-5C49-AD6E-C5C0E4B4C1C1}">
   <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>

--- a/plate-reader-screens/plate_layouts.xlsx
+++ b/plate-reader-screens/plate_layouts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aqib/Desktop/BCCL/char-syn-gene-nets/circuit-state/plate-reader-screens/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78105C5B-DAC7-EF41-B623-78D024D25F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBC9D12-9A84-E44D-BB28-9EBB6CC76415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" firstSheet="4" activeTab="9" xr2:uid="{86E41D9F-BC50-BD4C-BFC8-A140258F459E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="41620" windowHeight="25080" firstSheet="4" activeTab="9" xr2:uid="{86E41D9F-BC50-BD4C-BFC8-A140258F459E}"/>
   </bookViews>
   <sheets>
     <sheet name="adp1_antibiotic_10.12" sheetId="4" r:id="rId1"/>
@@ -1836,11 +1836,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECD7123-BC65-B74D-9D41-4185F460C1BE}">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="O61" sqref="O61"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
@@ -2316,7 +2319,7 @@
         <v>42</v>
       </c>
       <c r="I11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
         <v>129</v>
@@ -2773,8 +2776,7 @@
         <v>42</v>
       </c>
       <c r="I21">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
         <v>129</v>
@@ -3232,7 +3234,7 @@
       </c>
       <c r="I31">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
         <v>129</v>
@@ -3690,7 +3692,7 @@
       </c>
       <c r="I41">
         <f t="shared" si="5"/>
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="J41" t="s">
         <v>129</v>
@@ -4148,7 +4150,7 @@
       </c>
       <c r="I51">
         <f t="shared" si="7"/>
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
         <v>129</v>
@@ -16525,10 +16527,13 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">

--- a/plate-reader-screens/plate_layouts.xlsx
+++ b/plate-reader-screens/plate_layouts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aqib/Desktop/BCCL/char-syn-gene-nets/circuit-state/plate-reader-screens/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBC9D12-9A84-E44D-BB28-9EBB6CC76415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF6CCED-7C0D-D94A-B02E-1194C6A62DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="41620" windowHeight="25080" firstSheet="4" activeTab="9" xr2:uid="{86E41D9F-BC50-BD4C-BFC8-A140258F459E}"/>
+    <workbookView xWindow="4000" yWindow="500" windowWidth="45080" windowHeight="26220" firstSheet="2" activeTab="12" xr2:uid="{86E41D9F-BC50-BD4C-BFC8-A140258F459E}"/>
   </bookViews>
   <sheets>
     <sheet name="adp1_antibiotic_10.12" sheetId="4" r:id="rId1"/>
@@ -23,6 +23,9 @@
     <sheet name="mgDeltaLacI_mepMover_12.13.22" sheetId="13" r:id="rId8"/>
     <sheet name="mgDeltaLacI_mepMover_12.15.22" sheetId="14" r:id="rId9"/>
     <sheet name="mgDeltaLacI_mepMover_12.22.22" sheetId="15" r:id="rId10"/>
+    <sheet name="mgz1_mepMover_amp_2.4.23" sheetId="16" r:id="rId11"/>
+    <sheet name="mgz1_DT_amp_2.7.23" sheetId="17" r:id="rId12"/>
+    <sheet name="mgz1_3antibiotics_2.9.23" sheetId="18" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3521" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4559" uniqueCount="135">
   <si>
     <t>well</t>
   </si>
@@ -315,100 +318,19 @@
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
     <t>F3</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>H4</t>
-  </si>
-  <si>
-    <t>H5</t>
-  </si>
-  <si>
-    <t>H6</t>
-  </si>
-  <si>
-    <t>H7</t>
-  </si>
-  <si>
-    <t>H8</t>
-  </si>
-  <si>
-    <t>H9</t>
-  </si>
-  <si>
-    <t>MG1655_DeltaLacI_C1</t>
-  </si>
-  <si>
-    <t>MG1655_DeltaLacI_C2</t>
-  </si>
-  <si>
-    <t>MG1655_DeltaLacI_C3</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
     <t>B2</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>F1</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>G1</t>
-  </si>
-  <si>
     <t>G2</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>H2</t>
   </si>
   <si>
     <t>E11</t>
@@ -433,6 +355,102 @@
   </si>
   <si>
     <t>n/a</t>
+  </si>
+  <si>
+    <t>MGZ1_DT</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>MG1655_DeltaLacI_C1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>MG1655_DeltaLacI_C2</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>MG1655_DeltaLacI_C3</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>H9</t>
+  </si>
+  <si>
+    <t>11 ug/mL amp</t>
+  </si>
+  <si>
+    <t>5 uL of 0.5 mg/mL biapenem and cefazolin</t>
+  </si>
+  <si>
+    <t>3 cols were wild type and 3 cols were with pMepMoverexpress and IPTG decreased going down the rows</t>
+  </si>
+  <si>
+    <t>Linus has the layout</t>
   </si>
 </sst>
 </file>
@@ -1836,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECD7123-BC65-B74D-9D41-4185F460C1BE}">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1891,10 +1909,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
         <v>50</v>
@@ -1906,7 +1924,7 @@
         <v>350</v>
       </c>
       <c r="F2" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G2" t="s">
         <v>41</v>
@@ -1918,7 +1936,7 @@
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K2" t="s">
         <v>38</v>
@@ -1938,7 +1956,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
         <v>50</v>
@@ -1951,7 +1969,7 @@
         <v>175</v>
       </c>
       <c r="F3" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G3" t="s">
         <v>41</v>
@@ -1963,7 +1981,7 @@
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K3" t="s">
         <v>38</v>
@@ -1983,7 +2001,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
         <v>50</v>
@@ -1996,7 +2014,7 @@
         <v>87.5</v>
       </c>
       <c r="F4" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G4" t="s">
         <v>41</v>
@@ -2008,7 +2026,7 @@
         <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K4" t="s">
         <v>38</v>
@@ -2028,7 +2046,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
         <v>50</v>
@@ -2041,7 +2059,7 @@
         <v>43.75</v>
       </c>
       <c r="F5" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G5" t="s">
         <v>41</v>
@@ -2053,7 +2071,7 @@
         <v>10</v>
       </c>
       <c r="J5" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K5" t="s">
         <v>38</v>
@@ -2073,7 +2091,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
         <v>50</v>
@@ -2086,7 +2104,7 @@
         <v>21.875</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G6" t="s">
         <v>41</v>
@@ -2098,7 +2116,7 @@
         <v>10</v>
       </c>
       <c r="J6" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K6" t="s">
         <v>38</v>
@@ -2118,7 +2136,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
         <v>50</v>
@@ -2131,7 +2149,7 @@
         <v>10.9375</v>
       </c>
       <c r="F7" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G7" t="s">
         <v>41</v>
@@ -2143,7 +2161,7 @@
         <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K7" t="s">
         <v>38</v>
@@ -2163,7 +2181,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
         <v>50</v>
@@ -2176,7 +2194,7 @@
         <v>5.46875</v>
       </c>
       <c r="F8" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
         <v>41</v>
@@ -2188,7 +2206,7 @@
         <v>10</v>
       </c>
       <c r="J8" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K8" t="s">
         <v>38</v>
@@ -2208,7 +2226,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
         <v>50</v>
@@ -2221,7 +2239,7 @@
         <v>2.734375</v>
       </c>
       <c r="F9" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
         <v>41</v>
@@ -2233,7 +2251,7 @@
         <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K9" t="s">
         <v>38</v>
@@ -2253,7 +2271,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
         <v>50</v>
@@ -2266,7 +2284,7 @@
         <v>1.3671875</v>
       </c>
       <c r="F10" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G10" t="s">
         <v>41</v>
@@ -2278,7 +2296,7 @@
         <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s">
         <v>38</v>
@@ -2298,7 +2316,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
         <v>50</v>
@@ -2310,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G11" t="s">
         <v>41</v>
@@ -2322,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K11" t="s">
         <v>38</v>
@@ -2342,7 +2360,7 @@
         <v>81</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
         <v>50</v>
@@ -2354,7 +2372,7 @@
         <v>350</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G12" t="s">
         <v>41</v>
@@ -2367,7 +2385,7 @@
         <v>5</v>
       </c>
       <c r="J12" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K12" t="s">
         <v>38</v>
@@ -2387,7 +2405,7 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
         <v>50</v>
@@ -2400,7 +2418,7 @@
         <v>175</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G13" t="s">
         <v>41</v>
@@ -2409,11 +2427,11 @@
         <v>42</v>
       </c>
       <c r="I13">
-        <f t="shared" ref="I13:I21" si="1">I3/2</f>
+        <f t="shared" ref="I13:I20" si="1">I3/2</f>
         <v>5</v>
       </c>
       <c r="J13" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K13" t="s">
         <v>38</v>
@@ -2433,7 +2451,7 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
         <v>50</v>
@@ -2446,7 +2464,7 @@
         <v>87.5</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G14" t="s">
         <v>41</v>
@@ -2459,7 +2477,7 @@
         <v>5</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K14" t="s">
         <v>38</v>
@@ -2479,7 +2497,7 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
         <v>50</v>
@@ -2492,7 +2510,7 @@
         <v>43.75</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G15" t="s">
         <v>41</v>
@@ -2505,7 +2523,7 @@
         <v>5</v>
       </c>
       <c r="J15" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K15" t="s">
         <v>38</v>
@@ -2525,7 +2543,7 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
         <v>50</v>
@@ -2538,7 +2556,7 @@
         <v>21.875</v>
       </c>
       <c r="F16" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G16" t="s">
         <v>41</v>
@@ -2551,7 +2569,7 @@
         <v>5</v>
       </c>
       <c r="J16" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K16" t="s">
         <v>38</v>
@@ -2571,7 +2589,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
         <v>50</v>
@@ -2584,7 +2602,7 @@
         <v>10.9375</v>
       </c>
       <c r="F17" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G17" t="s">
         <v>41</v>
@@ -2597,7 +2615,7 @@
         <v>5</v>
       </c>
       <c r="J17" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K17" t="s">
         <v>38</v>
@@ -2617,7 +2635,7 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
         <v>50</v>
@@ -2630,7 +2648,7 @@
         <v>5.46875</v>
       </c>
       <c r="F18" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G18" t="s">
         <v>41</v>
@@ -2643,7 +2661,7 @@
         <v>5</v>
       </c>
       <c r="J18" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K18" t="s">
         <v>38</v>
@@ -2663,7 +2681,7 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
         <v>50</v>
@@ -2676,7 +2694,7 @@
         <v>2.734375</v>
       </c>
       <c r="F19" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G19" t="s">
         <v>41</v>
@@ -2689,7 +2707,7 @@
         <v>5</v>
       </c>
       <c r="J19" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K19" t="s">
         <v>38</v>
@@ -2709,7 +2727,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s">
         <v>50</v>
@@ -2722,7 +2740,7 @@
         <v>1.3671875</v>
       </c>
       <c r="F20" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G20" t="s">
         <v>41</v>
@@ -2735,7 +2753,7 @@
         <v>5</v>
       </c>
       <c r="J20" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K20" t="s">
         <v>38</v>
@@ -2755,7 +2773,7 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
         <v>50</v>
@@ -2767,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G21" t="s">
         <v>41</v>
@@ -2779,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K21" t="s">
         <v>38</v>
@@ -2799,7 +2817,7 @@
         <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s">
         <v>50</v>
@@ -2811,7 +2829,7 @@
         <v>350</v>
       </c>
       <c r="F22" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G22" t="s">
         <v>41</v>
@@ -2824,7 +2842,7 @@
         <v>2.5</v>
       </c>
       <c r="J22" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K22" t="s">
         <v>38</v>
@@ -2844,7 +2862,7 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C23" t="s">
         <v>50</v>
@@ -2857,7 +2875,7 @@
         <v>175</v>
       </c>
       <c r="F23" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G23" t="s">
         <v>41</v>
@@ -2870,7 +2888,7 @@
         <v>2.5</v>
       </c>
       <c r="J23" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K23" t="s">
         <v>38</v>
@@ -2890,7 +2908,7 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C24" t="s">
         <v>50</v>
@@ -2903,7 +2921,7 @@
         <v>87.5</v>
       </c>
       <c r="F24" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G24" t="s">
         <v>41</v>
@@ -2916,7 +2934,7 @@
         <v>2.5</v>
       </c>
       <c r="J24" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K24" t="s">
         <v>38</v>
@@ -2936,7 +2954,7 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
         <v>50</v>
@@ -2949,7 +2967,7 @@
         <v>43.75</v>
       </c>
       <c r="F25" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G25" t="s">
         <v>41</v>
@@ -2962,7 +2980,7 @@
         <v>2.5</v>
       </c>
       <c r="J25" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K25" t="s">
         <v>38</v>
@@ -2982,7 +3000,7 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C26" t="s">
         <v>50</v>
@@ -2995,7 +3013,7 @@
         <v>21.875</v>
       </c>
       <c r="F26" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G26" t="s">
         <v>41</v>
@@ -3008,7 +3026,7 @@
         <v>2.5</v>
       </c>
       <c r="J26" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K26" t="s">
         <v>38</v>
@@ -3028,7 +3046,7 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C27" t="s">
         <v>50</v>
@@ -3041,7 +3059,7 @@
         <v>10.9375</v>
       </c>
       <c r="F27" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G27" t="s">
         <v>41</v>
@@ -3054,7 +3072,7 @@
         <v>2.5</v>
       </c>
       <c r="J27" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K27" t="s">
         <v>38</v>
@@ -3074,7 +3092,7 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C28" t="s">
         <v>50</v>
@@ -3087,7 +3105,7 @@
         <v>5.46875</v>
       </c>
       <c r="F28" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G28" t="s">
         <v>41</v>
@@ -3100,7 +3118,7 @@
         <v>2.5</v>
       </c>
       <c r="J28" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K28" t="s">
         <v>38</v>
@@ -3120,7 +3138,7 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
         <v>50</v>
@@ -3133,7 +3151,7 @@
         <v>2.734375</v>
       </c>
       <c r="F29" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G29" t="s">
         <v>41</v>
@@ -3146,7 +3164,7 @@
         <v>2.5</v>
       </c>
       <c r="J29" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K29" t="s">
         <v>38</v>
@@ -3166,7 +3184,7 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C30" t="s">
         <v>50</v>
@@ -3179,7 +3197,7 @@
         <v>1.3671875</v>
       </c>
       <c r="F30" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G30" t="s">
         <v>41</v>
@@ -3192,7 +3210,7 @@
         <v>2.5</v>
       </c>
       <c r="J30" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K30" t="s">
         <v>38</v>
@@ -3212,7 +3230,7 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C31" t="s">
         <v>50</v>
@@ -3224,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G31" t="s">
         <v>41</v>
@@ -3237,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K31" t="s">
         <v>38</v>
@@ -3257,7 +3275,7 @@
         <v>84</v>
       </c>
       <c r="B32" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C32" t="s">
         <v>50</v>
@@ -3269,7 +3287,7 @@
         <v>350</v>
       </c>
       <c r="F32" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G32" t="s">
         <v>41</v>
@@ -3282,7 +3300,7 @@
         <v>1.25</v>
       </c>
       <c r="J32" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K32" t="s">
         <v>38</v>
@@ -3302,7 +3320,7 @@
         <v>85</v>
       </c>
       <c r="B33" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C33" t="s">
         <v>50</v>
@@ -3315,7 +3333,7 @@
         <v>175</v>
       </c>
       <c r="F33" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G33" t="s">
         <v>41</v>
@@ -3328,7 +3346,7 @@
         <v>1.25</v>
       </c>
       <c r="J33" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K33" t="s">
         <v>38</v>
@@ -3348,7 +3366,7 @@
         <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C34" t="s">
         <v>50</v>
@@ -3361,7 +3379,7 @@
         <v>87.5</v>
       </c>
       <c r="F34" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G34" t="s">
         <v>41</v>
@@ -3374,7 +3392,7 @@
         <v>1.25</v>
       </c>
       <c r="J34" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K34" t="s">
         <v>38</v>
@@ -3394,7 +3412,7 @@
         <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C35" t="s">
         <v>50</v>
@@ -3407,7 +3425,7 @@
         <v>43.75</v>
       </c>
       <c r="F35" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G35" t="s">
         <v>41</v>
@@ -3420,7 +3438,7 @@
         <v>1.25</v>
       </c>
       <c r="J35" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K35" t="s">
         <v>38</v>
@@ -3440,7 +3458,7 @@
         <v>60</v>
       </c>
       <c r="B36" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C36" t="s">
         <v>50</v>
@@ -3453,7 +3471,7 @@
         <v>21.875</v>
       </c>
       <c r="F36" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G36" t="s">
         <v>41</v>
@@ -3466,7 +3484,7 @@
         <v>1.25</v>
       </c>
       <c r="J36" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K36" t="s">
         <v>38</v>
@@ -3486,7 +3504,7 @@
         <v>61</v>
       </c>
       <c r="B37" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C37" t="s">
         <v>50</v>
@@ -3499,7 +3517,7 @@
         <v>10.9375</v>
       </c>
       <c r="F37" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G37" t="s">
         <v>41</v>
@@ -3512,7 +3530,7 @@
         <v>1.25</v>
       </c>
       <c r="J37" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K37" t="s">
         <v>38</v>
@@ -3532,7 +3550,7 @@
         <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C38" t="s">
         <v>50</v>
@@ -3545,7 +3563,7 @@
         <v>5.46875</v>
       </c>
       <c r="F38" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G38" t="s">
         <v>41</v>
@@ -3558,7 +3576,7 @@
         <v>1.25</v>
       </c>
       <c r="J38" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K38" t="s">
         <v>38</v>
@@ -3578,7 +3596,7 @@
         <v>63</v>
       </c>
       <c r="B39" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C39" t="s">
         <v>50</v>
@@ -3591,7 +3609,7 @@
         <v>2.734375</v>
       </c>
       <c r="F39" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G39" t="s">
         <v>41</v>
@@ -3604,7 +3622,7 @@
         <v>1.25</v>
       </c>
       <c r="J39" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K39" t="s">
         <v>38</v>
@@ -3624,7 +3642,7 @@
         <v>86</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C40" t="s">
         <v>50</v>
@@ -3637,7 +3655,7 @@
         <v>1.3671875</v>
       </c>
       <c r="F40" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G40" t="s">
         <v>41</v>
@@ -3650,7 +3668,7 @@
         <v>1.25</v>
       </c>
       <c r="J40" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K40" t="s">
         <v>38</v>
@@ -3667,10 +3685,10 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C41" t="s">
         <v>50</v>
@@ -3682,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G41" t="s">
         <v>41</v>
@@ -3695,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K41" t="s">
         <v>38</v>
@@ -3712,10 +3730,10 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="B42" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C42" t="s">
         <v>50</v>
@@ -3727,7 +3745,7 @@
         <v>350</v>
       </c>
       <c r="F42" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G42" t="s">
         <v>41</v>
@@ -3740,7 +3758,7 @@
         <v>0.625</v>
       </c>
       <c r="J42" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K42" t="s">
         <v>38</v>
@@ -3757,10 +3775,10 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B43" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -3773,7 +3791,7 @@
         <v>175</v>
       </c>
       <c r="F43" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G43" t="s">
         <v>41</v>
@@ -3786,7 +3804,7 @@
         <v>0.625</v>
       </c>
       <c r="J43" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K43" t="s">
         <v>38</v>
@@ -3806,7 +3824,7 @@
         <v>64</v>
       </c>
       <c r="B44" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C44" t="s">
         <v>50</v>
@@ -3819,7 +3837,7 @@
         <v>87.5</v>
       </c>
       <c r="F44" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G44" t="s">
         <v>41</v>
@@ -3832,7 +3850,7 @@
         <v>0.625</v>
       </c>
       <c r="J44" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K44" t="s">
         <v>38</v>
@@ -3852,7 +3870,7 @@
         <v>65</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C45" t="s">
         <v>50</v>
@@ -3865,7 +3883,7 @@
         <v>43.75</v>
       </c>
       <c r="F45" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G45" t="s">
         <v>41</v>
@@ -3878,7 +3896,7 @@
         <v>0.625</v>
       </c>
       <c r="J45" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K45" t="s">
         <v>38</v>
@@ -3898,7 +3916,7 @@
         <v>66</v>
       </c>
       <c r="B46" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C46" t="s">
         <v>50</v>
@@ -3911,7 +3929,7 @@
         <v>21.875</v>
       </c>
       <c r="F46" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G46" t="s">
         <v>41</v>
@@ -3924,7 +3942,7 @@
         <v>0.625</v>
       </c>
       <c r="J46" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K46" t="s">
         <v>38</v>
@@ -3944,7 +3962,7 @@
         <v>67</v>
       </c>
       <c r="B47" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C47" t="s">
         <v>50</v>
@@ -3957,7 +3975,7 @@
         <v>10.9375</v>
       </c>
       <c r="F47" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G47" t="s">
         <v>41</v>
@@ -3970,7 +3988,7 @@
         <v>0.625</v>
       </c>
       <c r="J47" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K47" t="s">
         <v>38</v>
@@ -3990,7 +4008,7 @@
         <v>68</v>
       </c>
       <c r="B48" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C48" t="s">
         <v>50</v>
@@ -4003,7 +4021,7 @@
         <v>5.46875</v>
       </c>
       <c r="F48" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G48" t="s">
         <v>41</v>
@@ -4016,7 +4034,7 @@
         <v>0.625</v>
       </c>
       <c r="J48" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K48" t="s">
         <v>38</v>
@@ -4036,7 +4054,7 @@
         <v>69</v>
       </c>
       <c r="B49" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C49" t="s">
         <v>50</v>
@@ -4049,7 +4067,7 @@
         <v>2.734375</v>
       </c>
       <c r="F49" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G49" t="s">
         <v>41</v>
@@ -4062,7 +4080,7 @@
         <v>0.625</v>
       </c>
       <c r="J49" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K49" t="s">
         <v>38</v>
@@ -4079,10 +4097,10 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="B50" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C50" t="s">
         <v>50</v>
@@ -4095,7 +4113,7 @@
         <v>1.3671875</v>
       </c>
       <c r="F50" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G50" t="s">
         <v>41</v>
@@ -4108,7 +4126,7 @@
         <v>0.625</v>
       </c>
       <c r="J50" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K50" t="s">
         <v>38</v>
@@ -4125,10 +4143,10 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="B51" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C51" t="s">
         <v>50</v>
@@ -4140,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G51" t="s">
         <v>41</v>
@@ -4153,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K51" t="s">
         <v>38</v>
@@ -4170,10 +4188,10 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="B52" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C52" t="s">
         <v>50</v>
@@ -4185,7 +4203,7 @@
         <v>350</v>
       </c>
       <c r="F52" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G52" t="s">
         <v>41</v>
@@ -4197,7 +4215,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K52" t="s">
         <v>38</v>
@@ -4214,10 +4232,10 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B53" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C53" t="s">
         <v>50</v>
@@ -4230,7 +4248,7 @@
         <v>175</v>
       </c>
       <c r="F53" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G53" t="s">
         <v>41</v>
@@ -4242,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K53" t="s">
         <v>38</v>
@@ -4262,7 +4280,7 @@
         <v>70</v>
       </c>
       <c r="B54" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C54" t="s">
         <v>50</v>
@@ -4275,7 +4293,7 @@
         <v>87.5</v>
       </c>
       <c r="F54" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G54" t="s">
         <v>41</v>
@@ -4287,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K54" t="s">
         <v>38</v>
@@ -4307,7 +4325,7 @@
         <v>71</v>
       </c>
       <c r="B55" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C55" t="s">
         <v>50</v>
@@ -4320,7 +4338,7 @@
         <v>43.75</v>
       </c>
       <c r="F55" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G55" t="s">
         <v>41</v>
@@ -4332,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K55" t="s">
         <v>38</v>
@@ -4352,7 +4370,7 @@
         <v>72</v>
       </c>
       <c r="B56" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C56" t="s">
         <v>50</v>
@@ -4365,7 +4383,7 @@
         <v>21.875</v>
       </c>
       <c r="F56" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G56" t="s">
         <v>41</v>
@@ -4377,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K56" t="s">
         <v>38</v>
@@ -4397,7 +4415,7 @@
         <v>73</v>
       </c>
       <c r="B57" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C57" t="s">
         <v>50</v>
@@ -4410,7 +4428,7 @@
         <v>10.9375</v>
       </c>
       <c r="F57" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G57" t="s">
         <v>41</v>
@@ -4422,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K57" t="s">
         <v>38</v>
@@ -4442,7 +4460,7 @@
         <v>74</v>
       </c>
       <c r="B58" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C58" t="s">
         <v>50</v>
@@ -4455,7 +4473,7 @@
         <v>5.46875</v>
       </c>
       <c r="F58" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G58" t="s">
         <v>41</v>
@@ -4467,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K58" t="s">
         <v>38</v>
@@ -4487,7 +4505,7 @@
         <v>75</v>
       </c>
       <c r="B59" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C59" t="s">
         <v>50</v>
@@ -4500,7 +4518,7 @@
         <v>2.734375</v>
       </c>
       <c r="F59" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G59" t="s">
         <v>41</v>
@@ -4512,7 +4530,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K59" t="s">
         <v>38</v>
@@ -4529,10 +4547,10 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="B60" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C60" t="s">
         <v>50</v>
@@ -4545,7 +4563,7 @@
         <v>1.3671875</v>
       </c>
       <c r="F60" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G60" t="s">
         <v>41</v>
@@ -4557,7 +4575,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K60" t="s">
         <v>38</v>
@@ -4574,10 +4592,10 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="B61" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C61" t="s">
         <v>50</v>
@@ -4589,7 +4607,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G61" t="s">
         <v>41</v>
@@ -4601,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K61" t="s">
         <v>38</v>
@@ -4614,6 +4632,4501 @@
       </c>
       <c r="N61">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="2"/>
+        <color rgb="FFEA5F47"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="2"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="2"/>
+        <color rgb="FFFFC000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="2"/>
+        <color theme="5"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC7F0AF-FF85-4F4C-904A-03553675F605}">
+  <dimension ref="A1:O53"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2">
+        <v>250</v>
+      </c>
+      <c r="M2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3">
+        <v>250</v>
+      </c>
+      <c r="M3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4">
+        <v>2.5</v>
+      </c>
+      <c r="J4">
+        <v>1.25</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4">
+        <v>250</v>
+      </c>
+      <c r="M4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5">
+        <v>2.5</v>
+      </c>
+      <c r="J5">
+        <v>1.25</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5">
+        <v>250</v>
+      </c>
+      <c r="M5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6">
+        <v>2.5</v>
+      </c>
+      <c r="J6">
+        <v>1.25</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6">
+        <v>250</v>
+      </c>
+      <c r="M6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>2.5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7">
+        <v>250</v>
+      </c>
+      <c r="M7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>2.5</v>
+      </c>
+      <c r="K8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8">
+        <v>250</v>
+      </c>
+      <c r="M8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>2.5</v>
+      </c>
+      <c r="K9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9">
+        <v>250</v>
+      </c>
+      <c r="M9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10">
+        <v>250</v>
+      </c>
+      <c r="M10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>2.5</v>
+      </c>
+      <c r="K11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11">
+        <v>250</v>
+      </c>
+      <c r="M11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12">
+        <v>250</v>
+      </c>
+      <c r="M12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13">
+        <v>250</v>
+      </c>
+      <c r="M13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14">
+        <v>2.5</v>
+      </c>
+      <c r="J14">
+        <v>1.25</v>
+      </c>
+      <c r="K14" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14">
+        <v>250</v>
+      </c>
+      <c r="M14" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15">
+        <v>2.5</v>
+      </c>
+      <c r="J15">
+        <v>1.25</v>
+      </c>
+      <c r="K15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15">
+        <v>250</v>
+      </c>
+      <c r="M15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16">
+        <v>2.5</v>
+      </c>
+      <c r="J16">
+        <v>1.25</v>
+      </c>
+      <c r="K16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16">
+        <v>250</v>
+      </c>
+      <c r="M16" t="s">
+        <v>40</v>
+      </c>
+      <c r="N16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>2.5</v>
+      </c>
+      <c r="K17" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17">
+        <v>250</v>
+      </c>
+      <c r="M17" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>2.5</v>
+      </c>
+      <c r="K18" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18">
+        <v>250</v>
+      </c>
+      <c r="M18" t="s">
+        <v>40</v>
+      </c>
+      <c r="N18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>2.5</v>
+      </c>
+      <c r="K19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19">
+        <v>250</v>
+      </c>
+      <c r="M19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20">
+        <v>250</v>
+      </c>
+      <c r="M20" t="s">
+        <v>40</v>
+      </c>
+      <c r="N20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21">
+        <v>2.5</v>
+      </c>
+      <c r="K21" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21">
+        <v>250</v>
+      </c>
+      <c r="M21" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22">
+        <v>6.25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" t="s">
+        <v>38</v>
+      </c>
+      <c r="L22">
+        <v>250</v>
+      </c>
+      <c r="M22" t="s">
+        <v>40</v>
+      </c>
+      <c r="N22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23">
+        <v>6.25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23">
+        <v>250</v>
+      </c>
+      <c r="M23" t="s">
+        <v>40</v>
+      </c>
+      <c r="N23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24">
+        <v>6.25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24">
+        <v>2.5</v>
+      </c>
+      <c r="J24">
+        <v>1.25</v>
+      </c>
+      <c r="K24" t="s">
+        <v>38</v>
+      </c>
+      <c r="L24">
+        <v>250</v>
+      </c>
+      <c r="M24" t="s">
+        <v>40</v>
+      </c>
+      <c r="N24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25">
+        <v>6.25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25">
+        <v>2.5</v>
+      </c>
+      <c r="J25">
+        <v>1.25</v>
+      </c>
+      <c r="K25" t="s">
+        <v>38</v>
+      </c>
+      <c r="L25">
+        <v>250</v>
+      </c>
+      <c r="M25" t="s">
+        <v>40</v>
+      </c>
+      <c r="N25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26">
+        <v>6.25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26">
+        <v>2.5</v>
+      </c>
+      <c r="J26">
+        <v>1.25</v>
+      </c>
+      <c r="K26" t="s">
+        <v>38</v>
+      </c>
+      <c r="L26">
+        <v>250</v>
+      </c>
+      <c r="M26" t="s">
+        <v>40</v>
+      </c>
+      <c r="N26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27">
+        <v>6.25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27">
+        <v>5</v>
+      </c>
+      <c r="J27">
+        <v>2.5</v>
+      </c>
+      <c r="K27" t="s">
+        <v>38</v>
+      </c>
+      <c r="L27">
+        <v>250</v>
+      </c>
+      <c r="M27" t="s">
+        <v>40</v>
+      </c>
+      <c r="N27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28">
+        <v>6.25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
+      <c r="J28">
+        <v>2.5</v>
+      </c>
+      <c r="K28" t="s">
+        <v>38</v>
+      </c>
+      <c r="L28">
+        <v>250</v>
+      </c>
+      <c r="M28" t="s">
+        <v>40</v>
+      </c>
+      <c r="N28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29">
+        <v>6.25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>102</v>
+      </c>
+      <c r="G29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29">
+        <v>5</v>
+      </c>
+      <c r="J29">
+        <v>2.5</v>
+      </c>
+      <c r="K29" t="s">
+        <v>38</v>
+      </c>
+      <c r="L29">
+        <v>250</v>
+      </c>
+      <c r="M29" t="s">
+        <v>40</v>
+      </c>
+      <c r="N29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30">
+        <v>2.5</v>
+      </c>
+      <c r="J30">
+        <v>1.25</v>
+      </c>
+      <c r="K30" t="s">
+        <v>38</v>
+      </c>
+      <c r="L30">
+        <v>250</v>
+      </c>
+      <c r="M30" t="s">
+        <v>40</v>
+      </c>
+      <c r="N30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31">
+        <v>100</v>
+      </c>
+      <c r="F31" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+      <c r="J31">
+        <v>2.5</v>
+      </c>
+      <c r="K31" t="s">
+        <v>38</v>
+      </c>
+      <c r="L31">
+        <v>250</v>
+      </c>
+      <c r="M31" t="s">
+        <v>40</v>
+      </c>
+      <c r="N31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32">
+        <v>1.5625</v>
+      </c>
+      <c r="F32" t="s">
+        <v>102</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>46</v>
+      </c>
+      <c r="J32" t="s">
+        <v>46</v>
+      </c>
+      <c r="K32" t="s">
+        <v>38</v>
+      </c>
+      <c r="L32">
+        <v>250</v>
+      </c>
+      <c r="M32" t="s">
+        <v>40</v>
+      </c>
+      <c r="N32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33">
+        <v>1.5625</v>
+      </c>
+      <c r="F33" t="s">
+        <v>102</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>46</v>
+      </c>
+      <c r="J33" t="s">
+        <v>46</v>
+      </c>
+      <c r="K33" t="s">
+        <v>38</v>
+      </c>
+      <c r="L33">
+        <v>250</v>
+      </c>
+      <c r="M33" t="s">
+        <v>40</v>
+      </c>
+      <c r="N33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34">
+        <v>1.5625</v>
+      </c>
+      <c r="F34" t="s">
+        <v>102</v>
+      </c>
+      <c r="G34" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" t="s">
+        <v>42</v>
+      </c>
+      <c r="I34">
+        <v>2.5</v>
+      </c>
+      <c r="J34">
+        <v>1.25</v>
+      </c>
+      <c r="K34" t="s">
+        <v>38</v>
+      </c>
+      <c r="L34">
+        <v>250</v>
+      </c>
+      <c r="M34" t="s">
+        <v>40</v>
+      </c>
+      <c r="N34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35">
+        <v>1.5625</v>
+      </c>
+      <c r="F35" t="s">
+        <v>102</v>
+      </c>
+      <c r="G35" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" t="s">
+        <v>42</v>
+      </c>
+      <c r="I35">
+        <v>2.5</v>
+      </c>
+      <c r="J35">
+        <v>1.25</v>
+      </c>
+      <c r="K35" t="s">
+        <v>38</v>
+      </c>
+      <c r="L35">
+        <v>250</v>
+      </c>
+      <c r="M35" t="s">
+        <v>40</v>
+      </c>
+      <c r="N35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36">
+        <v>1.5625</v>
+      </c>
+      <c r="F36" t="s">
+        <v>102</v>
+      </c>
+      <c r="G36" t="s">
+        <v>41</v>
+      </c>
+      <c r="H36" t="s">
+        <v>42</v>
+      </c>
+      <c r="I36">
+        <v>2.5</v>
+      </c>
+      <c r="J36">
+        <v>1.25</v>
+      </c>
+      <c r="K36" t="s">
+        <v>38</v>
+      </c>
+      <c r="L36">
+        <v>250</v>
+      </c>
+      <c r="M36" t="s">
+        <v>40</v>
+      </c>
+      <c r="N36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37">
+        <v>1.5625</v>
+      </c>
+      <c r="F37" t="s">
+        <v>102</v>
+      </c>
+      <c r="G37" t="s">
+        <v>41</v>
+      </c>
+      <c r="H37" t="s">
+        <v>42</v>
+      </c>
+      <c r="I37">
+        <v>5</v>
+      </c>
+      <c r="J37">
+        <v>2.5</v>
+      </c>
+      <c r="K37" t="s">
+        <v>38</v>
+      </c>
+      <c r="L37">
+        <v>250</v>
+      </c>
+      <c r="M37" t="s">
+        <v>40</v>
+      </c>
+      <c r="N37" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38">
+        <v>1.5625</v>
+      </c>
+      <c r="F38" t="s">
+        <v>102</v>
+      </c>
+      <c r="G38" t="s">
+        <v>41</v>
+      </c>
+      <c r="H38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I38">
+        <v>5</v>
+      </c>
+      <c r="J38">
+        <v>2.5</v>
+      </c>
+      <c r="K38" t="s">
+        <v>38</v>
+      </c>
+      <c r="L38">
+        <v>250</v>
+      </c>
+      <c r="M38" t="s">
+        <v>40</v>
+      </c>
+      <c r="N38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39">
+        <v>1.5625</v>
+      </c>
+      <c r="F39" t="s">
+        <v>102</v>
+      </c>
+      <c r="G39" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" t="s">
+        <v>42</v>
+      </c>
+      <c r="I39">
+        <v>5</v>
+      </c>
+      <c r="J39">
+        <v>2.5</v>
+      </c>
+      <c r="K39" t="s">
+        <v>38</v>
+      </c>
+      <c r="L39">
+        <v>250</v>
+      </c>
+      <c r="M39" t="s">
+        <v>40</v>
+      </c>
+      <c r="N39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" t="s">
+        <v>46</v>
+      </c>
+      <c r="G40" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40" t="s">
+        <v>42</v>
+      </c>
+      <c r="I40">
+        <v>2.5</v>
+      </c>
+      <c r="J40">
+        <v>1.25</v>
+      </c>
+      <c r="K40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L40">
+        <v>250</v>
+      </c>
+      <c r="M40" t="s">
+        <v>40</v>
+      </c>
+      <c r="N40" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I41" s="3">
+        <v>5</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="K41" t="s">
+        <v>38</v>
+      </c>
+      <c r="L41">
+        <v>250</v>
+      </c>
+      <c r="M41" t="s">
+        <v>40</v>
+      </c>
+      <c r="N41" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>102</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>46</v>
+      </c>
+      <c r="J42" t="s">
+        <v>46</v>
+      </c>
+      <c r="K42" t="s">
+        <v>38</v>
+      </c>
+      <c r="L42">
+        <v>250</v>
+      </c>
+      <c r="M42" t="s">
+        <v>40</v>
+      </c>
+      <c r="N42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>102</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>46</v>
+      </c>
+      <c r="J43" t="s">
+        <v>46</v>
+      </c>
+      <c r="K43" t="s">
+        <v>38</v>
+      </c>
+      <c r="L43">
+        <v>250</v>
+      </c>
+      <c r="M43" t="s">
+        <v>40</v>
+      </c>
+      <c r="N43" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>102</v>
+      </c>
+      <c r="G44" t="s">
+        <v>41</v>
+      </c>
+      <c r="H44" t="s">
+        <v>42</v>
+      </c>
+      <c r="I44">
+        <v>2.5</v>
+      </c>
+      <c r="J44">
+        <v>1.25</v>
+      </c>
+      <c r="K44" t="s">
+        <v>38</v>
+      </c>
+      <c r="L44">
+        <v>250</v>
+      </c>
+      <c r="M44" t="s">
+        <v>40</v>
+      </c>
+      <c r="N44" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>102</v>
+      </c>
+      <c r="G45" t="s">
+        <v>41</v>
+      </c>
+      <c r="H45" t="s">
+        <v>42</v>
+      </c>
+      <c r="I45">
+        <v>2.5</v>
+      </c>
+      <c r="J45">
+        <v>1.25</v>
+      </c>
+      <c r="K45" t="s">
+        <v>38</v>
+      </c>
+      <c r="L45">
+        <v>250</v>
+      </c>
+      <c r="M45" t="s">
+        <v>40</v>
+      </c>
+      <c r="N45" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>102</v>
+      </c>
+      <c r="G46" t="s">
+        <v>41</v>
+      </c>
+      <c r="H46" t="s">
+        <v>42</v>
+      </c>
+      <c r="I46">
+        <v>2.5</v>
+      </c>
+      <c r="J46">
+        <v>1.25</v>
+      </c>
+      <c r="K46" t="s">
+        <v>38</v>
+      </c>
+      <c r="L46">
+        <v>250</v>
+      </c>
+      <c r="M46" t="s">
+        <v>40</v>
+      </c>
+      <c r="N46" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G47" t="s">
+        <v>41</v>
+      </c>
+      <c r="H47" t="s">
+        <v>42</v>
+      </c>
+      <c r="I47">
+        <v>5</v>
+      </c>
+      <c r="J47">
+        <v>2.5</v>
+      </c>
+      <c r="K47" t="s">
+        <v>38</v>
+      </c>
+      <c r="L47">
+        <v>250</v>
+      </c>
+      <c r="M47" t="s">
+        <v>40</v>
+      </c>
+      <c r="N47" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>102</v>
+      </c>
+      <c r="G48" t="s">
+        <v>41</v>
+      </c>
+      <c r="H48" t="s">
+        <v>42</v>
+      </c>
+      <c r="I48">
+        <v>5</v>
+      </c>
+      <c r="J48">
+        <v>2.5</v>
+      </c>
+      <c r="K48" t="s">
+        <v>38</v>
+      </c>
+      <c r="L48">
+        <v>250</v>
+      </c>
+      <c r="M48" t="s">
+        <v>40</v>
+      </c>
+      <c r="N48" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>102</v>
+      </c>
+      <c r="G49" t="s">
+        <v>41</v>
+      </c>
+      <c r="H49" t="s">
+        <v>42</v>
+      </c>
+      <c r="I49">
+        <v>5</v>
+      </c>
+      <c r="J49">
+        <v>2.5</v>
+      </c>
+      <c r="K49" t="s">
+        <v>38</v>
+      </c>
+      <c r="L49">
+        <v>250</v>
+      </c>
+      <c r="M49" t="s">
+        <v>40</v>
+      </c>
+      <c r="N49" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" t="s">
+        <v>46</v>
+      </c>
+      <c r="F50" t="s">
+        <v>46</v>
+      </c>
+      <c r="G50" t="s">
+        <v>41</v>
+      </c>
+      <c r="H50" t="s">
+        <v>42</v>
+      </c>
+      <c r="I50">
+        <v>2.5</v>
+      </c>
+      <c r="J50">
+        <v>1.25</v>
+      </c>
+      <c r="K50" t="s">
+        <v>38</v>
+      </c>
+      <c r="L50">
+        <v>250</v>
+      </c>
+      <c r="M50" t="s">
+        <v>40</v>
+      </c>
+      <c r="N50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51" s="3">
+        <v>100</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I51" s="3">
+        <v>5</v>
+      </c>
+      <c r="J51" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="K51" t="s">
+        <v>38</v>
+      </c>
+      <c r="L51">
+        <v>250</v>
+      </c>
+      <c r="M51" t="s">
+        <v>40</v>
+      </c>
+      <c r="N51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" t="s">
+        <v>46</v>
+      </c>
+      <c r="F52" t="s">
+        <v>46</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>46</v>
+      </c>
+      <c r="J52" t="s">
+        <v>46</v>
+      </c>
+      <c r="K52" t="s">
+        <v>38</v>
+      </c>
+      <c r="L52">
+        <v>250</v>
+      </c>
+      <c r="M52" t="s">
+        <v>40</v>
+      </c>
+      <c r="N52" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>99</v>
+      </c>
+      <c r="B53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" t="s">
+        <v>44</v>
+      </c>
+      <c r="E53">
+        <v>100</v>
+      </c>
+      <c r="F53" t="s">
+        <v>102</v>
+      </c>
+      <c r="G53" t="s">
+        <v>41</v>
+      </c>
+      <c r="H53" t="s">
+        <v>42</v>
+      </c>
+      <c r="I53">
+        <v>5</v>
+      </c>
+      <c r="J53">
+        <v>2.5</v>
+      </c>
+      <c r="K53" t="s">
+        <v>38</v>
+      </c>
+      <c r="L53">
+        <v>250</v>
+      </c>
+      <c r="M53" t="s">
+        <v>40</v>
+      </c>
+      <c r="N53" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D28DDB2-C3CD-B846-BE5F-AD48B0CE8247}">
+  <dimension ref="A1:O46"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2">
+        <v>220.70588455999999</v>
+      </c>
+      <c r="F2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2">
+        <v>250</v>
+      </c>
+      <c r="M2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3">
+        <v>220.70588455999999</v>
+      </c>
+      <c r="F3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3">
+        <v>250</v>
+      </c>
+      <c r="M3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4">
+        <v>220.70588455999999</v>
+      </c>
+      <c r="F4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4">
+        <v>250</v>
+      </c>
+      <c r="M4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5">
+        <v>220.70588455999999</v>
+      </c>
+      <c r="F5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5">
+        <v>250</v>
+      </c>
+      <c r="M5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6">
+        <v>220.70588455999999</v>
+      </c>
+      <c r="F6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6">
+        <v>250</v>
+      </c>
+      <c r="M6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7">
+        <v>220.70588455999999</v>
+      </c>
+      <c r="F7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7">
+        <v>8</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7">
+        <v>250</v>
+      </c>
+      <c r="M7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8">
+        <v>220.70588455999999</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8">
+        <v>15</v>
+      </c>
+      <c r="J8">
+        <v>7.5</v>
+      </c>
+      <c r="K8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8">
+        <v>250</v>
+      </c>
+      <c r="M8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9">
+        <v>220.70588455999999</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9">
+        <v>15</v>
+      </c>
+      <c r="J9">
+        <v>7.5</v>
+      </c>
+      <c r="K9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9">
+        <v>250</v>
+      </c>
+      <c r="M9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10">
+        <v>220.70588455999999</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10">
+        <v>15</v>
+      </c>
+      <c r="J10">
+        <v>7.5</v>
+      </c>
+      <c r="K10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10">
+        <v>250</v>
+      </c>
+      <c r="M10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11">
+        <v>58.823529999999998</v>
+      </c>
+      <c r="F11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11">
+        <v>250</v>
+      </c>
+      <c r="M11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12">
+        <v>58.823529999999998</v>
+      </c>
+      <c r="F12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12">
+        <v>250</v>
+      </c>
+      <c r="M12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13">
+        <v>58.823529999999998</v>
+      </c>
+      <c r="F13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13">
+        <v>250</v>
+      </c>
+      <c r="M13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14">
+        <v>58.823529999999998</v>
+      </c>
+      <c r="F14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14">
+        <v>250</v>
+      </c>
+      <c r="M14" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15">
+        <v>58.823529999999998</v>
+      </c>
+      <c r="F15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15">
+        <v>250</v>
+      </c>
+      <c r="M15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16">
+        <v>58.823529999999998</v>
+      </c>
+      <c r="F16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16">
+        <v>250</v>
+      </c>
+      <c r="M16" t="s">
+        <v>40</v>
+      </c>
+      <c r="N16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17">
+        <v>58.823529999999998</v>
+      </c>
+      <c r="F17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17">
+        <v>15</v>
+      </c>
+      <c r="J17">
+        <v>7.5</v>
+      </c>
+      <c r="K17" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17">
+        <v>250</v>
+      </c>
+      <c r="M17" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18">
+        <v>58.823529999999998</v>
+      </c>
+      <c r="F18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18">
+        <v>15</v>
+      </c>
+      <c r="J18">
+        <v>7.5</v>
+      </c>
+      <c r="K18" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18">
+        <v>250</v>
+      </c>
+      <c r="M18" t="s">
+        <v>40</v>
+      </c>
+      <c r="N18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19">
+        <v>58.823529999999998</v>
+      </c>
+      <c r="F19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19">
+        <v>15</v>
+      </c>
+      <c r="J19">
+        <v>7.5</v>
+      </c>
+      <c r="K19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19">
+        <v>250</v>
+      </c>
+      <c r="M19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20">
+        <f>E11/5</f>
+        <v>11.764706</v>
+      </c>
+      <c r="F20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20">
+        <v>250</v>
+      </c>
+      <c r="M20" t="s">
+        <v>40</v>
+      </c>
+      <c r="N20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ref="E21:E28" si="0">E12/5</f>
+        <v>11.764706</v>
+      </c>
+      <c r="F21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21">
+        <v>250</v>
+      </c>
+      <c r="M21" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>11.764706</v>
+      </c>
+      <c r="F22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>38</v>
+      </c>
+      <c r="L22">
+        <v>250</v>
+      </c>
+      <c r="M22" t="s">
+        <v>40</v>
+      </c>
+      <c r="N22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>11.764706</v>
+      </c>
+      <c r="F23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23">
+        <v>8</v>
+      </c>
+      <c r="J23">
+        <v>4</v>
+      </c>
+      <c r="K23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23">
+        <v>250</v>
+      </c>
+      <c r="M23" t="s">
+        <v>40</v>
+      </c>
+      <c r="N23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>11.764706</v>
+      </c>
+      <c r="F24" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24">
+        <v>8</v>
+      </c>
+      <c r="J24">
+        <v>4</v>
+      </c>
+      <c r="K24" t="s">
+        <v>38</v>
+      </c>
+      <c r="L24">
+        <v>250</v>
+      </c>
+      <c r="M24" t="s">
+        <v>40</v>
+      </c>
+      <c r="N24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>11.764706</v>
+      </c>
+      <c r="F25" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25">
+        <v>8</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
+      </c>
+      <c r="K25" t="s">
+        <v>38</v>
+      </c>
+      <c r="L25">
+        <v>250</v>
+      </c>
+      <c r="M25" t="s">
+        <v>40</v>
+      </c>
+      <c r="N25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>11.764706</v>
+      </c>
+      <c r="F26" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26">
+        <v>15</v>
+      </c>
+      <c r="J26">
+        <v>7.5</v>
+      </c>
+      <c r="K26" t="s">
+        <v>38</v>
+      </c>
+      <c r="L26">
+        <v>250</v>
+      </c>
+      <c r="M26" t="s">
+        <v>40</v>
+      </c>
+      <c r="N26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>11.764706</v>
+      </c>
+      <c r="F27" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27">
+        <v>15</v>
+      </c>
+      <c r="J27">
+        <v>7.5</v>
+      </c>
+      <c r="K27" t="s">
+        <v>38</v>
+      </c>
+      <c r="L27">
+        <v>250</v>
+      </c>
+      <c r="M27" t="s">
+        <v>40</v>
+      </c>
+      <c r="N27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>11.764706</v>
+      </c>
+      <c r="F28" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28">
+        <v>15</v>
+      </c>
+      <c r="J28">
+        <v>7.5</v>
+      </c>
+      <c r="K28" t="s">
+        <v>38</v>
+      </c>
+      <c r="L28">
+        <v>250</v>
+      </c>
+      <c r="M28" t="s">
+        <v>40</v>
+      </c>
+      <c r="N28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29">
+        <f>E20/5</f>
+        <v>2.3529412000000001</v>
+      </c>
+      <c r="F29" t="s">
+        <v>102</v>
+      </c>
+      <c r="G29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>38</v>
+      </c>
+      <c r="L29">
+        <v>250</v>
+      </c>
+      <c r="M29" t="s">
+        <v>40</v>
+      </c>
+      <c r="N29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ref="E30:E37" si="1">E21/5</f>
+        <v>2.3529412000000001</v>
+      </c>
+      <c r="F30" t="s">
+        <v>102</v>
+      </c>
+      <c r="G30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
+        <v>38</v>
+      </c>
+      <c r="L30">
+        <v>250</v>
+      </c>
+      <c r="M30" t="s">
+        <v>40</v>
+      </c>
+      <c r="N30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>2.3529412000000001</v>
+      </c>
+      <c r="F31" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>38</v>
+      </c>
+      <c r="L31">
+        <v>250</v>
+      </c>
+      <c r="M31" t="s">
+        <v>40</v>
+      </c>
+      <c r="N31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>2.3529412000000001</v>
+      </c>
+      <c r="F32" t="s">
+        <v>102</v>
+      </c>
+      <c r="G32" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32">
+        <v>8</v>
+      </c>
+      <c r="J32">
+        <v>4</v>
+      </c>
+      <c r="K32" t="s">
+        <v>38</v>
+      </c>
+      <c r="L32">
+        <v>250</v>
+      </c>
+      <c r="M32" t="s">
+        <v>40</v>
+      </c>
+      <c r="N32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>2.3529412000000001</v>
+      </c>
+      <c r="F33" t="s">
+        <v>102</v>
+      </c>
+      <c r="G33" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I33">
+        <v>8</v>
+      </c>
+      <c r="J33">
+        <v>4</v>
+      </c>
+      <c r="K33" t="s">
+        <v>38</v>
+      </c>
+      <c r="L33">
+        <v>250</v>
+      </c>
+      <c r="M33" t="s">
+        <v>40</v>
+      </c>
+      <c r="N33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>2.3529412000000001</v>
+      </c>
+      <c r="F34" t="s">
+        <v>102</v>
+      </c>
+      <c r="G34" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" t="s">
+        <v>42</v>
+      </c>
+      <c r="I34">
+        <v>8</v>
+      </c>
+      <c r="J34">
+        <v>4</v>
+      </c>
+      <c r="K34" t="s">
+        <v>38</v>
+      </c>
+      <c r="L34">
+        <v>250</v>
+      </c>
+      <c r="M34" t="s">
+        <v>40</v>
+      </c>
+      <c r="N34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>2.3529412000000001</v>
+      </c>
+      <c r="F35" t="s">
+        <v>102</v>
+      </c>
+      <c r="G35" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" t="s">
+        <v>42</v>
+      </c>
+      <c r="I35">
+        <v>15</v>
+      </c>
+      <c r="J35">
+        <v>7.5</v>
+      </c>
+      <c r="K35" t="s">
+        <v>38</v>
+      </c>
+      <c r="L35">
+        <v>250</v>
+      </c>
+      <c r="M35" t="s">
+        <v>40</v>
+      </c>
+      <c r="N35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>2.3529412000000001</v>
+      </c>
+      <c r="F36" t="s">
+        <v>102</v>
+      </c>
+      <c r="G36" t="s">
+        <v>41</v>
+      </c>
+      <c r="H36" t="s">
+        <v>42</v>
+      </c>
+      <c r="I36">
+        <v>15</v>
+      </c>
+      <c r="J36">
+        <v>7.5</v>
+      </c>
+      <c r="K36" t="s">
+        <v>38</v>
+      </c>
+      <c r="L36">
+        <v>250</v>
+      </c>
+      <c r="M36" t="s">
+        <v>40</v>
+      </c>
+      <c r="N36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>2.3529412000000001</v>
+      </c>
+      <c r="F37" t="s">
+        <v>102</v>
+      </c>
+      <c r="G37" t="s">
+        <v>41</v>
+      </c>
+      <c r="H37" t="s">
+        <v>42</v>
+      </c>
+      <c r="I37">
+        <v>15</v>
+      </c>
+      <c r="J37">
+        <v>7.5</v>
+      </c>
+      <c r="K37" t="s">
+        <v>38</v>
+      </c>
+      <c r="L37">
+        <v>250</v>
+      </c>
+      <c r="M37" t="s">
+        <v>40</v>
+      </c>
+      <c r="N37" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38">
+        <f>E37/5</f>
+        <v>0.47058823999999999</v>
+      </c>
+      <c r="F38" t="s">
+        <v>102</v>
+      </c>
+      <c r="G38" t="s">
+        <v>41</v>
+      </c>
+      <c r="H38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
+        <v>38</v>
+      </c>
+      <c r="L38">
+        <v>250</v>
+      </c>
+      <c r="M38" t="s">
+        <v>40</v>
+      </c>
+      <c r="N38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39:E46" si="2">E38/5</f>
+        <v>9.4117647999999998E-2</v>
+      </c>
+      <c r="F39" t="s">
+        <v>102</v>
+      </c>
+      <c r="G39" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" t="s">
+        <v>42</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39" t="s">
+        <v>38</v>
+      </c>
+      <c r="L39">
+        <v>250</v>
+      </c>
+      <c r="M39" t="s">
+        <v>40</v>
+      </c>
+      <c r="N39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="2"/>
+        <v>1.88235296E-2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>102</v>
+      </c>
+      <c r="G40" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40" t="s">
+        <v>42</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L40">
+        <v>250</v>
+      </c>
+      <c r="M40" t="s">
+        <v>40</v>
+      </c>
+      <c r="N40" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="2"/>
+        <v>3.7647059199999999E-3</v>
+      </c>
+      <c r="F41" t="s">
+        <v>102</v>
+      </c>
+      <c r="G41" t="s">
+        <v>41</v>
+      </c>
+      <c r="H41" t="s">
+        <v>42</v>
+      </c>
+      <c r="I41">
+        <v>8</v>
+      </c>
+      <c r="J41">
+        <v>4</v>
+      </c>
+      <c r="K41" t="s">
+        <v>38</v>
+      </c>
+      <c r="L41">
+        <v>250</v>
+      </c>
+      <c r="M41" t="s">
+        <v>40</v>
+      </c>
+      <c r="N41" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="2"/>
+        <v>7.5294118399999994E-4</v>
+      </c>
+      <c r="F42" t="s">
+        <v>102</v>
+      </c>
+      <c r="G42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H42" t="s">
+        <v>42</v>
+      </c>
+      <c r="I42">
+        <v>8</v>
+      </c>
+      <c r="J42">
+        <v>4</v>
+      </c>
+      <c r="K42" t="s">
+        <v>38</v>
+      </c>
+      <c r="L42">
+        <v>250</v>
+      </c>
+      <c r="M42" t="s">
+        <v>40</v>
+      </c>
+      <c r="N42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="2"/>
+        <v>1.5058823679999999E-4</v>
+      </c>
+      <c r="F43" t="s">
+        <v>102</v>
+      </c>
+      <c r="G43" t="s">
+        <v>41</v>
+      </c>
+      <c r="H43" t="s">
+        <v>42</v>
+      </c>
+      <c r="I43">
+        <v>8</v>
+      </c>
+      <c r="J43">
+        <v>4</v>
+      </c>
+      <c r="K43" t="s">
+        <v>38</v>
+      </c>
+      <c r="L43">
+        <v>250</v>
+      </c>
+      <c r="M43" t="s">
+        <v>40</v>
+      </c>
+      <c r="N43" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="2"/>
+        <v>3.011764736E-5</v>
+      </c>
+      <c r="F44" t="s">
+        <v>102</v>
+      </c>
+      <c r="G44" t="s">
+        <v>41</v>
+      </c>
+      <c r="H44" t="s">
+        <v>42</v>
+      </c>
+      <c r="I44">
+        <v>15</v>
+      </c>
+      <c r="J44">
+        <v>7.5</v>
+      </c>
+      <c r="K44" t="s">
+        <v>38</v>
+      </c>
+      <c r="L44">
+        <v>250</v>
+      </c>
+      <c r="M44" t="s">
+        <v>40</v>
+      </c>
+      <c r="N44" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="2"/>
+        <v>6.0235294720000002E-6</v>
+      </c>
+      <c r="F45" t="s">
+        <v>102</v>
+      </c>
+      <c r="G45" t="s">
+        <v>41</v>
+      </c>
+      <c r="H45" t="s">
+        <v>42</v>
+      </c>
+      <c r="I45">
+        <v>15</v>
+      </c>
+      <c r="J45">
+        <v>7.5</v>
+      </c>
+      <c r="K45" t="s">
+        <v>38</v>
+      </c>
+      <c r="L45">
+        <v>250</v>
+      </c>
+      <c r="M45" t="s">
+        <v>40</v>
+      </c>
+      <c r="N45" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="2"/>
+        <v>1.2047058944E-6</v>
+      </c>
+      <c r="F46" t="s">
+        <v>102</v>
+      </c>
+      <c r="G46" t="s">
+        <v>41</v>
+      </c>
+      <c r="H46" t="s">
+        <v>42</v>
+      </c>
+      <c r="I46">
+        <v>15</v>
+      </c>
+      <c r="J46">
+        <v>7.5</v>
+      </c>
+      <c r="K46" t="s">
+        <v>38</v>
+      </c>
+      <c r="L46">
+        <v>250</v>
+      </c>
+      <c r="M46" t="s">
+        <v>40</v>
+      </c>
+      <c r="N46" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -4626,49 +9139,88 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I10 I47:I1048576">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11:I19">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color theme="2"/>
-        <color rgb="FF00B050"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="2"/>
-        <color theme="5"/>
-      </colorScale>
-    </cfRule>
+  <conditionalFormatting sqref="I20:I28">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color theme="2"/>
-        <color rgb="FFFFC000"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29:I37">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color theme="2"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38:I46">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color theme="2"/>
-        <color rgb="FFEA5F47"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0316DAE-8BCC-A846-AB6B-A7C3C6D5DDFD}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7446,7 +11998,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:O19"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10253,8 +14805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91949FFA-5E6A-5C49-AD6E-C5C0E4B4C1C1}">
   <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView zoomScale="150" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10311,10 +14863,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
         <v>46</v>
@@ -10358,10 +14910,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
         <v>46</v>
@@ -10405,10 +14957,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
         <v>46</v>
@@ -10452,10 +15004,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
         <v>46</v>
@@ -10494,16 +15046,15 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <f>$O2 + 1</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
         <v>46</v>
@@ -10542,16 +15093,15 @@
         <v>1</v>
       </c>
       <c r="O6">
-        <f>$O5</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
         <v>46</v>
@@ -10590,16 +15140,15 @@
         <v>2</v>
       </c>
       <c r="O7">
-        <f>$O6</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
         <v>46</v>
@@ -10638,16 +15187,15 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <f>$O5 + 1</f>
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C9" t="s">
         <v>46</v>
@@ -10686,16 +15234,15 @@
         <v>1</v>
       </c>
       <c r="O9">
-        <f>$O8</f>
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s">
         <v>46</v>
@@ -10734,16 +15281,15 @@
         <v>2</v>
       </c>
       <c r="O10">
-        <f>$O9</f>
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
         <v>50</v>
@@ -10782,16 +15328,15 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <f>$O8 + 1</f>
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
         <v>50</v>
@@ -10830,7 +15375,6 @@
         <v>1</v>
       </c>
       <c r="O12">
-        <f>$O11</f>
         <v>3</v>
       </c>
     </row>
@@ -10839,7 +15383,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" t="s">
         <v>50</v>
@@ -10878,7 +15422,6 @@
         <v>2</v>
       </c>
       <c r="O13">
-        <f>$O12</f>
         <v>3</v>
       </c>
     </row>
@@ -10887,7 +15430,7 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C14" t="s">
         <v>50</v>
@@ -10926,7 +15469,6 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <f>$O11 + 1</f>
         <v>4</v>
       </c>
     </row>
@@ -10935,7 +15477,7 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C15" t="s">
         <v>50</v>
@@ -10974,7 +15516,6 @@
         <v>1</v>
       </c>
       <c r="O15">
-        <f>$O14</f>
         <v>4</v>
       </c>
     </row>
@@ -10983,7 +15524,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C16" t="s">
         <v>50</v>
@@ -11022,7 +15563,6 @@
         <v>2</v>
       </c>
       <c r="O16">
-        <f>$O15</f>
         <v>4</v>
       </c>
     </row>
@@ -11031,7 +15571,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C17" t="s">
         <v>50</v>
@@ -11070,7 +15610,6 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <f>$O14 + 1</f>
         <v>5</v>
       </c>
     </row>
@@ -11079,7 +15618,7 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C18" t="s">
         <v>50</v>
@@ -11118,7 +15657,6 @@
         <v>1</v>
       </c>
       <c r="O18">
-        <f>$O17</f>
         <v>5</v>
       </c>
     </row>
@@ -11127,7 +15665,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C19" t="s">
         <v>50</v>
@@ -11166,16 +15704,15 @@
         <v>2</v>
       </c>
       <c r="O19">
-        <f>$O18</f>
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
         <v>50</v>
@@ -11214,7 +15751,6 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <f>$O17 + 1</f>
         <v>6</v>
       </c>
     </row>
@@ -11223,7 +15759,7 @@
         <v>81</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C21" t="s">
         <v>50</v>
@@ -11262,7 +15798,6 @@
         <v>1</v>
       </c>
       <c r="O21">
-        <f>$O20</f>
         <v>6</v>
       </c>
     </row>
@@ -11271,7 +15806,7 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
         <v>50</v>
@@ -11310,7 +15845,6 @@
         <v>2</v>
       </c>
       <c r="O22">
-        <f>$O21</f>
         <v>6</v>
       </c>
     </row>
@@ -11319,7 +15853,7 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C23" t="s">
         <v>50</v>
@@ -11358,7 +15892,6 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <f t="shared" ref="O23" si="0">$O20 + 1</f>
         <v>7</v>
       </c>
     </row>
@@ -11367,7 +15900,7 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C24" t="s">
         <v>50</v>
@@ -11406,7 +15939,6 @@
         <v>1</v>
       </c>
       <c r="O24">
-        <f t="shared" ref="O24:O25" si="1">$O23</f>
         <v>7</v>
       </c>
     </row>
@@ -11415,7 +15947,7 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C25" t="s">
         <v>50</v>
@@ -11454,7 +15986,6 @@
         <v>2</v>
       </c>
       <c r="O25">
-        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
@@ -11463,7 +15994,7 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C26" t="s">
         <v>50</v>
@@ -11502,7 +16033,6 @@
         <v>0</v>
       </c>
       <c r="O26">
-        <f t="shared" ref="O26" si="2">$O23 + 1</f>
         <v>8</v>
       </c>
     </row>
@@ -11511,7 +16041,7 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C27" t="s">
         <v>50</v>
@@ -11550,7 +16080,6 @@
         <v>1</v>
       </c>
       <c r="O27">
-        <f t="shared" ref="O27:O28" si="3">$O26</f>
         <v>8</v>
       </c>
     </row>
@@ -11559,7 +16088,7 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C28" t="s">
         <v>50</v>
@@ -11598,16 +16127,15 @@
         <v>2</v>
       </c>
       <c r="O28">
-        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C29" t="s">
         <v>50</v>
@@ -11646,7 +16174,6 @@
         <v>0</v>
       </c>
       <c r="O29">
-        <f>$O26 + 1</f>
         <v>9</v>
       </c>
     </row>
@@ -11655,7 +16182,7 @@
         <v>83</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C30" t="s">
         <v>50</v>
@@ -11694,7 +16221,6 @@
         <v>1</v>
       </c>
       <c r="O30">
-        <f>$O29</f>
         <v>9</v>
       </c>
     </row>
@@ -11703,7 +16229,7 @@
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C31" t="s">
         <v>50</v>
@@ -11742,7 +16268,6 @@
         <v>2</v>
       </c>
       <c r="O31">
-        <f>$O30</f>
         <v>9</v>
       </c>
     </row>
@@ -11751,7 +16276,7 @@
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C32" t="s">
         <v>50</v>
@@ -11790,7 +16315,6 @@
         <v>0</v>
       </c>
       <c r="O32">
-        <f t="shared" ref="O32" si="4">$O29 + 1</f>
         <v>10</v>
       </c>
     </row>
@@ -11799,7 +16323,7 @@
         <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C33" t="s">
         <v>50</v>
@@ -11838,7 +16362,6 @@
         <v>1</v>
       </c>
       <c r="O33">
-        <f t="shared" ref="O33:O34" si="5">$O32</f>
         <v>10</v>
       </c>
     </row>
@@ -11847,7 +16370,7 @@
         <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C34" t="s">
         <v>50</v>
@@ -11886,7 +16409,6 @@
         <v>2</v>
       </c>
       <c r="O34">
-        <f t="shared" si="5"/>
         <v>10</v>
       </c>
     </row>
@@ -11895,7 +16417,7 @@
         <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C35" t="s">
         <v>50</v>
@@ -11934,7 +16456,6 @@
         <v>0</v>
       </c>
       <c r="O35">
-        <f t="shared" ref="O35" si="6">$O32 + 1</f>
         <v>11</v>
       </c>
     </row>
@@ -11943,7 +16464,7 @@
         <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C36" t="s">
         <v>50</v>
@@ -11982,7 +16503,6 @@
         <v>1</v>
       </c>
       <c r="O36">
-        <f t="shared" ref="O36:O37" si="7">$O35</f>
         <v>11</v>
       </c>
     </row>
@@ -11991,7 +16511,7 @@
         <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C37" t="s">
         <v>50</v>
@@ -12030,16 +16550,15 @@
         <v>2</v>
       </c>
       <c r="O37">
-        <f t="shared" si="7"/>
         <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C38" t="s">
         <v>50</v>
@@ -12078,7 +16597,6 @@
         <v>0</v>
       </c>
       <c r="O38">
-        <f t="shared" ref="O38" si="8">$O35 + 1</f>
         <v>12</v>
       </c>
     </row>
@@ -12087,7 +16605,7 @@
         <v>84</v>
       </c>
       <c r="B39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C39" t="s">
         <v>50</v>
@@ -12126,7 +16644,6 @@
         <v>1</v>
       </c>
       <c r="O39">
-        <f t="shared" ref="O39:O40" si="9">$O38</f>
         <v>12</v>
       </c>
     </row>
@@ -12135,7 +16652,7 @@
         <v>85</v>
       </c>
       <c r="B40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C40" t="s">
         <v>50</v>
@@ -12174,7 +16691,6 @@
         <v>2</v>
       </c>
       <c r="O40">
-        <f t="shared" si="9"/>
         <v>12</v>
       </c>
     </row>
@@ -12183,7 +16699,7 @@
         <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C41" t="s">
         <v>50</v>
@@ -12222,7 +16738,6 @@
         <v>0</v>
       </c>
       <c r="O41">
-        <f t="shared" ref="O41" si="10">$O38 + 1</f>
         <v>13</v>
       </c>
     </row>
@@ -12231,7 +16746,7 @@
         <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C42" t="s">
         <v>50</v>
@@ -12270,7 +16785,6 @@
         <v>1</v>
       </c>
       <c r="O42">
-        <f t="shared" ref="O42:O43" si="11">$O41</f>
         <v>13</v>
       </c>
     </row>
@@ -12279,7 +16793,7 @@
         <v>60</v>
       </c>
       <c r="B43" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -12318,7 +16832,6 @@
         <v>2</v>
       </c>
       <c r="O43">
-        <f t="shared" si="11"/>
         <v>13</v>
       </c>
     </row>
@@ -12327,7 +16840,7 @@
         <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C44" t="s">
         <v>50</v>
@@ -12366,7 +16879,6 @@
         <v>0</v>
       </c>
       <c r="O44">
-        <f t="shared" ref="O44" si="12">$O41 + 1</f>
         <v>14</v>
       </c>
     </row>
@@ -12375,7 +16887,7 @@
         <v>62</v>
       </c>
       <c r="B45" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C45" t="s">
         <v>50</v>
@@ -12414,7 +16926,6 @@
         <v>1</v>
       </c>
       <c r="O45">
-        <f t="shared" ref="O45:O46" si="13">$O44</f>
         <v>14</v>
       </c>
     </row>
@@ -12423,7 +16934,7 @@
         <v>63</v>
       </c>
       <c r="B46" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C46" t="s">
         <v>50</v>
@@ -12462,16 +16973,15 @@
         <v>2</v>
       </c>
       <c r="O46">
-        <f t="shared" si="13"/>
         <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C47" t="s">
         <v>50</v>
@@ -12510,16 +17020,15 @@
         <v>0</v>
       </c>
       <c r="O47">
-        <f t="shared" ref="O47" si="14">$O44 + 1</f>
         <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="B48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C48" t="s">
         <v>50</v>
@@ -12558,16 +17067,15 @@
         <v>1</v>
       </c>
       <c r="O48">
-        <f t="shared" ref="O48:O49" si="15">$O47</f>
         <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C49" t="s">
         <v>50</v>
@@ -12606,7 +17114,6 @@
         <v>2</v>
       </c>
       <c r="O49">
-        <f t="shared" si="15"/>
         <v>15</v>
       </c>
     </row>
@@ -12615,7 +17122,7 @@
         <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C50" t="s">
         <v>50</v>
@@ -12654,7 +17161,6 @@
         <v>0</v>
       </c>
       <c r="O50">
-        <f t="shared" ref="O50" si="16">$O47 + 1</f>
         <v>16</v>
       </c>
     </row>
@@ -12663,7 +17169,7 @@
         <v>65</v>
       </c>
       <c r="B51" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C51" t="s">
         <v>50</v>
@@ -12702,7 +17208,6 @@
         <v>1</v>
       </c>
       <c r="O51">
-        <f t="shared" ref="O51:O52" si="17">$O50</f>
         <v>16</v>
       </c>
     </row>
@@ -12711,7 +17216,7 @@
         <v>66</v>
       </c>
       <c r="B52" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C52" t="s">
         <v>50</v>
@@ -12750,7 +17255,6 @@
         <v>2</v>
       </c>
       <c r="O52">
-        <f t="shared" si="17"/>
         <v>16</v>
       </c>
     </row>
@@ -12759,7 +17263,7 @@
         <v>67</v>
       </c>
       <c r="B53" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C53" t="s">
         <v>50</v>
@@ -12798,7 +17302,6 @@
         <v>0</v>
       </c>
       <c r="O53">
-        <f t="shared" ref="O53" si="18">$O50 + 1</f>
         <v>17</v>
       </c>
     </row>
@@ -12807,7 +17310,7 @@
         <v>68</v>
       </c>
       <c r="B54" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C54" t="s">
         <v>50</v>
@@ -12846,7 +17349,6 @@
         <v>1</v>
       </c>
       <c r="O54">
-        <f t="shared" ref="O54:O55" si="19">$O53</f>
         <v>17</v>
       </c>
     </row>
@@ -12855,7 +17357,7 @@
         <v>69</v>
       </c>
       <c r="B55" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C55" t="s">
         <v>50</v>
@@ -12894,16 +17396,15 @@
         <v>2</v>
       </c>
       <c r="O55">
-        <f t="shared" si="19"/>
         <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C56" t="s">
         <v>50</v>
@@ -12942,16 +17443,15 @@
         <v>0</v>
       </c>
       <c r="O56">
-        <f t="shared" ref="O56" si="20">$O53 + 1</f>
         <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="B57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C57" t="s">
         <v>50</v>
@@ -12990,16 +17490,15 @@
         <v>1</v>
       </c>
       <c r="O57">
-        <f t="shared" ref="O57:O58" si="21">$O56</f>
         <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C58" t="s">
         <v>50</v>
@@ -13038,7 +17537,6 @@
         <v>2</v>
       </c>
       <c r="O58">
-        <f t="shared" si="21"/>
         <v>18</v>
       </c>
     </row>
@@ -13047,7 +17545,7 @@
         <v>70</v>
       </c>
       <c r="B59" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C59" t="s">
         <v>50</v>
@@ -13086,7 +17584,6 @@
         <v>0</v>
       </c>
       <c r="O59">
-        <f t="shared" ref="O59" si="22">$O56 + 1</f>
         <v>19</v>
       </c>
     </row>
@@ -13095,7 +17592,7 @@
         <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C60" t="s">
         <v>50</v>
@@ -13134,7 +17631,6 @@
         <v>1</v>
       </c>
       <c r="O60">
-        <f t="shared" ref="O60:O61" si="23">$O59</f>
         <v>19</v>
       </c>
     </row>
@@ -13143,7 +17639,7 @@
         <v>72</v>
       </c>
       <c r="B61" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C61" t="s">
         <v>50</v>
@@ -13182,7 +17678,6 @@
         <v>2</v>
       </c>
       <c r="O61">
-        <f t="shared" si="23"/>
         <v>19</v>
       </c>
     </row>
@@ -13191,7 +17686,7 @@
         <v>73</v>
       </c>
       <c r="B62" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C62" t="s">
         <v>50</v>
@@ -13230,7 +17725,6 @@
         <v>0</v>
       </c>
       <c r="O62">
-        <f t="shared" ref="O62" si="24">$O59 + 1</f>
         <v>20</v>
       </c>
     </row>
@@ -13239,7 +17733,7 @@
         <v>74</v>
       </c>
       <c r="B63" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C63" t="s">
         <v>50</v>
@@ -13278,7 +17772,6 @@
         <v>1</v>
       </c>
       <c r="O63">
-        <f t="shared" ref="O63:O64" si="25">$O62</f>
         <v>20</v>
       </c>
     </row>
@@ -13287,7 +17780,7 @@
         <v>75</v>
       </c>
       <c r="B64" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C64" t="s">
         <v>50</v>
@@ -13326,16 +17819,15 @@
         <v>2</v>
       </c>
       <c r="O64">
-        <f t="shared" si="25"/>
         <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C65" t="s">
         <v>46</v>
@@ -13374,16 +17866,15 @@
         <v>0</v>
       </c>
       <c r="O65">
-        <f t="shared" ref="O65" si="26">$O62 + 1</f>
         <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C66" t="s">
         <v>46</v>
@@ -13422,16 +17913,15 @@
         <v>1</v>
       </c>
       <c r="O66">
-        <f t="shared" ref="O66:O67" si="27">$O65</f>
         <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="B67" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C67" t="s">
         <v>46</v>
@@ -13470,16 +17960,15 @@
         <v>2</v>
       </c>
       <c r="O67">
-        <f t="shared" si="27"/>
         <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="B68" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C68" t="s">
         <v>46</v>
@@ -13518,16 +18007,15 @@
         <v>0</v>
       </c>
       <c r="O68">
-        <f t="shared" ref="O68" si="28">$O65 + 1</f>
         <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="B69" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C69" t="s">
         <v>46</v>
@@ -13566,16 +18054,15 @@
         <v>1</v>
       </c>
       <c r="O69">
-        <f t="shared" ref="O69:O70" si="29">$O68</f>
         <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="B70" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C70" t="s">
         <v>46</v>
@@ -13614,16 +18101,15 @@
         <v>2</v>
       </c>
       <c r="O70">
-        <f t="shared" si="29"/>
         <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B71" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C71" t="s">
         <v>46</v>
@@ -13662,16 +18148,15 @@
         <v>0</v>
       </c>
       <c r="O71">
-        <f t="shared" ref="O71" si="30">$O68 + 1</f>
         <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="B72" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C72" t="s">
         <v>46</v>
@@ -13710,16 +18195,15 @@
         <v>1</v>
       </c>
       <c r="O72">
-        <f t="shared" ref="O72:O73" si="31">$O71</f>
         <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="B73" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C73" t="s">
         <v>46</v>
@@ -13758,12 +18242,31 @@
         <v>2</v>
       </c>
       <c r="O73">
-        <f t="shared" si="31"/>
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="E74:E1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I74:I1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13824,10 +18327,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
         <v>50</v>
@@ -13839,7 +18342,7 @@
         <v>1000</v>
       </c>
       <c r="F2" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G2" t="s">
         <v>41</v>
@@ -13871,7 +18374,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
         <v>50</v>
@@ -13884,7 +18387,7 @@
         <v>333.33333333333331</v>
       </c>
       <c r="F3" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G3" t="s">
         <v>41</v>
@@ -13916,7 +18419,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
         <v>50</v>
@@ -13929,7 +18432,7 @@
         <v>111.1111111111111</v>
       </c>
       <c r="F4" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G4" t="s">
         <v>41</v>
@@ -13961,7 +18464,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
         <v>50</v>
@@ -13974,7 +18477,7 @@
         <v>37.037037037037031</v>
       </c>
       <c r="F5" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G5" t="s">
         <v>41</v>
@@ -14006,7 +18509,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
         <v>50</v>
@@ -14019,7 +18522,7 @@
         <v>12.345679012345677</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G6" t="s">
         <v>41</v>
@@ -14051,7 +18554,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
         <v>50</v>
@@ -14064,7 +18567,7 @@
         <v>4.1152263374485587</v>
       </c>
       <c r="F7" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G7" t="s">
         <v>41</v>
@@ -14096,7 +18599,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
         <v>50</v>
@@ -14109,7 +18612,7 @@
         <v>1.3717421124828528</v>
       </c>
       <c r="F8" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
         <v>41</v>
@@ -14141,7 +18644,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
         <v>50</v>
@@ -14154,7 +18657,7 @@
         <v>0.45724737082761763</v>
       </c>
       <c r="F9" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
         <v>41</v>
@@ -14186,7 +18689,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
         <v>50</v>
@@ -14199,7 +18702,7 @@
         <v>0.15241579027587254</v>
       </c>
       <c r="F10" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G10" t="s">
         <v>41</v>
@@ -14231,7 +18734,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
         <v>50</v>
@@ -14244,7 +18747,7 @@
         <v>5.0805263425290847E-2</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G11" t="s">
         <v>41</v>
@@ -14276,7 +18779,7 @@
         <v>81</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
         <v>50</v>
@@ -14288,7 +18791,7 @@
         <v>1000</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G12" t="s">
         <v>41</v>
@@ -14320,7 +18823,7 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
         <v>50</v>
@@ -14333,7 +18836,7 @@
         <v>333.33333333333331</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G13" t="s">
         <v>41</v>
@@ -14365,7 +18868,7 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
         <v>50</v>
@@ -14378,7 +18881,7 @@
         <v>111.1111111111111</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G14" t="s">
         <v>41</v>
@@ -14410,7 +18913,7 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
         <v>50</v>
@@ -14423,7 +18926,7 @@
         <v>37.037037037037031</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G15" t="s">
         <v>41</v>
@@ -14455,7 +18958,7 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
         <v>50</v>
@@ -14468,7 +18971,7 @@
         <v>12.345679012345677</v>
       </c>
       <c r="F16" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G16" t="s">
         <v>41</v>
@@ -14500,7 +19003,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
         <v>50</v>
@@ -14513,7 +19016,7 @@
         <v>4.1152263374485587</v>
       </c>
       <c r="F17" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G17" t="s">
         <v>41</v>
@@ -14545,7 +19048,7 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
         <v>50</v>
@@ -14558,7 +19061,7 @@
         <v>1.3717421124828528</v>
       </c>
       <c r="F18" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G18" t="s">
         <v>41</v>
@@ -14590,7 +19093,7 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
         <v>50</v>
@@ -14603,7 +19106,7 @@
         <v>0.45724737082761763</v>
       </c>
       <c r="F19" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G19" t="s">
         <v>41</v>
@@ -14635,7 +19138,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s">
         <v>50</v>
@@ -14648,7 +19151,7 @@
         <v>0.15241579027587254</v>
       </c>
       <c r="F20" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G20" t="s">
         <v>41</v>
@@ -14680,7 +19183,7 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
         <v>50</v>
@@ -14693,7 +19196,7 @@
         <v>5.0805263425290847E-2</v>
       </c>
       <c r="F21" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G21" t="s">
         <v>41</v>
@@ -14725,7 +19228,7 @@
         <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s">
         <v>50</v>
@@ -14737,7 +19240,7 @@
         <v>1000</v>
       </c>
       <c r="F22" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G22" t="s">
         <v>41</v>
@@ -14769,7 +19272,7 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C23" t="s">
         <v>50</v>
@@ -14782,7 +19285,7 @@
         <v>333.33333333333331</v>
       </c>
       <c r="F23" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G23" t="s">
         <v>41</v>
@@ -14814,7 +19317,7 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C24" t="s">
         <v>50</v>
@@ -14827,7 +19330,7 @@
         <v>111.1111111111111</v>
       </c>
       <c r="F24" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G24" t="s">
         <v>41</v>
@@ -14859,7 +19362,7 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
         <v>50</v>
@@ -14872,7 +19375,7 @@
         <v>37.037037037037031</v>
       </c>
       <c r="F25" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G25" t="s">
         <v>41</v>
@@ -14904,7 +19407,7 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C26" t="s">
         <v>50</v>
@@ -14917,7 +19420,7 @@
         <v>12.345679012345677</v>
       </c>
       <c r="F26" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G26" t="s">
         <v>41</v>
@@ -14949,7 +19452,7 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C27" t="s">
         <v>50</v>
@@ -14962,7 +19465,7 @@
         <v>4.1152263374485587</v>
       </c>
       <c r="F27" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G27" t="s">
         <v>41</v>
@@ -14994,7 +19497,7 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C28" t="s">
         <v>50</v>
@@ -15007,7 +19510,7 @@
         <v>1.3717421124828528</v>
       </c>
       <c r="F28" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G28" t="s">
         <v>41</v>
@@ -15039,7 +19542,7 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
         <v>50</v>
@@ -15052,7 +19555,7 @@
         <v>0.45724737082761763</v>
       </c>
       <c r="F29" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G29" t="s">
         <v>41</v>
@@ -15084,7 +19587,7 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C30" t="s">
         <v>50</v>
@@ -15097,7 +19600,7 @@
         <v>0.15241579027587254</v>
       </c>
       <c r="F30" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G30" t="s">
         <v>41</v>
@@ -15129,7 +19632,7 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C31" t="s">
         <v>50</v>
@@ -15142,7 +19645,7 @@
         <v>5.0805263425290847E-2</v>
       </c>
       <c r="F31" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G31" t="s">
         <v>41</v>
@@ -15174,7 +19677,7 @@
         <v>84</v>
       </c>
       <c r="B32" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C32" t="s">
         <v>50</v>
@@ -15186,7 +19689,7 @@
         <v>1000</v>
       </c>
       <c r="F32" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G32" t="s">
         <v>41</v>
@@ -15218,7 +19721,7 @@
         <v>85</v>
       </c>
       <c r="B33" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C33" t="s">
         <v>50</v>
@@ -15231,7 +19734,7 @@
         <v>333.33333333333331</v>
       </c>
       <c r="F33" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G33" t="s">
         <v>41</v>
@@ -15263,7 +19766,7 @@
         <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C34" t="s">
         <v>50</v>
@@ -15276,7 +19779,7 @@
         <v>111.1111111111111</v>
       </c>
       <c r="F34" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G34" t="s">
         <v>41</v>
@@ -15308,7 +19811,7 @@
         <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C35" t="s">
         <v>50</v>
@@ -15321,7 +19824,7 @@
         <v>37.037037037037031</v>
       </c>
       <c r="F35" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G35" t="s">
         <v>41</v>
@@ -15353,7 +19856,7 @@
         <v>60</v>
       </c>
       <c r="B36" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C36" t="s">
         <v>50</v>
@@ -15366,7 +19869,7 @@
         <v>12.345679012345677</v>
       </c>
       <c r="F36" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G36" t="s">
         <v>41</v>
@@ -15398,7 +19901,7 @@
         <v>61</v>
       </c>
       <c r="B37" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C37" t="s">
         <v>50</v>
@@ -15411,7 +19914,7 @@
         <v>4.1152263374485587</v>
       </c>
       <c r="F37" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G37" t="s">
         <v>41</v>
@@ -15443,7 +19946,7 @@
         <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C38" t="s">
         <v>50</v>
@@ -15456,7 +19959,7 @@
         <v>1.3717421124828528</v>
       </c>
       <c r="F38" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G38" t="s">
         <v>41</v>
@@ -15488,7 +19991,7 @@
         <v>63</v>
       </c>
       <c r="B39" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C39" t="s">
         <v>50</v>
@@ -15501,7 +20004,7 @@
         <v>0.45724737082761763</v>
       </c>
       <c r="F39" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G39" t="s">
         <v>41</v>
@@ -15533,7 +20036,7 @@
         <v>86</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C40" t="s">
         <v>50</v>
@@ -15546,7 +20049,7 @@
         <v>0.15241579027587254</v>
       </c>
       <c r="F40" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G40" t="s">
         <v>41</v>
@@ -15575,10 +20078,10 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C41" t="s">
         <v>50</v>
@@ -15591,7 +20094,7 @@
         <v>5.0805263425290847E-2</v>
       </c>
       <c r="F41" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G41" t="s">
         <v>41</v>
@@ -15620,10 +20123,10 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="B42" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C42" t="s">
         <v>50</v>
@@ -15635,7 +20138,7 @@
         <v>1000</v>
       </c>
       <c r="F42" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G42" t="s">
         <v>41</v>
@@ -15664,10 +20167,10 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B43" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -15680,7 +20183,7 @@
         <v>333.33333333333331</v>
       </c>
       <c r="F43" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G43" t="s">
         <v>41</v>
@@ -15712,7 +20215,7 @@
         <v>64</v>
       </c>
       <c r="B44" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C44" t="s">
         <v>50</v>
@@ -15725,7 +20228,7 @@
         <v>111.1111111111111</v>
       </c>
       <c r="F44" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G44" t="s">
         <v>41</v>
@@ -15757,7 +20260,7 @@
         <v>65</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C45" t="s">
         <v>50</v>
@@ -15770,7 +20273,7 @@
         <v>37.037037037037031</v>
       </c>
       <c r="F45" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G45" t="s">
         <v>41</v>
@@ -15802,7 +20305,7 @@
         <v>66</v>
       </c>
       <c r="B46" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C46" t="s">
         <v>50</v>
@@ -15815,7 +20318,7 @@
         <v>12.345679012345677</v>
       </c>
       <c r="F46" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G46" t="s">
         <v>41</v>
@@ -15847,7 +20350,7 @@
         <v>67</v>
       </c>
       <c r="B47" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C47" t="s">
         <v>50</v>
@@ -15860,7 +20363,7 @@
         <v>4.1152263374485587</v>
       </c>
       <c r="F47" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G47" t="s">
         <v>41</v>
@@ -15892,7 +20395,7 @@
         <v>68</v>
       </c>
       <c r="B48" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C48" t="s">
         <v>50</v>
@@ -15905,7 +20408,7 @@
         <v>1.3717421124828528</v>
       </c>
       <c r="F48" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G48" t="s">
         <v>41</v>
@@ -15937,7 +20440,7 @@
         <v>69</v>
       </c>
       <c r="B49" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C49" t="s">
         <v>50</v>
@@ -15950,7 +20453,7 @@
         <v>0.45724737082761763</v>
       </c>
       <c r="F49" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G49" t="s">
         <v>41</v>
@@ -15979,10 +20482,10 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="B50" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C50" t="s">
         <v>50</v>
@@ -15995,7 +20498,7 @@
         <v>0.15241579027587254</v>
       </c>
       <c r="F50" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G50" t="s">
         <v>41</v>
@@ -16024,10 +20527,10 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="B51" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C51" t="s">
         <v>50</v>
@@ -16040,7 +20543,7 @@
         <v>5.0805263425290847E-2</v>
       </c>
       <c r="F51" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G51" t="s">
         <v>41</v>
@@ -16069,10 +20572,10 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="B52" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C52" t="s">
         <v>50</v>
@@ -16084,7 +20587,7 @@
         <v>1000</v>
       </c>
       <c r="F52" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G52" t="s">
         <v>41</v>
@@ -16113,10 +20616,10 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B53" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C53" t="s">
         <v>50</v>
@@ -16129,7 +20632,7 @@
         <v>333.33333333333331</v>
       </c>
       <c r="F53" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G53" t="s">
         <v>41</v>
@@ -16161,7 +20664,7 @@
         <v>70</v>
       </c>
       <c r="B54" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C54" t="s">
         <v>50</v>
@@ -16174,7 +20677,7 @@
         <v>111.1111111111111</v>
       </c>
       <c r="F54" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G54" t="s">
         <v>41</v>
@@ -16206,7 +20709,7 @@
         <v>71</v>
       </c>
       <c r="B55" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C55" t="s">
         <v>50</v>
@@ -16219,7 +20722,7 @@
         <v>37.037037037037031</v>
       </c>
       <c r="F55" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G55" t="s">
         <v>41</v>
@@ -16251,7 +20754,7 @@
         <v>72</v>
       </c>
       <c r="B56" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C56" t="s">
         <v>50</v>
@@ -16264,7 +20767,7 @@
         <v>12.345679012345677</v>
       </c>
       <c r="F56" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G56" t="s">
         <v>41</v>
@@ -16296,7 +20799,7 @@
         <v>73</v>
       </c>
       <c r="B57" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C57" t="s">
         <v>50</v>
@@ -16309,7 +20812,7 @@
         <v>4.1152263374485587</v>
       </c>
       <c r="F57" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G57" t="s">
         <v>41</v>
@@ -16341,7 +20844,7 @@
         <v>74</v>
       </c>
       <c r="B58" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C58" t="s">
         <v>50</v>
@@ -16354,7 +20857,7 @@
         <v>1.3717421124828528</v>
       </c>
       <c r="F58" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G58" t="s">
         <v>41</v>
@@ -16386,7 +20889,7 @@
         <v>75</v>
       </c>
       <c r="B59" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C59" t="s">
         <v>50</v>
@@ -16399,7 +20902,7 @@
         <v>0.45724737082761763</v>
       </c>
       <c r="F59" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G59" t="s">
         <v>41</v>
@@ -16428,10 +20931,10 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="B60" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C60" t="s">
         <v>50</v>
@@ -16444,7 +20947,7 @@
         <v>0.15241579027587254</v>
       </c>
       <c r="F60" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G60" t="s">
         <v>41</v>
@@ -16473,10 +20976,10 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="B61" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C61" t="s">
         <v>50</v>
@@ -16489,7 +20992,7 @@
         <v>5.0805263425290847E-2</v>
       </c>
       <c r="F61" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G61" t="s">
         <v>41</v>
@@ -16584,7 +21087,7 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
         <v>50</v>
@@ -16596,7 +21099,7 @@
         <v>416</v>
       </c>
       <c r="F2" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G2" t="s">
         <v>41</v>
@@ -16628,7 +21131,7 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
         <v>50</v>
@@ -16641,7 +21144,7 @@
         <v>69.333333333333329</v>
       </c>
       <c r="F3" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G3" t="s">
         <v>41</v>
@@ -16673,7 +21176,7 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
         <v>50</v>
@@ -16686,7 +21189,7 @@
         <v>11.555555555555555</v>
       </c>
       <c r="F4" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G4" t="s">
         <v>41</v>
@@ -16718,7 +21221,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
         <v>50</v>
@@ -16731,7 +21234,7 @@
         <v>1.9259259259259258</v>
       </c>
       <c r="F5" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G5" t="s">
         <v>41</v>
@@ -16763,7 +21266,7 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
         <v>50</v>
@@ -16776,7 +21279,7 @@
         <v>0.32098765432098764</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G6" t="s">
         <v>41</v>
@@ -16808,7 +21311,7 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
         <v>50</v>
@@ -16821,7 +21324,7 @@
         <v>5.3497942386831275E-2</v>
       </c>
       <c r="F7" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G7" t="s">
         <v>41</v>
@@ -16853,7 +21356,7 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
         <v>50</v>
@@ -16866,7 +21369,7 @@
         <v>8.9163237311385458E-3</v>
       </c>
       <c r="F8" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
         <v>41</v>
@@ -16898,7 +21401,7 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
         <v>50</v>
@@ -16911,7 +21414,7 @@
         <v>1.4860539551897576E-3</v>
       </c>
       <c r="F9" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
         <v>41</v>
@@ -16943,7 +21446,7 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s">
         <v>50</v>
@@ -16955,7 +21458,7 @@
         <v>416</v>
       </c>
       <c r="F10" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G10" t="s">
         <v>41</v>
@@ -16987,7 +21490,7 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
         <v>50</v>
@@ -17000,7 +21503,7 @@
         <v>69.333333333333329</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G11" t="s">
         <v>41</v>
@@ -17032,7 +21535,7 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
         <v>50</v>
@@ -17045,7 +21548,7 @@
         <v>11.555555555555555</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G12" t="s">
         <v>41</v>
@@ -17077,7 +21580,7 @@
         <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
         <v>50</v>
@@ -17090,7 +21593,7 @@
         <v>1.9259259259259258</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G13" t="s">
         <v>41</v>
@@ -17122,7 +21625,7 @@
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
         <v>50</v>
@@ -17135,7 +21638,7 @@
         <v>0.32098765432098764</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G14" t="s">
         <v>41</v>
@@ -17167,7 +21670,7 @@
         <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
         <v>50</v>
@@ -17180,7 +21683,7 @@
         <v>5.3497942386831275E-2</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G15" t="s">
         <v>41</v>
@@ -17212,7 +21715,7 @@
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
         <v>50</v>
@@ -17225,7 +21728,7 @@
         <v>8.9163237311385458E-3</v>
       </c>
       <c r="F16" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G16" t="s">
         <v>41</v>
@@ -17257,7 +21760,7 @@
         <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
         <v>50</v>
@@ -17270,7 +21773,7 @@
         <v>1.4860539551897576E-3</v>
       </c>
       <c r="F17" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G17" t="s">
         <v>41</v>
@@ -17302,7 +21805,7 @@
         <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
         <v>50</v>
@@ -17314,7 +21817,7 @@
         <v>416</v>
       </c>
       <c r="F18" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G18" t="s">
         <v>41</v>
@@ -17346,7 +21849,7 @@
         <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C19" t="s">
         <v>50</v>
@@ -17359,7 +21862,7 @@
         <v>69.333333333333329</v>
       </c>
       <c r="F19" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G19" t="s">
         <v>41</v>
@@ -17391,7 +21894,7 @@
         <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s">
         <v>50</v>
@@ -17404,7 +21907,7 @@
         <v>11.555555555555555</v>
       </c>
       <c r="F20" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G20" t="s">
         <v>41</v>
@@ -17436,7 +21939,7 @@
         <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C21" t="s">
         <v>50</v>
@@ -17449,7 +21952,7 @@
         <v>1.9259259259259258</v>
       </c>
       <c r="F21" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G21" t="s">
         <v>41</v>
@@ -17481,7 +21984,7 @@
         <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C22" t="s">
         <v>50</v>
@@ -17494,7 +21997,7 @@
         <v>0.32098765432098764</v>
       </c>
       <c r="F22" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G22" t="s">
         <v>41</v>
@@ -17526,7 +22029,7 @@
         <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
         <v>50</v>
@@ -17539,7 +22042,7 @@
         <v>5.3497942386831275E-2</v>
       </c>
       <c r="F23" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G23" t="s">
         <v>41</v>
@@ -17571,7 +22074,7 @@
         <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s">
         <v>50</v>
@@ -17584,7 +22087,7 @@
         <v>8.9163237311385458E-3</v>
       </c>
       <c r="F24" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G24" t="s">
         <v>41</v>
@@ -17616,7 +22119,7 @@
         <v>86</v>
       </c>
       <c r="B25" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C25" t="s">
         <v>50</v>
@@ -17629,7 +22132,7 @@
         <v>1.4860539551897576E-3</v>
       </c>
       <c r="F25" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G25" t="s">
         <v>41</v>
@@ -17658,10 +22161,10 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B26" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C26" t="s">
         <v>50</v>
@@ -17673,7 +22176,7 @@
         <v>416</v>
       </c>
       <c r="F26" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G26" t="s">
         <v>41</v>
@@ -17705,7 +22208,7 @@
         <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C27" t="s">
         <v>50</v>
@@ -17718,7 +22221,7 @@
         <v>69.333333333333329</v>
       </c>
       <c r="F27" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G27" t="s">
         <v>41</v>
@@ -17750,7 +22253,7 @@
         <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C28" t="s">
         <v>50</v>
@@ -17763,7 +22266,7 @@
         <v>11.555555555555555</v>
       </c>
       <c r="F28" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G28" t="s">
         <v>41</v>
@@ -17795,7 +22298,7 @@
         <v>66</v>
       </c>
       <c r="B29" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
         <v>50</v>
@@ -17808,7 +22311,7 @@
         <v>1.9259259259259258</v>
       </c>
       <c r="F29" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G29" t="s">
         <v>41</v>
@@ -17840,7 +22343,7 @@
         <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C30" t="s">
         <v>50</v>
@@ -17853,7 +22356,7 @@
         <v>0.32098765432098764</v>
       </c>
       <c r="F30" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G30" t="s">
         <v>41</v>
@@ -17885,7 +22388,7 @@
         <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C31" t="s">
         <v>50</v>
@@ -17898,7 +22401,7 @@
         <v>5.3497942386831275E-2</v>
       </c>
       <c r="F31" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G31" t="s">
         <v>41</v>
@@ -17930,7 +22433,7 @@
         <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C32" t="s">
         <v>50</v>
@@ -17943,7 +22446,7 @@
         <v>8.9163237311385458E-3</v>
       </c>
       <c r="F32" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G32" t="s">
         <v>41</v>
@@ -17972,10 +22475,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="B33" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C33" t="s">
         <v>50</v>
@@ -17988,7 +22491,7 @@
         <v>1.4860539551897576E-3</v>
       </c>
       <c r="F33" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G33" t="s">
         <v>41</v>

--- a/plate-reader-screens/plate_layouts.xlsx
+++ b/plate-reader-screens/plate_layouts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aqib/Desktop/BCCL/char-syn-gene-nets/circuit-state/plate-reader-screens/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF6CCED-7C0D-D94A-B02E-1194C6A62DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83421FC4-5C4F-EF4A-AD84-6454213E0546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4000" yWindow="500" windowWidth="45080" windowHeight="26220" firstSheet="2" activeTab="12" xr2:uid="{86E41D9F-BC50-BD4C-BFC8-A140258F459E}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4559" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5062" uniqueCount="134">
   <si>
     <t>well</t>
   </si>
@@ -441,16 +441,13 @@
     <t>H9</t>
   </si>
   <si>
-    <t>11 ug/mL amp</t>
+    <t>MGZ1_mepM</t>
   </si>
   <si>
-    <t>5 uL of 0.5 mg/mL biapenem and cefazolin</t>
+    <t>biapenem</t>
   </si>
   <si>
-    <t>3 cols were wild type and 3 cols were with pMepMoverexpress and IPTG decreased going down the rows</t>
-  </si>
-  <si>
-    <t>Linus has the layout</t>
+    <t>cefazolin</t>
   </si>
 </sst>
 </file>
@@ -4696,7 +4693,7 @@
   <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7068,7 +7065,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D28DDB2-C3CD-B846-BE5F-AD48B0CE8247}">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8738,7 +8737,7 @@
         <v>44</v>
       </c>
       <c r="E38">
-        <f>E37/5</f>
+        <f>E29/5</f>
         <v>0.47058823999999999</v>
       </c>
       <c r="F38" t="s">
@@ -8783,8 +8782,8 @@
         <v>44</v>
       </c>
       <c r="E39">
-        <f t="shared" ref="E39:E46" si="2">E38/5</f>
-        <v>9.4117647999999998E-2</v>
+        <f t="shared" ref="E39:E46" si="2">E30/5</f>
+        <v>0.47058823999999999</v>
       </c>
       <c r="F39" t="s">
         <v>102</v>
@@ -8829,7 +8828,7 @@
       </c>
       <c r="E40">
         <f t="shared" si="2"/>
-        <v>1.88235296E-2</v>
+        <v>0.47058823999999999</v>
       </c>
       <c r="F40" t="s">
         <v>102</v>
@@ -8874,7 +8873,7 @@
       </c>
       <c r="E41">
         <f t="shared" si="2"/>
-        <v>3.7647059199999999E-3</v>
+        <v>0.47058823999999999</v>
       </c>
       <c r="F41" t="s">
         <v>102</v>
@@ -8919,7 +8918,7 @@
       </c>
       <c r="E42">
         <f t="shared" si="2"/>
-        <v>7.5294118399999994E-4</v>
+        <v>0.47058823999999999</v>
       </c>
       <c r="F42" t="s">
         <v>102</v>
@@ -8964,7 +8963,7 @@
       </c>
       <c r="E43">
         <f t="shared" si="2"/>
-        <v>1.5058823679999999E-4</v>
+        <v>0.47058823999999999</v>
       </c>
       <c r="F43" t="s">
         <v>102</v>
@@ -9009,7 +9008,7 @@
       </c>
       <c r="E44">
         <f t="shared" si="2"/>
-        <v>3.011764736E-5</v>
+        <v>0.47058823999999999</v>
       </c>
       <c r="F44" t="s">
         <v>102</v>
@@ -9054,7 +9053,7 @@
       </c>
       <c r="E45">
         <f t="shared" si="2"/>
-        <v>6.0235294720000002E-6</v>
+        <v>0.47058823999999999</v>
       </c>
       <c r="F45" t="s">
         <v>102</v>
@@ -9099,7 +9098,7 @@
       </c>
       <c r="E46">
         <f t="shared" si="2"/>
-        <v>1.2047058944E-6</v>
+        <v>0.47058823999999999</v>
       </c>
       <c r="F46" t="s">
         <v>102</v>
@@ -9191,36 +9190,2473 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0316DAE-8BCC-A846-AB6B-A7C3C6D5DDFD}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2">
+        <v>220.70588455999999</v>
+      </c>
+      <c r="F2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2">
+        <v>11</v>
+      </c>
+      <c r="J2">
+        <v>5.5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2">
+        <v>250</v>
+      </c>
+      <c r="M2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" t="s">
+        <v>102</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3">
+        <v>58.823529999999998</v>
+      </c>
+      <c r="F3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3">
+        <v>11</v>
+      </c>
+      <c r="J3">
+        <v>5.5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3">
+        <v>250</v>
+      </c>
+      <c r="M3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" t="s">
+        <v>102</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4">
+        <f>E3/5</f>
+        <v>11.764706</v>
+      </c>
+      <c r="F4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4">
+        <v>11</v>
+      </c>
+      <c r="J4">
+        <v>5.5</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4">
+        <v>250</v>
+      </c>
+      <c r="M4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5">
+        <f>E4/5</f>
+        <v>2.3529412000000001</v>
+      </c>
+      <c r="F5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5">
+        <v>11</v>
+      </c>
+      <c r="J5">
+        <v>5.5</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5">
+        <v>250</v>
+      </c>
+      <c r="M5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" t="s">
+        <v>102</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6">
+        <f>E5/5</f>
+        <v>0.47058823999999999</v>
+      </c>
+      <c r="F6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6">
+        <v>11</v>
+      </c>
+      <c r="J6">
+        <v>5.5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6">
+        <v>250</v>
+      </c>
+      <c r="M6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" t="s">
+        <v>102</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7">
+        <v>220.70588455999999</v>
+      </c>
+      <c r="F7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7">
+        <v>11</v>
+      </c>
+      <c r="J7">
+        <v>5.5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7">
+        <v>250</v>
+      </c>
+      <c r="M7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" t="s">
+        <v>102</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8">
+        <v>58.823529999999998</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8">
+        <v>11</v>
+      </c>
+      <c r="J8">
+        <v>5.5</v>
+      </c>
+      <c r="K8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8">
+        <v>250</v>
+      </c>
+      <c r="M8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9">
+        <f>E8/5</f>
+        <v>11.764706</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9">
+        <v>11</v>
+      </c>
+      <c r="J9">
+        <v>5.5</v>
+      </c>
+      <c r="K9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9">
+        <v>250</v>
+      </c>
+      <c r="M9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10">
+        <f>E9/5</f>
+        <v>2.3529412000000001</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10">
+        <v>11</v>
+      </c>
+      <c r="J10">
+        <v>5.5</v>
+      </c>
+      <c r="K10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10">
+        <v>250</v>
+      </c>
+      <c r="M10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" t="s">
+        <v>102</v>
+      </c>
+      <c r="O10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11">
+        <f>E10/5</f>
+        <v>0.47058823999999999</v>
+      </c>
+      <c r="F11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11">
+        <v>11</v>
+      </c>
+      <c r="J11">
+        <v>5.5</v>
+      </c>
+      <c r="K11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11">
+        <v>250</v>
+      </c>
+      <c r="M11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" t="s">
+        <v>102</v>
+      </c>
+      <c r="O11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12">
+        <v>220.70588455999999</v>
+      </c>
+      <c r="F12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12">
+        <v>11</v>
+      </c>
+      <c r="J12">
+        <v>5.5</v>
+      </c>
+      <c r="K12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12">
+        <v>250</v>
+      </c>
+      <c r="M12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" t="s">
+        <v>102</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13">
+        <v>58.823529999999998</v>
+      </c>
+      <c r="F13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13">
+        <v>11</v>
+      </c>
+      <c r="J13">
+        <v>5.5</v>
+      </c>
+      <c r="K13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13">
+        <v>250</v>
+      </c>
+      <c r="M13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13" t="s">
+        <v>102</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14">
+        <f>E13/5</f>
+        <v>11.764706</v>
+      </c>
+      <c r="F14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14">
+        <v>11</v>
+      </c>
+      <c r="J14">
+        <v>5.5</v>
+      </c>
+      <c r="K14" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14">
+        <v>250</v>
+      </c>
+      <c r="M14" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14" t="s">
+        <v>102</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15">
+        <f>E14/5</f>
+        <v>2.3529412000000001</v>
+      </c>
+      <c r="F15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15">
+        <v>11</v>
+      </c>
+      <c r="J15">
+        <v>5.5</v>
+      </c>
+      <c r="K15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15">
+        <v>250</v>
+      </c>
+      <c r="M15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15" t="s">
+        <v>102</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16">
+        <f>E15/5</f>
+        <v>0.47058823999999999</v>
+      </c>
+      <c r="F16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16">
+        <v>11</v>
+      </c>
+      <c r="J16">
+        <v>5.5</v>
+      </c>
+      <c r="K16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16">
+        <v>250</v>
+      </c>
+      <c r="M16" t="s">
+        <v>40</v>
+      </c>
+      <c r="N16" t="s">
+        <v>102</v>
+      </c>
+      <c r="O16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
         <v>131</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17">
+        <v>220.70588455999999</v>
+      </c>
+      <c r="F17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17">
+        <v>11</v>
+      </c>
+      <c r="J17">
+        <v>5.5</v>
+      </c>
+      <c r="K17" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17">
+        <v>250</v>
+      </c>
+      <c r="M17" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17" t="s">
+        <v>102</v>
+      </c>
+      <c r="O17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18">
+        <v>58.823529999999998</v>
+      </c>
+      <c r="F18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18">
+        <v>11</v>
+      </c>
+      <c r="J18">
+        <v>5.5</v>
+      </c>
+      <c r="K18" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18">
+        <v>250</v>
+      </c>
+      <c r="M18" t="s">
+        <v>40</v>
+      </c>
+      <c r="N18" t="s">
+        <v>102</v>
+      </c>
+      <c r="O18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19">
+        <f>E18/5</f>
+        <v>11.764706</v>
+      </c>
+      <c r="F19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19">
+        <v>11</v>
+      </c>
+      <c r="J19">
+        <v>5.5</v>
+      </c>
+      <c r="K19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19">
+        <v>250</v>
+      </c>
+      <c r="M19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19" t="s">
+        <v>102</v>
+      </c>
+      <c r="O19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20">
+        <f>E19/5</f>
+        <v>2.3529412000000001</v>
+      </c>
+      <c r="F20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20">
+        <v>11</v>
+      </c>
+      <c r="J20">
+        <v>5.5</v>
+      </c>
+      <c r="K20" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20">
+        <v>250</v>
+      </c>
+      <c r="M20" t="s">
+        <v>40</v>
+      </c>
+      <c r="N20" t="s">
+        <v>102</v>
+      </c>
+      <c r="O20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21">
+        <f>E20/5</f>
+        <v>0.47058823999999999</v>
+      </c>
+      <c r="F21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21">
+        <v>11</v>
+      </c>
+      <c r="J21">
+        <v>5.5</v>
+      </c>
+      <c r="K21" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21">
+        <v>250</v>
+      </c>
+      <c r="M21" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21" t="s">
+        <v>102</v>
+      </c>
+      <c r="O21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22">
+        <v>220.70588455999999</v>
+      </c>
+      <c r="F22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22">
+        <v>11</v>
+      </c>
+      <c r="J22">
+        <v>5.5</v>
+      </c>
+      <c r="K22" t="s">
+        <v>38</v>
+      </c>
+      <c r="L22">
+        <v>250</v>
+      </c>
+      <c r="M22" t="s">
+        <v>40</v>
+      </c>
+      <c r="N22" t="s">
+        <v>102</v>
+      </c>
+      <c r="O22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23">
+        <v>58.823529999999998</v>
+      </c>
+      <c r="F23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23">
+        <v>11</v>
+      </c>
+      <c r="J23">
+        <v>5.5</v>
+      </c>
+      <c r="K23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23">
+        <v>250</v>
+      </c>
+      <c r="M23" t="s">
+        <v>40</v>
+      </c>
+      <c r="N23" t="s">
+        <v>102</v>
+      </c>
+      <c r="O23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24">
+        <f>E23/5</f>
+        <v>11.764706</v>
+      </c>
+      <c r="F24" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24">
+        <v>11</v>
+      </c>
+      <c r="J24">
+        <v>5.5</v>
+      </c>
+      <c r="K24" t="s">
+        <v>38</v>
+      </c>
+      <c r="L24">
+        <v>250</v>
+      </c>
+      <c r="M24" t="s">
+        <v>40</v>
+      </c>
+      <c r="N24" t="s">
+        <v>102</v>
+      </c>
+      <c r="O24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25">
+        <f>E24/5</f>
+        <v>2.3529412000000001</v>
+      </c>
+      <c r="F25" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25">
+        <v>11</v>
+      </c>
+      <c r="J25">
+        <v>5.5</v>
+      </c>
+      <c r="K25" t="s">
+        <v>38</v>
+      </c>
+      <c r="L25">
+        <v>250</v>
+      </c>
+      <c r="M25" t="s">
+        <v>40</v>
+      </c>
+      <c r="N25" t="s">
+        <v>102</v>
+      </c>
+      <c r="O25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26">
+        <f>E25/5</f>
+        <v>0.47058823999999999</v>
+      </c>
+      <c r="F26" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26">
+        <v>11</v>
+      </c>
+      <c r="J26">
+        <v>5.5</v>
+      </c>
+      <c r="K26" t="s">
+        <v>38</v>
+      </c>
+      <c r="L26">
+        <v>250</v>
+      </c>
+      <c r="M26" t="s">
+        <v>40</v>
+      </c>
+      <c r="N26" t="s">
+        <v>102</v>
+      </c>
+      <c r="O26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27">
+        <v>220.70588455999999</v>
+      </c>
+      <c r="F27" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27">
+        <v>11</v>
+      </c>
+      <c r="J27">
+        <v>5.5</v>
+      </c>
+      <c r="K27" t="s">
+        <v>38</v>
+      </c>
+      <c r="L27">
+        <v>250</v>
+      </c>
+      <c r="M27" t="s">
+        <v>40</v>
+      </c>
+      <c r="N27" t="s">
+        <v>102</v>
+      </c>
+      <c r="O27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28">
+        <v>58.823529999999998</v>
+      </c>
+      <c r="F28" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28">
+        <v>11</v>
+      </c>
+      <c r="J28">
+        <v>5.5</v>
+      </c>
+      <c r="K28" t="s">
+        <v>38</v>
+      </c>
+      <c r="L28">
+        <v>250</v>
+      </c>
+      <c r="M28" t="s">
+        <v>40</v>
+      </c>
+      <c r="N28" t="s">
+        <v>102</v>
+      </c>
+      <c r="O28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29">
+        <f>E28/5</f>
+        <v>11.764706</v>
+      </c>
+      <c r="F29" t="s">
+        <v>102</v>
+      </c>
+      <c r="G29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29">
+        <v>11</v>
+      </c>
+      <c r="J29">
+        <v>5.5</v>
+      </c>
+      <c r="K29" t="s">
+        <v>38</v>
+      </c>
+      <c r="L29">
+        <v>250</v>
+      </c>
+      <c r="M29" t="s">
+        <v>40</v>
+      </c>
+      <c r="N29" t="s">
+        <v>102</v>
+      </c>
+      <c r="O29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30">
+        <f>E29/5</f>
+        <v>2.3529412000000001</v>
+      </c>
+      <c r="F30" t="s">
+        <v>102</v>
+      </c>
+      <c r="G30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30">
+        <v>11</v>
+      </c>
+      <c r="J30">
+        <v>5.5</v>
+      </c>
+      <c r="K30" t="s">
+        <v>38</v>
+      </c>
+      <c r="L30">
+        <v>250</v>
+      </c>
+      <c r="M30" t="s">
+        <v>40</v>
+      </c>
+      <c r="N30" t="s">
+        <v>102</v>
+      </c>
+      <c r="O30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31">
+        <f>E30/5</f>
+        <v>0.47058823999999999</v>
+      </c>
+      <c r="F31" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31">
+        <v>11</v>
+      </c>
+      <c r="J31">
+        <v>5.5</v>
+      </c>
+      <c r="K31" t="s">
+        <v>38</v>
+      </c>
+      <c r="L31">
+        <v>250</v>
+      </c>
+      <c r="M31" t="s">
+        <v>40</v>
+      </c>
+      <c r="N31" t="s">
+        <v>102</v>
+      </c>
+      <c r="O31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>102</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>46</v>
+      </c>
+      <c r="J32" t="s">
+        <v>46</v>
+      </c>
+      <c r="K32" t="s">
+        <v>38</v>
+      </c>
+      <c r="L32">
+        <v>250</v>
+      </c>
+      <c r="M32" t="s">
+        <v>40</v>
+      </c>
+      <c r="N32" t="s">
+        <v>102</v>
+      </c>
+      <c r="O32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>102</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>46</v>
+      </c>
+      <c r="J33" t="s">
+        <v>46</v>
+      </c>
+      <c r="K33" t="s">
+        <v>38</v>
+      </c>
+      <c r="L33">
+        <v>250</v>
+      </c>
+      <c r="M33" t="s">
+        <v>40</v>
+      </c>
+      <c r="N33" t="s">
+        <v>102</v>
+      </c>
+      <c r="O33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>102</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>46</v>
+      </c>
+      <c r="J34" t="s">
+        <v>46</v>
+      </c>
+      <c r="K34" t="s">
+        <v>38</v>
+      </c>
+      <c r="L34">
+        <v>250</v>
+      </c>
+      <c r="M34" t="s">
+        <v>40</v>
+      </c>
+      <c r="N34" t="s">
+        <v>102</v>
+      </c>
+      <c r="O34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>102</v>
+      </c>
+      <c r="G35" t="s">
+        <v>132</v>
+      </c>
+      <c r="H35" t="s">
+        <v>42</v>
+      </c>
+      <c r="I35">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J35">
+        <v>5</v>
+      </c>
+      <c r="K35" t="s">
+        <v>38</v>
+      </c>
+      <c r="L35">
+        <v>250</v>
+      </c>
+      <c r="M35" t="s">
+        <v>40</v>
+      </c>
+      <c r="N35" t="s">
+        <v>102</v>
+      </c>
+      <c r="O35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>102</v>
+      </c>
+      <c r="G36" t="s">
+        <v>132</v>
+      </c>
+      <c r="H36" t="s">
+        <v>42</v>
+      </c>
+      <c r="I36">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J36">
+        <v>5</v>
+      </c>
+      <c r="K36" t="s">
+        <v>38</v>
+      </c>
+      <c r="L36">
+        <v>250</v>
+      </c>
+      <c r="M36" t="s">
+        <v>40</v>
+      </c>
+      <c r="N36" t="s">
+        <v>102</v>
+      </c>
+      <c r="O36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>102</v>
+      </c>
+      <c r="G37" t="s">
+        <v>132</v>
+      </c>
+      <c r="H37" t="s">
+        <v>42</v>
+      </c>
+      <c r="I37">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J37">
+        <v>5</v>
+      </c>
+      <c r="K37" t="s">
+        <v>38</v>
+      </c>
+      <c r="L37">
+        <v>250</v>
+      </c>
+      <c r="M37" t="s">
+        <v>40</v>
+      </c>
+      <c r="N37" t="s">
+        <v>102</v>
+      </c>
+      <c r="O37">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>102</v>
+      </c>
+      <c r="G38" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="H38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I38">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J38">
+        <v>5</v>
+      </c>
+      <c r="K38" t="s">
+        <v>38</v>
+      </c>
+      <c r="L38">
+        <v>250</v>
+      </c>
+      <c r="M38" t="s">
+        <v>40</v>
+      </c>
+      <c r="N38" t="s">
+        <v>102</v>
+      </c>
+      <c r="O38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>102</v>
+      </c>
+      <c r="G39" t="s">
+        <v>133</v>
+      </c>
+      <c r="H39" t="s">
+        <v>42</v>
+      </c>
+      <c r="I39">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J39">
+        <v>5</v>
+      </c>
+      <c r="K39" t="s">
+        <v>38</v>
+      </c>
+      <c r="L39">
+        <v>250</v>
+      </c>
+      <c r="M39" t="s">
+        <v>40</v>
+      </c>
+      <c r="N39" t="s">
+        <v>102</v>
+      </c>
+      <c r="O39">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>102</v>
+      </c>
+      <c r="G40" t="s">
+        <v>133</v>
+      </c>
+      <c r="H40" t="s">
+        <v>42</v>
+      </c>
+      <c r="I40">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J40">
+        <v>5</v>
+      </c>
+      <c r="K40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L40">
+        <v>250</v>
+      </c>
+      <c r="M40" t="s">
+        <v>40</v>
+      </c>
+      <c r="N40" t="s">
+        <v>102</v>
+      </c>
+      <c r="O40">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>102</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>46</v>
+      </c>
+      <c r="J41" t="s">
+        <v>46</v>
+      </c>
+      <c r="K41" t="s">
+        <v>38</v>
+      </c>
+      <c r="L41">
+        <v>250</v>
+      </c>
+      <c r="M41" t="s">
+        <v>40</v>
+      </c>
+      <c r="N41" t="s">
+        <v>102</v>
+      </c>
+      <c r="O41">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>102</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>46</v>
+      </c>
+      <c r="J42" t="s">
+        <v>46</v>
+      </c>
+      <c r="K42" t="s">
+        <v>38</v>
+      </c>
+      <c r="L42">
+        <v>250</v>
+      </c>
+      <c r="M42" t="s">
+        <v>40</v>
+      </c>
+      <c r="N42" t="s">
+        <v>102</v>
+      </c>
+      <c r="O42">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>102</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>46</v>
+      </c>
+      <c r="J43" t="s">
+        <v>46</v>
+      </c>
+      <c r="K43" t="s">
+        <v>38</v>
+      </c>
+      <c r="L43">
+        <v>250</v>
+      </c>
+      <c r="M43" t="s">
+        <v>40</v>
+      </c>
+      <c r="N43" t="s">
+        <v>102</v>
+      </c>
+      <c r="O43">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>102</v>
+      </c>
+      <c r="G44" t="s">
         <v>132</v>
       </c>
-      <c r="E2" t="s">
-        <v>134</v>
+      <c r="H44" t="s">
+        <v>42</v>
+      </c>
+      <c r="I44">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J44">
+        <v>5</v>
+      </c>
+      <c r="K44" t="s">
+        <v>38</v>
+      </c>
+      <c r="L44">
+        <v>250</v>
+      </c>
+      <c r="M44" t="s">
+        <v>40</v>
+      </c>
+      <c r="N44" t="s">
+        <v>102</v>
+      </c>
+      <c r="O44">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>102</v>
+      </c>
+      <c r="G45" t="s">
+        <v>132</v>
+      </c>
+      <c r="H45" t="s">
+        <v>42</v>
+      </c>
+      <c r="I45">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J45">
+        <v>5</v>
+      </c>
+      <c r="K45" t="s">
+        <v>38</v>
+      </c>
+      <c r="L45">
+        <v>250</v>
+      </c>
+      <c r="M45" t="s">
+        <v>40</v>
+      </c>
+      <c r="N45" t="s">
+        <v>102</v>
+      </c>
+      <c r="O45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>102</v>
+      </c>
+      <c r="G46" t="s">
+        <v>132</v>
+      </c>
+      <c r="H46" t="s">
+        <v>42</v>
+      </c>
+      <c r="I46">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J46">
+        <v>5</v>
+      </c>
+      <c r="K46" t="s">
+        <v>38</v>
+      </c>
+      <c r="L46">
+        <v>250</v>
+      </c>
+      <c r="M46" t="s">
+        <v>40</v>
+      </c>
+      <c r="N46" t="s">
+        <v>102</v>
+      </c>
+      <c r="O46">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" t="s">
+        <v>131</v>
+      </c>
+      <c r="C47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G47" t="s">
+        <v>133</v>
+      </c>
+      <c r="H47" t="s">
+        <v>42</v>
+      </c>
+      <c r="I47">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J47">
+        <v>5</v>
+      </c>
+      <c r="K47" t="s">
+        <v>38</v>
+      </c>
+      <c r="L47">
+        <v>250</v>
+      </c>
+      <c r="M47" t="s">
+        <v>40</v>
+      </c>
+      <c r="N47" t="s">
+        <v>102</v>
+      </c>
+      <c r="O47">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>102</v>
+      </c>
+      <c r="G48" t="s">
+        <v>133</v>
+      </c>
+      <c r="H48" t="s">
+        <v>42</v>
+      </c>
+      <c r="I48">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J48">
+        <v>5</v>
+      </c>
+      <c r="K48" t="s">
+        <v>38</v>
+      </c>
+      <c r="L48">
+        <v>250</v>
+      </c>
+      <c r="M48" t="s">
+        <v>40</v>
+      </c>
+      <c r="N48" t="s">
+        <v>102</v>
+      </c>
+      <c r="O48">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" t="s">
+        <v>131</v>
+      </c>
+      <c r="C49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>102</v>
+      </c>
+      <c r="G49" t="s">
+        <v>133</v>
+      </c>
+      <c r="H49" t="s">
+        <v>42</v>
+      </c>
+      <c r="I49">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J49">
+        <v>5</v>
+      </c>
+      <c r="K49" t="s">
+        <v>38</v>
+      </c>
+      <c r="L49">
+        <v>250</v>
+      </c>
+      <c r="M49" t="s">
+        <v>40</v>
+      </c>
+      <c r="N49" t="s">
+        <v>102</v>
+      </c>
+      <c r="O49">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="I1:I31">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E2 E4:E6">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:E11 E7">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E16 E12">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19:E21 E17">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24:E26 E22">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29:E31 E27">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/plate-reader-screens/plate_layouts.xlsx
+++ b/plate-reader-screens/plate_layouts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aqib/Desktop/BCCL/char-syn-gene-nets/circuit-state/plate-reader-screens/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83421FC4-5C4F-EF4A-AD84-6454213E0546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0231723D-D858-4647-8775-CC9D92E87CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4000" yWindow="500" windowWidth="45080" windowHeight="26220" firstSheet="2" activeTab="12" xr2:uid="{86E41D9F-BC50-BD4C-BFC8-A140258F459E}"/>
+    <workbookView xWindow="-46420" yWindow="-4680" windowWidth="44800" windowHeight="26180" firstSheet="7" activeTab="14" xr2:uid="{86E41D9F-BC50-BD4C-BFC8-A140258F459E}"/>
   </bookViews>
   <sheets>
     <sheet name="adp1_antibiotic_10.12" sheetId="4" r:id="rId1"/>
@@ -26,6 +26,8 @@
     <sheet name="mgz1_mepMover_amp_2.4.23" sheetId="16" r:id="rId11"/>
     <sheet name="mgz1_DT_amp_2.7.23" sheetId="17" r:id="rId12"/>
     <sheet name="mgz1_3antibiotics_2.9.23" sheetId="18" r:id="rId13"/>
+    <sheet name="mgz1_cef_bia_2.25.23" sheetId="19" r:id="rId14"/>
+    <sheet name="nand_plasmid_amp_2.28.23" sheetId="20" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5062" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5482" uniqueCount="138">
   <si>
     <t>well</t>
   </si>
@@ -449,6 +451,18 @@
   <si>
     <t>cefazolin</t>
   </si>
+  <si>
+    <t>MGZ1_dCasRx</t>
+  </si>
+  <si>
+    <t>MG1655</t>
+  </si>
+  <si>
+    <t>pJ2007_PhlF</t>
+  </si>
+  <si>
+    <t>pJ2007_IcaR</t>
+  </si>
 </sst>
 </file>
 
@@ -492,12 +506,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF63BE7B"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -512,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -522,6 +542,8 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9198,8 +9220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0316DAE-8BCC-A846-AB6B-A7C3C6D5DDFD}">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:O49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11661,6 +11683,2144 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FE2A9F-CEC8-1043-A40C-B550A8586224}">
+  <dimension ref="A1:O19"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="Q43" sqref="Q43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>5.5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2">
+        <v>250</v>
+      </c>
+      <c r="M2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" t="s">
+        <v>102</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>5.5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3">
+        <v>250</v>
+      </c>
+      <c r="M3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" t="s">
+        <v>102</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>5.5</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4">
+        <v>250</v>
+      </c>
+      <c r="M4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>5.5</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5">
+        <v>250</v>
+      </c>
+      <c r="M5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" t="s">
+        <v>102</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>5.5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6">
+        <v>250</v>
+      </c>
+      <c r="M6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" t="s">
+        <v>102</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>5.5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7">
+        <v>250</v>
+      </c>
+      <c r="M7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" t="s">
+        <v>102</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>5.5</v>
+      </c>
+      <c r="K8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8">
+        <v>250</v>
+      </c>
+      <c r="M8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>5.5</v>
+      </c>
+      <c r="K9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9">
+        <v>250</v>
+      </c>
+      <c r="M9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>133</v>
+      </c>
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>5.5</v>
+      </c>
+      <c r="K10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10">
+        <v>250</v>
+      </c>
+      <c r="M10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" t="s">
+        <v>102</v>
+      </c>
+      <c r="O10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" t="s">
+        <v>133</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>5.5</v>
+      </c>
+      <c r="K11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11">
+        <v>250</v>
+      </c>
+      <c r="M11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" t="s">
+        <v>102</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>5.5</v>
+      </c>
+      <c r="K12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12">
+        <v>250</v>
+      </c>
+      <c r="M12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" t="s">
+        <v>102</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>5.5</v>
+      </c>
+      <c r="K13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13">
+        <v>250</v>
+      </c>
+      <c r="M13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13" t="s">
+        <v>102</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" t="s">
+        <v>133</v>
+      </c>
+      <c r="H14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>5.5</v>
+      </c>
+      <c r="K14" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14">
+        <v>250</v>
+      </c>
+      <c r="M14" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14" t="s">
+        <v>102</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>5.5</v>
+      </c>
+      <c r="K15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15">
+        <v>250</v>
+      </c>
+      <c r="M15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15" t="s">
+        <v>102</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" t="s">
+        <v>133</v>
+      </c>
+      <c r="H16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>5.5</v>
+      </c>
+      <c r="K16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16">
+        <v>250</v>
+      </c>
+      <c r="M16" t="s">
+        <v>40</v>
+      </c>
+      <c r="N16" t="s">
+        <v>102</v>
+      </c>
+      <c r="O16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" t="s">
+        <v>133</v>
+      </c>
+      <c r="H17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>5.5</v>
+      </c>
+      <c r="K17" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17">
+        <v>250</v>
+      </c>
+      <c r="M17" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17" t="s">
+        <v>102</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>5.5</v>
+      </c>
+      <c r="K18" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18">
+        <v>250</v>
+      </c>
+      <c r="M18" t="s">
+        <v>40</v>
+      </c>
+      <c r="N18" t="s">
+        <v>102</v>
+      </c>
+      <c r="O18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>5.5</v>
+      </c>
+      <c r="K19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19">
+        <v>250</v>
+      </c>
+      <c r="M19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19" t="s">
+        <v>102</v>
+      </c>
+      <c r="O19">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="E1:E19">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I7">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20:I22">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8:I13">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:I19">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB40F125-1054-0F4A-B6CD-6BF39265F046}">
+  <dimension ref="A1:O22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>5.5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2">
+        <v>250</v>
+      </c>
+      <c r="M2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" t="s">
+        <v>102</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>5.5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3">
+        <v>250</v>
+      </c>
+      <c r="M3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" t="s">
+        <v>102</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>5.5</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4">
+        <v>250</v>
+      </c>
+      <c r="M4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <v>5.5</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5">
+        <v>250</v>
+      </c>
+      <c r="M5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" t="s">
+        <v>102</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <v>5.5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6">
+        <v>250</v>
+      </c>
+      <c r="M6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" t="s">
+        <v>102</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7">
+        <v>8</v>
+      </c>
+      <c r="J7">
+        <v>5.5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7">
+        <v>250</v>
+      </c>
+      <c r="M7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" t="s">
+        <v>102</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>5.5</v>
+      </c>
+      <c r="K8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8">
+        <v>250</v>
+      </c>
+      <c r="M8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>5.5</v>
+      </c>
+      <c r="K9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9">
+        <v>250</v>
+      </c>
+      <c r="M9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>5.5</v>
+      </c>
+      <c r="K10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10">
+        <v>250</v>
+      </c>
+      <c r="M10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" t="s">
+        <v>102</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>5.5</v>
+      </c>
+      <c r="K11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11">
+        <v>250</v>
+      </c>
+      <c r="M11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" t="s">
+        <v>102</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="J12">
+        <v>5.5</v>
+      </c>
+      <c r="K12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12">
+        <v>250</v>
+      </c>
+      <c r="M12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" t="s">
+        <v>102</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13">
+        <v>8</v>
+      </c>
+      <c r="J13">
+        <v>5.5</v>
+      </c>
+      <c r="K13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13">
+        <v>250</v>
+      </c>
+      <c r="M13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13" t="s">
+        <v>102</v>
+      </c>
+      <c r="O13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
+      </c>
+      <c r="J14">
+        <v>5.5</v>
+      </c>
+      <c r="K14" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14">
+        <v>250</v>
+      </c>
+      <c r="M14" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14" t="s">
+        <v>102</v>
+      </c>
+      <c r="O14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15">
+        <v>0.5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>5.5</v>
+      </c>
+      <c r="K15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15">
+        <v>250</v>
+      </c>
+      <c r="M15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15" t="s">
+        <v>102</v>
+      </c>
+      <c r="O15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>5.5</v>
+      </c>
+      <c r="K16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16">
+        <v>250</v>
+      </c>
+      <c r="M16" t="s">
+        <v>40</v>
+      </c>
+      <c r="N16" t="s">
+        <v>102</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>5.5</v>
+      </c>
+      <c r="K17" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17">
+        <v>250</v>
+      </c>
+      <c r="M17" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17" t="s">
+        <v>102</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>5.5</v>
+      </c>
+      <c r="K18" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18">
+        <v>250</v>
+      </c>
+      <c r="M18" t="s">
+        <v>40</v>
+      </c>
+      <c r="N18" t="s">
+        <v>102</v>
+      </c>
+      <c r="O18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19">
+        <v>8</v>
+      </c>
+      <c r="J19">
+        <v>5.5</v>
+      </c>
+      <c r="K19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19">
+        <v>250</v>
+      </c>
+      <c r="M19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19" t="s">
+        <v>102</v>
+      </c>
+      <c r="O19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20">
+        <v>8</v>
+      </c>
+      <c r="J20">
+        <v>5.5</v>
+      </c>
+      <c r="K20" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20">
+        <v>250</v>
+      </c>
+      <c r="M20" t="s">
+        <v>40</v>
+      </c>
+      <c r="N20" t="s">
+        <v>102</v>
+      </c>
+      <c r="O20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21">
+        <v>8</v>
+      </c>
+      <c r="J21">
+        <v>5.5</v>
+      </c>
+      <c r="K21" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21">
+        <v>250</v>
+      </c>
+      <c r="M21" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21" t="s">
+        <v>102</v>
+      </c>
+      <c r="O21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>5.5</v>
+      </c>
+      <c r="K22" t="s">
+        <v>38</v>
+      </c>
+      <c r="L22">
+        <v>250</v>
+      </c>
+      <c r="M22" t="s">
+        <v>40</v>
+      </c>
+      <c r="N22" t="s">
+        <v>102</v>
+      </c>
+      <c r="O22">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E8 E1 E15 E22">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I8">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10:I15">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17:I22">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E7">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E14">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67F337F-D56F-DE4B-B44D-97EF61F12050}">
   <dimension ref="A1:K28"/>
